--- a/Arquivos/Geral_Relatorio.xlsx
+++ b/Arquivos/Geral_Relatorio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Xampp\htdocs\Testes\Controle_Financeiro\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63FB748-1541-4566-93CE-83EA7C1005EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C1FC32-9604-435E-A4AE-60C3A66D6C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="1" xr2:uid="{0BF9C393-210A-48CF-A8E1-590D0E6A75CB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="1000" activeTab="3" xr2:uid="{0BF9C393-210A-48CF-A8E1-590D0E6A75CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Categoria" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="104">
   <si>
     <t>Salario</t>
   </si>
@@ -157,12 +159,6 @@
   </si>
   <si>
     <t>Despesas</t>
-  </si>
-  <si>
-    <t>Saldo Mês</t>
-  </si>
-  <si>
-    <t>Saldo Final</t>
   </si>
   <si>
     <t>MOVIMENTADO TOTAL</t>
@@ -316,6 +312,42 @@
   </si>
   <si>
     <t>Valor</t>
+  </si>
+  <si>
+    <t>Casamento</t>
+  </si>
+  <si>
+    <t>Saldo Final Itau</t>
+  </si>
+  <si>
+    <t>Saldo Final Geral</t>
+  </si>
+  <si>
+    <t>Saldo Final Santander C/C</t>
+  </si>
+  <si>
+    <t>Saldo Final Saldo C/P</t>
+  </si>
+  <si>
+    <t>abr/21</t>
+  </si>
+  <si>
+    <t>mai/21</t>
+  </si>
+  <si>
+    <t>Saldo Mês Itau</t>
+  </si>
+  <si>
+    <t>jun/21</t>
+  </si>
+  <si>
+    <t>Saldo Mês Santander C/C</t>
+  </si>
+  <si>
+    <t>Saldo Mês Santander C/P</t>
+  </si>
+  <si>
+    <t>Saldo Mês Geral</t>
   </si>
 </sst>
 </file>
@@ -483,6 +515,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,18 +539,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="58">
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -530,9 +565,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -1431,10 +1463,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6600"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFF66CC"/>
       <color rgb="FFFF0066"/>
-      <color rgb="FFFF6600"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1469,8 +1501,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.2400788880272849E-2"/>
-          <c:y val="2.3051570537987353E-2"/>
+          <c:x val="4.9352887737347938E-2"/>
+          <c:y val="1.3768170765448234E-2"/>
           <c:w val="0.95051543245803294"/>
           <c:h val="0.6994971853487848"/>
         </c:manualLayout>
@@ -1506,9 +1538,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AS$1</c:f>
+              <c:f>Categoria!$C$1:$AY$1</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -1637,16 +1669,34 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>abr/20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>mai/20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>jun/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$2:$AS$2</c:f>
+              <c:f>Categoria!$C$2:$AY$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1967.72</c:v>
                 </c:pt>
@@ -1775,6 +1825,24 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10389.92</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4598</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8941.5300000000007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5420.76</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9760.61</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5347.45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8704.8700000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,9 +1884,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AS$1</c:f>
+              <c:f>Categoria!$C$1:$AY$1</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -1947,16 +2015,34 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>abr/20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>mai/20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>jun/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$3:$AS$3</c:f>
+              <c:f>Categoria!$C$3:$AY$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>35.9</c:v>
                 </c:pt>
@@ -2085,12 +2171,30 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>204.03</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>189.92</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>183.02</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>164.28</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>222.92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>195.31</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>162.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-40D3-4747-88B0-ECF52C3460DB}"/>
             </c:ext>
@@ -2124,9 +2228,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AS$1</c:f>
+              <c:f>Categoria!$C$1:$AY$1</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -2255,16 +2359,34 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>abr/20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>mai/20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>jun/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$4:$AS$4</c:f>
+              <c:f>Categoria!$C$4:$AY$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>343.47</c:v>
                 </c:pt>
@@ -2393,6 +2515,24 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1261.32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1754.53</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>982.72</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>758.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>537.78</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>987.92</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>788.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2401,284 +2541,6 @@
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-40D3-4747-88B0-ECF52C3460DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Categoria!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Acerto -&gt;</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Categoria!$C$1:$AS$1</c:f>
-              <c:strCache>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>jan/16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>fev/16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mar/16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>abr/16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>mai/16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>jun/16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>jul/16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ago/16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>set/16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>out/16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>nov/16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>dez/16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>jan/17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>fev/17</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>mar/17</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>abr/17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>mai/17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>jun/17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>jul/17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>ago/17</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>set/17</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>out/17</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>nov/17</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>dez/17</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>jan/18</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>fev/18</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>mar/18</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>abr/18</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>mai/18</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>jun/18</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>dez/18</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>jan/19</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>fev/19</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>mar/19</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>abr/19</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>mai/19</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>jun/19</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>jul/19</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>ago/19</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>set/19</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>out/19</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>nov/19</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>dez/19</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Categoria!$C$5:$AS$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>41.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1078.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>487</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>487</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>487.61</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1972.29</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>487.61</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1484.68</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2388.09</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1640</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1057.1500000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1640</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1835</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1640</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-40D3-4747-88B0-ECF52C3460DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2710,9 +2572,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AS$1</c:f>
+              <c:f>Categoria!$C$1:$AY$1</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -2841,16 +2703,34 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>abr/20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>mai/20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>jun/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$6:$AS$6</c:f>
+              <c:f>Categoria!$C$6:$AY$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="7">
                   <c:v>380.06</c:v>
                 </c:pt>
@@ -2958,6 +2838,24 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3436.63</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2910.45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1983.46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1631.55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1483.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1682.08</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1291.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2997,9 +2895,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AS$1</c:f>
+              <c:f>Categoria!$C$1:$AY$1</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -3128,16 +3026,34 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>abr/20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>mai/20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>jun/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$7:$AS$7</c:f>
+              <c:f>Categoria!$C$7:$AY$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="30">
                   <c:v>650</c:v>
                 </c:pt>
@@ -3176,6 +3092,24 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2300.6799999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2035.32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2337.6799999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2142.33</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2347.64</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2350.27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2554.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,9 +3151,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AS$1</c:f>
+              <c:f>Categoria!$C$1:$AY$1</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -3348,16 +3282,34 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>abr/20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>mai/20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>jun/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$8:$AS$8</c:f>
+              <c:f>Categoria!$C$8:$AY$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="1">
                   <c:v>77.099999999999994</c:v>
                 </c:pt>
@@ -3471,6 +3423,24 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2371.5700000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2470.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1643.16</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2030.16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1376.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3479,6 +3449,230 @@
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-40D3-4747-88B0-ECF52C3460DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Categoria!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Casamento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Categoria!$C$1:$AY$1</c:f>
+              <c:strCache>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>jan/16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fev/16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mar/16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>abr/16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mai/16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jun/16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>jul/16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ago/16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>set/16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>out/16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>nov/16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>dez/16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>jan/17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>fev/17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>mar/17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>abr/17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mai/17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>jun/17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>jul/17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>ago/17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>set/17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>out/17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>nov/17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>dez/17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>jan/18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>fev/18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>mar/18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>abr/18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>mai/18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>jun/18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>dez/18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>jan/19</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>fev/19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>mar/19</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>abr/19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>mai/19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>jun/19</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>jul/19</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>ago/19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>set/19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>out/19</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>nov/19</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>abr/20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>mai/20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>jun/20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Categoria!$C$16:$AY$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A795-40CB-93F8-5786721A48C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3512,12 +3706,346 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Categoria!$B$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Acerto -&gt;</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="49"/>
+                      <c:pt idx="0">
+                        <c:v>jan/16</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>fev/16</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>mar/16</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>abr/16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>mai/16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jun/16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>jul/16</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>ago/16</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>set/16</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>out/16</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>nov/16</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>dez/16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>jan/17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>fev/17</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>mar/17</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>abr/17</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>mai/17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jun/17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>jul/17</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>ago/17</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>set/17</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>out/17</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>nov/17</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>dez/17</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>jan/18</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>dez/18</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>abr/20</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>mai/20</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>jun/20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Categoria!$C$5:$AY$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="49"/>
+                      <c:pt idx="0">
+                        <c:v>41.4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12.55</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12.55</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1078.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>12.5</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>12.5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>12.5</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>487</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>487</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>487.61</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1972.29</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>487.61</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1484.68</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2388.09</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3500</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1640</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1057.1500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1640</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1835</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1990</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1640</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1700</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1680</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>348</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>396</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>270</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-40D3-4747-88B0-ECF52C3460DB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
                 <c:idx val="7"/>
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$9</c15:sqref>
                         </c15:formulaRef>
@@ -3548,14 +4076,14 @@
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AS$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="49"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -3684,6 +4212,24 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>abr/20</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>mai/20</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>jun/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3691,15 +4237,15 @@
                 <c:val>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$9:$AS$9</c15:sqref>
+                          <c15:sqref>Categoria!$C$9:$AY$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="49"/>
                       <c:pt idx="0">
                         <c:v>6</c:v>
                       </c:pt>
@@ -3819,12 +4365,30 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>360.69</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>66.010000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>66.010000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>65.989999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>113.85</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-40D3-4747-88B0-ECF52C3460DB}"/>
                   </c:ext>
@@ -3837,7 +4401,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$10</c15:sqref>
@@ -3868,15 +4432,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AS$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="49"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4005,22 +4569,40 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>abr/20</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>mai/20</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>jun/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$10:$AS$10</c15:sqref>
+                          <c15:sqref>Categoria!$C$10:$AY$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="49"/>
                       <c:pt idx="0">
                         <c:v>101.25</c:v>
                       </c:pt>
@@ -4122,6 +4704,24 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>549.79</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>559.59</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>552.12</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>551.70000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>305.79000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>900</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>362.19</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4140,7 +4740,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$11</c15:sqref>
@@ -4171,15 +4771,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AS$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="49"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4308,22 +4908,40 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>abr/20</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>mai/20</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>jun/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$11:$AS$11</c15:sqref>
+                          <c15:sqref>Categoria!$C$11:$AY$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="49"/>
                       <c:pt idx="0">
                         <c:v>90</c:v>
                       </c:pt>
@@ -4443,6 +5061,24 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>811.83</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>1313.72</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>1338.64</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>264.47000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>371.5</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>581.41</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>414.02</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4461,7 +5097,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$12</c15:sqref>
@@ -4490,15 +5126,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AS$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="49"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4627,22 +5263,40 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>abr/20</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>mai/20</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>jun/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$12:$AS$12</c15:sqref>
+                          <c15:sqref>Categoria!$C$12:$AY$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="49"/>
                       <c:pt idx="0">
                         <c:v>286.60000000000002</c:v>
                       </c:pt>
@@ -4753,6 +5407,21 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>1842</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>1978</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1734</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>1780</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>3350</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1468.64</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4771,7 +5440,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$13</c15:sqref>
@@ -4802,15 +5471,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AS$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="49"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4939,22 +5608,40 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>abr/20</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>mai/20</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>jun/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$13:$AS$13</c15:sqref>
+                          <c15:sqref>Categoria!$C$13:$AY$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="49"/>
                       <c:pt idx="0">
                         <c:v>500</c:v>
                       </c:pt>
@@ -5011,6 +5698,21 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>619.79</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>39.99</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>58.99</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>245.08</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>116</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5029,7 +5731,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$14</c15:sqref>
@@ -5061,15 +5763,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AS$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="49"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -5198,22 +5900,40 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>abr/20</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>mai/20</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>jun/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$14:$AS$14</c15:sqref>
+                          <c15:sqref>Categoria!$C$14:$AY$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="49"/>
                       <c:pt idx="1">
                         <c:v>1247.1500000000001</c:v>
                       </c:pt>
@@ -5291,7 +6011,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$15</c15:sqref>
@@ -5323,15 +6043,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AS$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="49"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -5460,22 +6180,40 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>abr/20</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>mai/20</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>jun/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$15:$AS$15</c15:sqref>
+                          <c15:sqref>Categoria!$C$15:$AY$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="43"/>
+                      <c:ptCount val="49"/>
                       <c:pt idx="7">
                         <c:v>300</c:v>
                       </c:pt>
@@ -5523,6 +6261,15 @@
                       </c:pt>
                       <c:pt idx="42">
                         <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>143.58000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>173.53</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>308.64</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5691,6 +6438,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.98925402402642637"/>
+          <c:y val="9.2971706692788286E-2"/>
+          <c:w val="1.0547344544122494E-2"/>
+          <c:h val="0.4499353898994945"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5841,6 +6598,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5867,6 +6629,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5893,6 +6660,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5919,6 +6691,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5945,6 +6722,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5971,6 +6753,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -6000,6 +6787,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -6029,6 +6821,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -6058,6 +6855,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -6087,6 +6889,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -6116,6 +6923,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -6145,6 +6957,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -6176,6 +6993,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -6207,6 +7029,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -6238,6 +7065,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -6269,6 +7101,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-A655-42DA-8C41-775F5B1E8FFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -7555,6 +8392,2005 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geral!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saldo Final Itau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>fev/18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mar/18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>abr/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mai/18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jun/18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jan/19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fev/19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mar/19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>abr/19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mai/19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>jun/19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>jul/19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ago/19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>set/19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>out/19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>nov/19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>abr/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mai/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>jun/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geral!$C$8:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1904.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-829.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-210.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>579.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-36.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-616.57000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>785.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3829.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-106.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-623.82000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-455.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-275.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-883.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-861.37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1385.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2589.5300000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1062.1099999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>186.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-507.67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>399.26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>442.88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>498.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8ECF-44EF-A491-A544D355682D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geral!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saldo Final Santander C/C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="FF7C80"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>fev/18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mar/18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>abr/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mai/18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jun/18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jan/19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fev/19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mar/19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>abr/19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mai/19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>jun/19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>jul/19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ago/19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>set/19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>out/19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>nov/19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>abr/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mai/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>jun/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geral!$C$9:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="17">
+                  <c:v>62.23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93.55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>298.31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>225.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8338-4984-BC20-B32CD7413263}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geral!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saldo Final Saldo C/P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>fev/18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mar/18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>abr/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mai/18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jun/18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jan/19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fev/19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mar/19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>abr/19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mai/19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>jun/19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>jul/19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ago/19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>set/19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>out/19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>nov/19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>abr/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mai/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>jun/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geral!$C$10:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="17">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8338-4984-BC20-B32CD7413263}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geral!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saldo Final Geral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>fev/18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mar/18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>abr/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mai/18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jun/18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jan/19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fev/19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mar/19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>abr/19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mai/19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>jun/19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>jul/19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ago/19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>set/19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>out/19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>nov/19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>abr/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mai/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>jun/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geral!$C$11:$Y$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="17">
+                  <c:v>-399.87999999999988</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279.87</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-435.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3697.5699999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4668.72</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3698.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8338-4984-BC20-B32CD7413263}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="694377176"/>
+        <c:axId val="694380456"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Receita</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:srgbClr val="00B050"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$2:$Y$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>5063</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5184.68</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4738.09</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7965</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9650</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6733</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6232</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9856.7999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>12418</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5105</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8530.2000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>10078.02</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8862.74</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>8535</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="#,##0.00">
+                        <c:v>5157.2</c:v>
+                      </c:pt>
+                      <c:pt idx="15" formatCode="#,##0.00">
+                        <c:v>8380</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>11682</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>5409</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>9029.7000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>6534</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>8050.05</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>7450</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>8195.06</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-D37A-4AE0-9BF2-F267E544B862}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Despesas</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$3:$Y$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>3702.28</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5583.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5754.33</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7345.95</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8860.6299999999992</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8387.18</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6812.24</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8454.48</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9373.7999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9041.49</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9047.48</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9909.67</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8683.2099999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9142.65</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="#,##0.00">
+                        <c:v>5134.9799999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="15" formatCode="#,##0.00">
+                        <c:v>6132.92</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>10478.18</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>9010.64</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>7831.27</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>7227.99</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7143.12</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>7406.38</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>8139.41</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-D37A-4AE0-9BF2-F267E544B862}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Saldo Mês Itau</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:srgbClr val="FF6600"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$4:$Y$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>1360.77</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-398.42</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-1016.24</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>619.04999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>789.37</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-1654.18</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-580.24</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1402.32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3044.2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-3936.49</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-517.28</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>168.35</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>179.53</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-607.65</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>22.22</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2247.08</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1203.82</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-3601.64</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1198.43</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-693.99</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>906.93</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>43.62</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>55.65</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D37A-4AE0-9BF2-F267E544B862}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Saldo Mês Santander C/C</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$5:$Y$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="17">
+                        <c:v>-72.81</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>31.32</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-21</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>225.76</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>-72.47</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>-25.79</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-D37A-4AE0-9BF2-F267E544B862}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Saldo Mês Santander C/P</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$6:$Y$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="17">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-602.6</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-187.98</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>-1000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-8ECF-44EF-A491-A544D355682D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Saldo Mês Geral</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$7:$Y$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="17">
+                        <c:v>-3474.45</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>627.15</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-902.97</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>4132.6900000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>971.15</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>-970.14</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8ECF-44EF-A491-A544D355682D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="694377176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694380456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694380456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694377176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -7582,9 +10418,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$S$1</c:f>
+              <c:f>Geral!$C$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -7635,16 +10471,34 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>abr/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mai/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>jun/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$2:$S$2</c:f>
+              <c:f>Geral!$C$2:$Y$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>5063</c:v>
                 </c:pt>
@@ -7695,14 +10549,32 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>11682</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5409</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9029.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6534</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8050.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7450</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8195.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D37A-4AE0-9BF2-F267E544B862}"/>
+              <c16:uniqueId val="{00000004-1C7C-4917-8EF9-3882E2CD4012}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7734,9 +10606,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$S$1</c:f>
+              <c:f>Geral!$C$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -7787,16 +10659,34 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>abr/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mai/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>jun/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$3:$S$3</c:f>
+              <c:f>Geral!$C$3:$Y$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>3702.28</c:v>
                 </c:pt>
@@ -7847,166 +10737,32 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>10478.18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9010.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7831.27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7227.99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7143.12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7406.38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8139.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D37A-4AE0-9BF2-F267E544B862}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Geral!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Saldo Mês</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Geral!$C$1:$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>fev/18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mar/18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>abr/18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mai/18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>jun/18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>jan/19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fev/19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>mar/19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>abr/19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>mai/19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>jun/19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>jul/19</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>ago/19</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>set/19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>out/19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>nov/19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>dez/19</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Geral!$C$4:$S$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1360.77</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-398.42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1016.24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>619.04999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>789.37</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1654.18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-580.24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1402.32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3044.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3936.49</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-517.28</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>168.35</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>179.53</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-607.65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.22</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2247.08</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1203.82</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D37A-4AE0-9BF2-F267E544B862}"/>
+              <c16:uniqueId val="{00000005-1C7C-4917-8EF9-3882E2CD4012}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8019,13 +10775,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Saldo Final</c:v>
+                  <c:v>Saldo Mês Santander C/C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -8038,9 +10794,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$S$1</c:f>
+              <c:f>Geral!$C$1:$Y$1</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -8091,74 +10847,333 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>abr/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mai/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>jun/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$5:$S$5</c:f>
+              <c:f>Geral!$C$5:$Y$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1904.82</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>186.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-829.29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-210.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>579.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-36.33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-616.57000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>785.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3829.95</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-106.54</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-623.82000000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-455.47</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-275.94</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-883.59</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-861.37</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1385.71</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2589.5300000000002</c:v>
+                <c:ptCount val="23"/>
+                <c:pt idx="17">
+                  <c:v>-72.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>225.76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-72.47</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-25.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D37A-4AE0-9BF2-F267E544B862}"/>
+              <c16:uniqueId val="{00000000-1C7C-4917-8EF9-3882E2CD4012}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geral!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saldo Mês Santander C/P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>fev/18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mar/18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>abr/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mai/18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jun/18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jan/19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fev/19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mar/19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>abr/19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mai/19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>jun/19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>jul/19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ago/19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>set/19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>out/19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>nov/19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>abr/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mai/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>jun/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geral!$C$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-602.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-187.98</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C7C-4917-8EF9-3882E2CD4012}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geral!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saldo Mês Geral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>fev/18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mar/18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>abr/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mai/18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jun/18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jan/19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fev/19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mar/19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>abr/19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mai/19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>jun/19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>jul/19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ago/19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>set/19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>out/19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>nov/19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>abr/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mai/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>jun/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geral!$C$7:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="17">
+                  <c:v>-3474.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>627.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-902.97</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4132.6900000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>971.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-970.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C7C-4917-8EF9-3882E2CD4012}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8174,10 +11189,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -8188,6 +11201,897 @@
         <c:smooth val="0"/>
         <c:axId val="694377176"/>
         <c:axId val="694380456"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Saldo Mês Itau</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:srgbClr val="FF6600"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$4:$Y$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>1360.77</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-398.42</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-1016.24</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>619.04999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>789.37</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-1654.18</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-580.24</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1402.32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3044.2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-3936.49</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-517.28</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>168.35</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>179.53</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-607.65</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>22.22</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2247.08</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1203.82</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-3601.64</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1198.43</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-693.99</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>906.93</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>43.62</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>55.65</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-1C7C-4917-8EF9-3882E2CD4012}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Saldo Final Itau</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:srgbClr val="FF6600"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$8:$Y$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>1904.82</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>186.95</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-829.29</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-210.24</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>579.13</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-36.33</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-616.57000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>785.75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3829.95</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-106.54</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-623.82000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-455.47</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-275.94</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-883.59</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-861.37</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1385.71</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2589.5300000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-1062.1099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>186.32</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-507.67</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>399.26</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>442.88</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>498.53</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-1C7C-4917-8EF9-3882E2CD4012}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Saldo Final Santander C/C</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:srgbClr val="FF7C80"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$9:$Y$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="17">
+                        <c:v>62.23</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>93.55</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>72.55</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>298.31</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>225.84</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>200.05</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-4FFE-425D-95E8-297B34EF8A74}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Saldo Final Saldo C/P</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:srgbClr val="C00000"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$10:$Y$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="17">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-4FFE-425D-95E8-297B34EF8A74}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Saldo Final Geral</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:srgbClr val="00B0F0"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$11:$Y$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="17">
+                        <c:v>-399.87999999999988</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>279.87</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-435.12</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3697.5699999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4668.72</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3698.58</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-4FFE-425D-95E8-297B34EF8A74}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="694377176"/>
@@ -8576,6 +12480,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11320,20 +15264,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>46671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11484,15 +15966,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>39052</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>56196</xdr:rowOff>
+      <xdr:colOff>9152</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>16025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>143455</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>49364</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11517,12 +15999,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>134303</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>33339</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD832E3C-238D-420E-B6A8-4A0E7A49A429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C67A1C5-70D6-4184-BBF9-6AC776A5C264}" name="Tabela2" displayName="Tabela2" ref="B1:BC15" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="B1:BC15" xr:uid="{4892D81B-3103-4E1D-8234-612FB6156837}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C67A1C5-70D6-4184-BBF9-6AC776A5C264}" name="Tabela2" displayName="Tabela2" ref="B1:BC16" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+  <autoFilter ref="B1:BC16" xr:uid="{4892D81B-3103-4E1D-8234-612FB6156837}"/>
   <tableColumns count="54">
     <tableColumn id="1" xr3:uid="{5D0AF3A4-6E6B-4D02-B55A-A968DF4C2572}" name="Categorias" dataDxfId="55"/>
     <tableColumn id="25" xr3:uid="{6AA4D8AB-E9C6-435A-852C-B89D9BAF5125}" name="jan/16" dataDxfId="54"/>
@@ -11593,16 +16113,16 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{18D078CB-4B4E-44DC-BD21-465D1E152891}" name="SubCategoria"/>
-    <tableColumn id="2" xr3:uid="{9B776D43-F3AF-4C37-8B42-AF036B09EA66}" name="Valor" dataDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{9B776D43-F3AF-4C37-8B42-AF036B09EA66}" name="Valor" dataDxfId="1" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6316ABC0-BE72-4927-A0CC-92D47D1828C1}" name="Tabela1" displayName="Tabela1" ref="B1:S5" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B1:S5" xr:uid="{30E7AF0C-2406-4D8E-8F3C-2F5CF15E1A76}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6316ABC0-BE72-4927-A0CC-92D47D1828C1}" name="Tabela1" displayName="Tabela1" ref="B1:Y11" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B1:Y11" xr:uid="{30E7AF0C-2406-4D8E-8F3C-2F5CF15E1A76}"/>
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{467A26DC-BF8E-430A-BC69-1ACF5B4E0BF0}" name="Tipo"/>
     <tableColumn id="12" xr3:uid="{8C517F2A-D45F-4C0E-994A-8DDC63AAF31E}" name="fev/18"/>
     <tableColumn id="13" xr3:uid="{4B846A75-FD83-4889-897B-E37DD8772C64}" name="mar/18"/>
@@ -11621,6 +16141,12 @@
     <tableColumn id="11" xr3:uid="{3F57581F-8B30-42D3-8D82-A4310A6ACDD8}" name="out/19"/>
     <tableColumn id="17" xr3:uid="{363A1BD2-12AB-4324-8FFE-AFB31FB748E1}" name="nov/19"/>
     <tableColumn id="18" xr3:uid="{396106AC-A20A-499D-98C8-C0B2A0068372}" name="dez/19"/>
+    <tableColumn id="19" xr3:uid="{92788FB1-672C-41B3-AE14-CC28DC739DC5}" name="jan/20"/>
+    <tableColumn id="20" xr3:uid="{96AB061E-4242-41E2-8F80-313E32E0EC33}" name="fev/20"/>
+    <tableColumn id="21" xr3:uid="{E4ABFA13-B187-4E66-9AC1-F828C4536940}" name="mar/20"/>
+    <tableColumn id="22" xr3:uid="{76A9BCE1-5675-4608-8369-E4D583E0410D}" name="abr/21"/>
+    <tableColumn id="23" xr3:uid="{3BDE393D-E80A-4E7D-9DA2-DB683BC1D4FA}" name="mai/21"/>
+    <tableColumn id="24" xr3:uid="{095AB34A-33A5-4C1B-AF3B-43195F22219B}" name="jun/21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11923,10 +16449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46DB15E-EF82-4401-9F39-DDD2BE1C7027}">
-  <dimension ref="B1:BC16"/>
+  <dimension ref="B1:BC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AH10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AH1:AS1"/>
+    <sheetView showGridLines="0" topLeftCell="AG19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BF23" sqref="BF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11946,94 +16472,94 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>37</v>
@@ -12238,18 +16764,30 @@
       <c r="AS2" s="3">
         <v>10389.92</v>
       </c>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
+      <c r="AT2" s="3">
+        <v>4598</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>8941.5300000000007</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>5420.76</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>9760.61</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>5347.45</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>8704.8700000000008</v>
+      </c>
       <c r="AZ2" s="3"/>
       <c r="BA2" s="3"/>
       <c r="BB2" s="3"/>
       <c r="BC2" s="3">
         <f>SUM(AH2:BB2)</f>
-        <v>77466.06</v>
+        <v>120239.27999999998</v>
       </c>
     </row>
     <row r="3" spans="2:55" x14ac:dyDescent="0.3">
@@ -12385,18 +16923,30 @@
       <c r="AS3" s="3">
         <v>204.03</v>
       </c>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
+      <c r="AT3" s="3">
+        <v>189.92</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>183.02</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>164.28</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>222.92</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>195.31</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>162.34</v>
+      </c>
       <c r="AZ3" s="3"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
       <c r="BC3" s="3">
         <f t="shared" ref="BC3:BC15" si="0">SUM(AH3:BB3)</f>
-        <v>3419.54</v>
+        <v>4537.3300000000008</v>
       </c>
     </row>
     <row r="4" spans="2:55" x14ac:dyDescent="0.3">
@@ -12532,18 +17082,30 @@
       <c r="AS4" s="3">
         <v>1261.32</v>
       </c>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
+      <c r="AT4" s="3">
+        <v>1754.53</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>982.72</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>758.7</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>537.78</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>987.92</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>788.68</v>
+      </c>
       <c r="AZ4" s="3"/>
       <c r="BA4" s="3"/>
       <c r="BB4" s="3"/>
       <c r="BC4" s="3">
         <f t="shared" ref="BC4:BC12" si="1">SUM(AH4:BB4)</f>
-        <v>12736.04</v>
+        <v>18546.37</v>
       </c>
     </row>
     <row r="5" spans="2:55" x14ac:dyDescent="0.3">
@@ -12659,18 +17221,30 @@
       <c r="AS5" s="3">
         <v>1500</v>
       </c>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
+      <c r="AT5" s="3">
+        <v>348</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>250</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>396</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>270</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>0</v>
+      </c>
       <c r="AZ5" s="3"/>
       <c r="BA5" s="3"/>
       <c r="BB5" s="3"/>
       <c r="BC5" s="3">
         <f t="shared" si="1"/>
-        <v>13042.15</v>
+        <v>14306.15</v>
       </c>
     </row>
     <row r="6" spans="2:55" x14ac:dyDescent="0.3">
@@ -12792,18 +17366,30 @@
       <c r="AS6" s="3">
         <v>3436.63</v>
       </c>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
+      <c r="AT6" s="3">
+        <v>2910.45</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>1983.46</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>1631.55</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>1483.1</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>1682.08</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>1291.25</v>
+      </c>
       <c r="AZ6" s="3"/>
       <c r="BA6" s="3"/>
       <c r="BB6" s="3"/>
       <c r="BC6" s="3">
         <f>SUM(AH6:BB6)</f>
-        <v>28618.75</v>
+        <v>39600.640000000007</v>
       </c>
     </row>
     <row r="7" spans="2:55" x14ac:dyDescent="0.3">
@@ -12879,18 +17465,30 @@
       <c r="AS7" s="3">
         <v>2300.6799999999998</v>
       </c>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
+      <c r="AT7" s="3">
+        <v>2035.32</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>2337.6799999999998</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>2142.33</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>2347.64</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>2350.27</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>2554.1</v>
+      </c>
       <c r="AZ7" s="3"/>
       <c r="BA7" s="3"/>
       <c r="BB7" s="3"/>
       <c r="BC7" s="3">
         <f>SUM(AH7:BB7)</f>
-        <v>24292.98</v>
+        <v>38060.319999999992</v>
       </c>
     </row>
     <row r="8" spans="2:55" x14ac:dyDescent="0.3">
@@ -13016,18 +17614,30 @@
       <c r="AS8" s="3">
         <v>2371.5700000000002</v>
       </c>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
+      <c r="AT8" s="3">
+        <v>2470.1999999999998</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>1643.16</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>2030.16</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>1095</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>544</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>1376.54</v>
+      </c>
       <c r="AZ8" s="3"/>
       <c r="BA8" s="3"/>
       <c r="BB8" s="3"/>
       <c r="BC8" s="3">
         <f>SUM(AH8:BB8)</f>
-        <v>22758.97</v>
+        <v>31918.030000000002</v>
       </c>
     </row>
     <row r="9" spans="2:55" x14ac:dyDescent="0.3">
@@ -13157,18 +17767,30 @@
       <c r="AS9" s="3">
         <v>360.69</v>
       </c>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
+      <c r="AT9" s="3">
+        <v>66</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>66</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>66.010000000000005</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>66.010000000000005</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>113.85</v>
+      </c>
       <c r="AZ9" s="3"/>
       <c r="BA9" s="3"/>
       <c r="BB9" s="3"/>
       <c r="BC9" s="3">
         <f>SUM(AH9:BB9)</f>
-        <v>1118.83</v>
+        <v>1562.6899999999998</v>
       </c>
     </row>
     <row r="10" spans="2:55" x14ac:dyDescent="0.3">
@@ -13286,18 +17908,30 @@
       <c r="AS10" s="3">
         <v>549.79</v>
       </c>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
+      <c r="AT10" s="3">
+        <v>559.59</v>
+      </c>
+      <c r="AU10" s="3">
+        <v>552.12</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>551.70000000000005</v>
+      </c>
+      <c r="AW10" s="3">
+        <v>305.79000000000002</v>
+      </c>
+      <c r="AX10" s="3">
+        <v>900</v>
+      </c>
+      <c r="AY10" s="3">
+        <v>362.19</v>
+      </c>
       <c r="AZ10" s="3"/>
       <c r="BA10" s="3"/>
       <c r="BB10" s="3"/>
       <c r="BC10" s="3">
         <f t="shared" si="1"/>
-        <v>5576.0000000000009</v>
+        <v>8807.3900000000012</v>
       </c>
     </row>
     <row r="11" spans="2:55" x14ac:dyDescent="0.3">
@@ -13427,18 +18061,30 @@
       <c r="AS11" s="3">
         <v>811.83</v>
       </c>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="3"/>
+      <c r="AT11" s="3">
+        <v>1313.72</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>1338.64</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>264.47000000000003</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>371.5</v>
+      </c>
+      <c r="AX11" s="3">
+        <v>581.41</v>
+      </c>
+      <c r="AY11" s="3">
+        <v>414.02</v>
+      </c>
       <c r="AZ11" s="3"/>
       <c r="BA11" s="3"/>
       <c r="BB11" s="3"/>
       <c r="BC11" s="3">
         <f t="shared" si="1"/>
-        <v>4775.95</v>
+        <v>9059.7100000000009</v>
       </c>
     </row>
     <row r="12" spans="2:55" x14ac:dyDescent="0.3">
@@ -13562,18 +18208,28 @@
       <c r="AS12" s="3">
         <v>1842</v>
       </c>
-      <c r="AT12" s="3"/>
+      <c r="AT12" s="3">
+        <v>1978</v>
+      </c>
       <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
+      <c r="AV12" s="3">
+        <v>1734</v>
+      </c>
+      <c r="AW12" s="3">
+        <v>1780</v>
+      </c>
+      <c r="AX12" s="3">
+        <v>3350</v>
+      </c>
+      <c r="AY12" s="3">
+        <v>1468.64</v>
+      </c>
       <c r="AZ12" s="3"/>
       <c r="BA12" s="3"/>
       <c r="BB12" s="3"/>
       <c r="BC12" s="3">
         <f t="shared" si="1"/>
-        <v>17075.21</v>
+        <v>27385.85</v>
       </c>
     </row>
     <row r="13" spans="2:55" x14ac:dyDescent="0.3">
@@ -13662,17 +18318,27 @@
         <v>619.79</v>
       </c>
       <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
+      <c r="AU13" s="3">
+        <v>30</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>39.99</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>58.99</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>245.08</v>
+      </c>
+      <c r="AY13" s="3">
+        <v>116</v>
+      </c>
       <c r="AZ13" s="3"/>
       <c r="BA13" s="3"/>
       <c r="BB13" s="3"/>
       <c r="BC13" s="3">
         <f t="shared" si="0"/>
-        <v>5106.2199999999993</v>
+        <v>5596.2799999999988</v>
       </c>
     </row>
     <row r="14" spans="2:55" x14ac:dyDescent="0.3">
@@ -13857,152 +18523,237 @@
       </c>
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
+      <c r="AV15" s="3">
+        <v>143.58000000000001</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>173.53</v>
+      </c>
       <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
+      <c r="AY15" s="3">
+        <v>308.64</v>
+      </c>
       <c r="AZ15" s="3"/>
       <c r="BA15" s="3"/>
       <c r="BB15" s="3"/>
       <c r="BC15" s="3">
         <f t="shared" si="0"/>
-        <v>2469.0299999999997</v>
+        <v>3094.7799999999997</v>
       </c>
     </row>
     <row r="16" spans="2:55" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="4">
-        <f>SUM(C2:C15)</f>
+      <c r="B16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AX16" s="3">
+        <v>1760</v>
+      </c>
+      <c r="AY16" s="3">
+        <v>4650</v>
+      </c>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3">
+        <f>SUM(AH16:BB16)</f>
+        <v>10410</v>
+      </c>
+    </row>
+    <row r="17" spans="2:55" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4">
+        <f>SUM(C2:C16)</f>
         <v>3372.34</v>
       </c>
-      <c r="D16" s="4">
-        <f>SUM(D2:D15)</f>
+      <c r="D17" s="4">
+        <f>SUM(D2:D16)</f>
         <v>3908.37</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4">
-        <f>SUM(O2:O15)</f>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4">
+        <f>SUM(O2:O16)</f>
         <v>812.24</v>
       </c>
-      <c r="P16" s="4">
-        <f>SUM(P2:P15)</f>
+      <c r="P17" s="4">
+        <f>SUM(P2:P16)</f>
         <v>6542.27</v>
       </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16">
-        <f t="shared" ref="AH16:BC16" si="2">SUM(AH2:AH15)</f>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17">
+        <f t="shared" ref="AH17:BC17" si="2">SUM(AH2:AH15)</f>
         <v>15686.099999999997</v>
       </c>
-      <c r="AI16">
+      <c r="AI17">
         <f t="shared" si="2"/>
         <v>14529.559999999998</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ17">
         <f t="shared" si="2"/>
         <v>18606.830000000002</v>
       </c>
-      <c r="AK16">
+      <c r="AK17">
         <f t="shared" si="2"/>
         <v>25284.789999999997</v>
       </c>
-      <c r="AL16">
+      <c r="AL17">
         <f t="shared" si="2"/>
         <v>16187.619999999999</v>
       </c>
-      <c r="AM16">
+      <c r="AM17">
         <f t="shared" si="2"/>
         <v>18110.84</v>
       </c>
-      <c r="AN16">
+      <c r="AN17">
         <f t="shared" si="2"/>
         <v>22445.32</v>
       </c>
-      <c r="AO16">
+      <c r="AO17">
         <f t="shared" si="2"/>
         <v>18391.420000000002</v>
       </c>
-      <c r="AP16">
+      <c r="AP17">
         <f t="shared" si="2"/>
         <v>17774.36</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ17">
         <f t="shared" si="2"/>
         <v>12620.8</v>
       </c>
-      <c r="AR16">
+      <c r="AR17">
         <f t="shared" si="2"/>
         <v>15103.84</v>
       </c>
-      <c r="AS16">
+      <c r="AS17">
         <f t="shared" si="2"/>
         <v>25764.250000000004</v>
       </c>
-      <c r="AT16">
+      <c r="AT17">
+        <f t="shared" si="2"/>
+        <v>18223.729999999996</v>
+      </c>
+      <c r="AU17">
+        <f>SUM(AU2:AU16)</f>
+        <v>20308.329999999998</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="2"/>
+        <v>15343.529999999999</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="2"/>
+        <v>18472.870000000003</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="2"/>
+        <v>16249.51</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="2"/>
+        <v>17661.120000000003</v>
+      </c>
+      <c r="AZ17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU16">
+      <c r="BA17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AV16">
+      <c r="BB17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW16">
+      <c r="BC17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BB16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC16">
-        <f t="shared" si="2"/>
-        <v>220505.72999999998</v>
+        <v>324764.82000000007</v>
       </c>
     </row>
   </sheetData>
@@ -14020,8 +18771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587D5975-859A-4819-9F16-44D4AEFBAAF5}">
   <dimension ref="A2:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14031,65 +18782,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="B2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="19" t="s">
-        <v>91</v>
+      <c r="N3" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>715.47</v>
@@ -14134,7 +18885,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>580</v>
@@ -14158,7 +18909,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>182</v>
@@ -14191,7 +18942,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -14206,7 +18957,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8">
         <v>111.5</v>
@@ -14227,7 +18978,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>137.91999999999999</v>
@@ -14245,7 +18996,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>80.8</v>
@@ -14281,7 +19032,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <v>107.2</v>
@@ -14296,7 +19047,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -14329,7 +19080,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>239</v>
@@ -14341,7 +19092,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14">
         <v>125.4</v>
@@ -14365,7 +19116,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15">
         <v>152</v>
@@ -14377,7 +19128,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16">
         <v>89.8</v>
@@ -14392,7 +19143,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G17">
         <v>30</v>
@@ -14422,7 +19173,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H18">
         <v>144.97999999999999</v>
@@ -14446,7 +19197,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K19">
         <v>22</v>
@@ -14512,137 +19263,137 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="20">
+        <v>73</v>
+      </c>
+      <c r="B23" s="13">
         <v>4667.54</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="20">
+        <v>74</v>
+      </c>
+      <c r="B24" s="13">
         <v>2065.2299999999996</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="20">
+        <v>83</v>
+      </c>
+      <c r="B25" s="13">
         <v>817.8</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="20">
+        <v>81</v>
+      </c>
+      <c r="B26" s="13">
         <v>781.7</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="20">
+        <v>75</v>
+      </c>
+      <c r="B27" s="13">
         <v>644</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="20">
+        <v>87</v>
+      </c>
+      <c r="B28" s="13">
         <v>610.81999999999994</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="20">
+        <v>86</v>
+      </c>
+      <c r="B29" s="13">
         <v>590.2299999999999</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="20">
+        <v>77</v>
+      </c>
+      <c r="B30" s="13">
         <v>528.48</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="20">
+        <v>78</v>
+      </c>
+      <c r="B31" s="13">
         <v>466.08</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="20">
+        <v>76</v>
+      </c>
+      <c r="B32" s="13">
         <v>436.5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="20">
+        <v>85</v>
+      </c>
+      <c r="B33" s="13">
         <v>389.8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="20">
+        <v>82</v>
+      </c>
+      <c r="B34" s="13">
         <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="20">
+        <v>80</v>
+      </c>
+      <c r="B35" s="13">
         <v>209.57</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="20">
+        <v>84</v>
+      </c>
+      <c r="B36" s="13">
         <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="20">
+        <v>79</v>
+      </c>
+      <c r="B37" s="13">
         <v>117.2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="20">
+        <v>88</v>
+      </c>
+      <c r="B38" s="13">
         <v>22</v>
       </c>
     </row>
@@ -14681,7 +19432,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -14690,33 +19441,33 @@
       <c r="C3" s="6">
         <v>77466.06</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="17">
         <f>C3+C4+C5</f>
         <v>96591.26999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>17075.21</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="6">
         <v>2050</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -14725,100 +19476,100 @@
       <c r="C6" s="7">
         <v>3419.54</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="19">
         <f>C6+C7+C8+C9+C10+C11+C12+C13+C14+C15</f>
         <v>95295.71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7">
         <v>12736.04</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="7">
         <v>13042.15</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="7">
         <v>24292.98</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="7">
         <v>22758.97</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="7">
         <v>1118.83</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="7">
         <v>5576.0000000000009</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="7">
         <v>4775.95</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="7">
         <v>5106.2199999999993</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="7">
         <v>2469.0299999999997</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14835,41 +19586,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F060317C-C80B-4AD8-8076-0562414FEA70}">
-  <dimension ref="B1:S5"/>
+  <dimension ref="B1:Y11"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC54" sqref="I50:AC54"/>
+    <sheetView tabSelected="1" topLeftCell="T31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
     <col min="3" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" customWidth="1"/>
     <col min="10" max="10" width="9.44140625" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="20" max="25" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -14907,8 +19659,26 @@
       <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -14963,8 +19733,26 @@
       <c r="S2">
         <v>11682</v>
       </c>
+      <c r="T2">
+        <v>5409</v>
+      </c>
+      <c r="U2">
+        <v>9029.7000000000007</v>
+      </c>
+      <c r="V2">
+        <v>6534</v>
+      </c>
+      <c r="W2">
+        <v>8050.05</v>
+      </c>
+      <c r="X2">
+        <v>7450</v>
+      </c>
+      <c r="Y2">
+        <v>8195.06</v>
+      </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>40</v>
       </c>
@@ -15019,10 +19807,28 @@
       <c r="S3">
         <v>10478.18</v>
       </c>
+      <c r="T3">
+        <v>9010.64</v>
+      </c>
+      <c r="U3">
+        <v>7831.27</v>
+      </c>
+      <c r="V3">
+        <v>7227.99</v>
+      </c>
+      <c r="W3">
+        <v>7143.12</v>
+      </c>
+      <c r="X3">
+        <v>7406.38</v>
+      </c>
+      <c r="Y3">
+        <v>8139.41</v>
+      </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>1360.77</v>
@@ -15075,61 +19881,247 @@
       <c r="S4">
         <v>1203.82</v>
       </c>
+      <c r="T4">
+        <v>-3601.64</v>
+      </c>
+      <c r="U4">
+        <v>1198.43</v>
+      </c>
+      <c r="V4">
+        <v>-693.99</v>
+      </c>
+      <c r="W4">
+        <v>906.93</v>
+      </c>
+      <c r="X4">
+        <v>43.62</v>
+      </c>
+      <c r="Y4">
+        <v>55.65</v>
+      </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5">
+        <v>101</v>
+      </c>
+      <c r="T5">
+        <v>-72.81</v>
+      </c>
+      <c r="U5">
+        <v>31.32</v>
+      </c>
+      <c r="V5">
+        <v>-21</v>
+      </c>
+      <c r="W5">
+        <v>225.76</v>
+      </c>
+      <c r="X5">
+        <v>-72.47</v>
+      </c>
+      <c r="Y5">
+        <v>-25.79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6">
+        <v>200</v>
+      </c>
+      <c r="U6">
+        <v>-602.6</v>
+      </c>
+      <c r="V6">
+        <v>-187.98</v>
+      </c>
+      <c r="W6">
+        <v>3000</v>
+      </c>
+      <c r="X6">
+        <v>1000</v>
+      </c>
+      <c r="Y6">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="T7">
+        <f>SUM(T4:T6)</f>
+        <v>-3474.45</v>
+      </c>
+      <c r="U7">
+        <f>SUM(U4:U6)</f>
+        <v>627.15</v>
+      </c>
+      <c r="V7">
+        <f>SUM(V4:V6)</f>
+        <v>-902.97</v>
+      </c>
+      <c r="W7">
+        <f>SUM(W4:W6)</f>
+        <v>4132.6900000000005</v>
+      </c>
+      <c r="X7">
+        <f>SUM(X4:X6)</f>
+        <v>971.15</v>
+      </c>
+      <c r="Y7">
+        <f>SUM(Y4:Y6)</f>
+        <v>-970.14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
         <v>1904.82</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>186.95</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>-829.29</v>
       </c>
-      <c r="F5">
+      <c r="F8">
         <v>-210.24</v>
       </c>
-      <c r="G5">
+      <c r="G8">
         <v>579.13</v>
       </c>
-      <c r="H5">
+      <c r="H8">
         <v>-36.33</v>
       </c>
-      <c r="I5">
+      <c r="I8">
         <v>-616.57000000000005</v>
       </c>
-      <c r="J5">
+      <c r="J8">
         <v>785.75</v>
       </c>
-      <c r="K5">
+      <c r="K8">
         <v>3829.95</v>
       </c>
-      <c r="L5">
+      <c r="L8">
         <v>-106.54</v>
       </c>
-      <c r="M5">
+      <c r="M8">
         <v>-623.82000000000005</v>
       </c>
-      <c r="N5">
+      <c r="N8">
         <v>-455.47</v>
       </c>
-      <c r="O5">
+      <c r="O8">
         <v>-275.94</v>
       </c>
-      <c r="P5">
+      <c r="P8">
         <v>-883.59</v>
       </c>
-      <c r="Q5">
+      <c r="Q8">
         <v>-861.37</v>
       </c>
-      <c r="R5">
+      <c r="R8">
         <v>1385.71</v>
       </c>
-      <c r="S5">
+      <c r="S8">
         <v>2589.5300000000002</v>
+      </c>
+      <c r="T8">
+        <v>-1062.1099999999999</v>
+      </c>
+      <c r="U8">
+        <v>186.32</v>
+      </c>
+      <c r="V8">
+        <v>-507.67</v>
+      </c>
+      <c r="W8">
+        <v>399.26</v>
+      </c>
+      <c r="X8">
+        <v>442.88</v>
+      </c>
+      <c r="Y8">
+        <v>498.53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9">
+        <v>62.23</v>
+      </c>
+      <c r="U9">
+        <v>93.55</v>
+      </c>
+      <c r="V9">
+        <v>72.55</v>
+      </c>
+      <c r="W9">
+        <v>298.31</v>
+      </c>
+      <c r="X9">
+        <v>225.84</v>
+      </c>
+      <c r="Y9">
+        <v>200.05</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="T10">
+        <v>600</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>3000</v>
+      </c>
+      <c r="X10">
+        <v>4000</v>
+      </c>
+      <c r="Y10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T11:V11" si="0">SUM(T8:T10)</f>
+        <v>-399.87999999999988</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>279.87</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>-435.12</v>
+      </c>
+      <c r="W11">
+        <f>SUM(W8:W10)</f>
+        <v>3697.5699999999997</v>
+      </c>
+      <c r="X11">
+        <f>SUM(X8:X10)</f>
+        <v>4668.72</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" ref="Y11" si="1">SUM(Y8:Y10)</f>
+        <v>3698.58</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos/Geral_Relatorio.xlsx
+++ b/Arquivos/Geral_Relatorio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Xampp\htdocs\Testes\Controle_Financeiro\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C1FC32-9604-435E-A4AE-60C3A66D6C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59C13D9-7846-4753-888C-DF3E2A6656B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="1000" activeTab="3" xr2:uid="{0BF9C393-210A-48CF-A8E1-590D0E6A75CB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="1" activeTab="3" xr2:uid="{0BF9C393-210A-48CF-A8E1-590D0E6A75CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Categoria" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
   <si>
     <t>Salario</t>
   </si>
@@ -348,6 +348,15 @@
   </si>
   <si>
     <t>Saldo Mês Geral</t>
+  </si>
+  <si>
+    <t>jul/21</t>
+  </si>
+  <si>
+    <t>Receita Itau</t>
+  </si>
+  <si>
+    <t>Despesas Itau</t>
   </si>
 </sst>
 </file>
@@ -1463,6 +1472,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEF5B62"/>
       <color rgb="FFFF6600"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFF66CC"/>
@@ -1538,9 +1548,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AY$1</c:f>
+              <c:f>Categoria!$C$1:$AZ$1</c:f>
               <c:strCache>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -1687,16 +1697,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>jun/20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>jul/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$2:$AY$2</c:f>
+              <c:f>Categoria!$C$2:$AZ$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1967.72</c:v>
                 </c:pt>
@@ -1843,6 +1856,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>8704.8700000000008</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11887.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,9 +1900,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AY$1</c:f>
+              <c:f>Categoria!$C$1:$AZ$1</c:f>
               <c:strCache>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -2033,16 +2049,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>jun/20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>jul/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$3:$AY$3</c:f>
+              <c:f>Categoria!$C$3:$AZ$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>35.9</c:v>
                 </c:pt>
@@ -2189,6 +2208,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>162.34</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>208.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2228,9 +2250,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AY$1</c:f>
+              <c:f>Categoria!$C$1:$AZ$1</c:f>
               <c:strCache>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -2377,16 +2399,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>jun/20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>jul/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$4:$AY$4</c:f>
+              <c:f>Categoria!$C$4:$AZ$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>343.47</c:v>
                 </c:pt>
@@ -2533,6 +2558,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>788.68</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>856.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2572,9 +2600,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AY$1</c:f>
+              <c:f>Categoria!$C$1:$AZ$1</c:f>
               <c:strCache>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -2721,16 +2749,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>jun/20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>jul/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$6:$AY$6</c:f>
+              <c:f>Categoria!$C$6:$AZ$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="7">
                   <c:v>380.06</c:v>
                 </c:pt>
@@ -2856,6 +2887,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1291.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1015.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2895,9 +2929,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AY$1</c:f>
+              <c:f>Categoria!$C$1:$AZ$1</c:f>
               <c:strCache>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -3044,16 +3078,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>jun/20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>jul/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$7:$AY$7</c:f>
+              <c:f>Categoria!$C$7:$AZ$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="30">
                   <c:v>650</c:v>
                 </c:pt>
@@ -3110,6 +3147,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2554.1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2556.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3151,9 +3191,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AY$1</c:f>
+              <c:f>Categoria!$C$1:$AZ$1</c:f>
               <c:strCache>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -3300,16 +3340,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>jun/20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>jul/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$8:$AY$8</c:f>
+              <c:f>Categoria!$C$8:$AZ$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="1">
                   <c:v>77.099999999999994</c:v>
                 </c:pt>
@@ -3441,6 +3484,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1376.54</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1532.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3480,9 +3526,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AY$1</c:f>
+              <c:f>Categoria!$C$1:$AZ$1</c:f>
               <c:strCache>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -3629,16 +3675,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>jun/20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>jul/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$16:$AY$16</c:f>
+              <c:f>Categoria!$C$16:$AZ$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3665,6 +3714,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3742,12 +3794,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -3894,6 +3946,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>jun/20</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>jul/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3903,13 +3958,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$5:$AY$5</c15:sqref>
+                          <c15:sqref>Categoria!$C$5:$AZ$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>41.4</c:v>
                       </c:pt>
@@ -4026,6 +4081,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>35</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4078,12 +4136,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4230,6 +4288,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>jun/20</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>jul/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4239,13 +4300,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$9:$AY$9</c15:sqref>
+                          <c15:sqref>Categoria!$C$9:$AZ$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>6</c:v>
                       </c:pt>
@@ -4383,6 +4444,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>113.85</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4435,12 +4499,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4587,6 +4651,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>jun/20</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>jul/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4596,13 +4663,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$10:$AY$10</c15:sqref>
+                          <c15:sqref>Categoria!$C$10:$AZ$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>101.25</c:v>
                       </c:pt>
@@ -4722,6 +4789,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>362.19</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>355.78</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4774,12 +4844,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4926,6 +4996,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>jun/20</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>jul/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4935,13 +5008,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$11:$AY$11</c15:sqref>
+                          <c15:sqref>Categoria!$C$11:$AZ$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>90</c:v>
                       </c:pt>
@@ -5079,6 +5152,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>414.02</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>645.46</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5129,12 +5205,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -5281,6 +5357,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>jun/20</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>jul/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5290,13 +5369,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$12:$AY$12</c15:sqref>
+                          <c15:sqref>Categoria!$C$12:$AZ$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>286.60000000000002</c:v>
                       </c:pt>
@@ -5422,6 +5501,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>1468.64</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>1381</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5474,12 +5556,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -5626,6 +5708,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>jun/20</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>jul/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5635,13 +5720,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$13:$AY$13</c15:sqref>
+                          <c15:sqref>Categoria!$C$13:$AZ$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>500</c:v>
                       </c:pt>
@@ -5713,6 +5798,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>369.54</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5766,12 +5854,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -5918,6 +6006,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>jun/20</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>jul/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5927,13 +6018,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$14:$AY$14</c15:sqref>
+                          <c15:sqref>Categoria!$C$14:$AZ$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="1">
                         <c:v>1247.1500000000001</c:v>
                       </c:pt>
@@ -6046,12 +6137,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AY$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -6198,6 +6289,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>jun/20</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>jul/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6207,13 +6301,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$15:$AY$15</c15:sqref>
+                          <c15:sqref>Categoria!$C$15:$AZ$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="49"/>
+                      <c:ptCount val="50"/>
                       <c:pt idx="7">
                         <c:v>300</c:v>
                       </c:pt>
@@ -6270,6 +6364,9 @@
                       </c:pt>
                       <c:pt idx="48">
                         <c:v>308.64</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>124.9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8419,9 +8516,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:f>Geral!$C$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -8490,16 +8587,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>jun/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>jul/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$8:$Y$8</c:f>
+              <c:f>Geral!$C$8:$Z$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1904.82</c:v>
                 </c:pt>
@@ -8568,6 +8668,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>498.53</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1628.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8607,9 +8710,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:f>Geral!$C$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -8678,16 +8781,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>jun/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>jul/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$9:$Y$9</c:f>
+              <c:f>Geral!$C$9:$Z$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="17">
                   <c:v>62.23</c:v>
                 </c:pt>
@@ -8705,6 +8811,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>200.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>299.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8744,9 +8853,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:f>Geral!$C$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -8815,16 +8924,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>jun/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>jul/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$10:$Y$10</c:f>
+              <c:f>Geral!$C$10:$Z$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="17">
                   <c:v>600</c:v>
                 </c:pt>
@@ -8842,6 +8954,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8881,9 +8996,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:f>Geral!$C$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -8952,16 +9067,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>jun/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>jul/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$11:$Y$11</c:f>
+              <c:f>Geral!$C$11:$Z$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="17">
                   <c:v>-399.87999999999988</c:v>
                 </c:pt>
@@ -8979,6 +9097,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>3698.58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7527.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9032,7 +9153,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Receita</c:v>
+                        <c:v>Receita Itau</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9054,12 +9175,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -9128,6 +9249,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9137,13 +9261,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$2:$Y$2</c15:sqref>
+                          <c15:sqref>Geral!$C$2:$Z$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="0">
                         <c:v>5063</c:v>
                       </c:pt>
@@ -9212,6 +9336,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>8195.06</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>6491.53</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9240,7 +9367,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Despesas</c:v>
+                        <c:v>Despesas Itau</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9262,12 +9389,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -9336,6 +9463,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9345,13 +9475,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$3:$Y$3</c15:sqref>
+                          <c15:sqref>Geral!$C$3:$Z$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="0">
                         <c:v>3702.28</c:v>
                       </c:pt>
@@ -9420,6 +9550,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>8139.41</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>5361.79</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9470,12 +9603,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -9544,6 +9677,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9553,13 +9689,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$4:$Y$4</c15:sqref>
+                          <c15:sqref>Geral!$C$4:$Z$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="0">
                         <c:v>1360.77</c:v>
                       </c:pt>
@@ -9628,6 +9764,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>55.65</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1129.74</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9678,12 +9817,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -9752,6 +9891,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9761,13 +9903,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$5:$Y$5</c15:sqref>
+                          <c15:sqref>Geral!$C$5:$Z$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="17">
                         <c:v>-72.81</c:v>
                       </c:pt>
@@ -9785,12 +9927,15 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>-25.79</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>99.25</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-D37A-4AE0-9BF2-F267E544B862}"/>
                   </c:ext>
@@ -9835,12 +9980,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -9909,6 +10054,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9918,13 +10066,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$6:$Y$6</c15:sqref>
+                          <c15:sqref>Geral!$C$6:$Z$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="17">
                         <c:v>200</c:v>
                       </c:pt>
@@ -9942,6 +10090,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>-1000</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2600</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9992,12 +10143,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -10066,6 +10217,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10075,13 +10229,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$7:$Y$7</c15:sqref>
+                          <c15:sqref>Geral!$C$7:$Z$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="17">
                         <c:v>-3474.45</c:v>
                       </c:pt>
@@ -10099,6 +10253,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>-970.14</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3828.99</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10399,7 +10556,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Receita</c:v>
+                  <c:v>Receita Itau</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10418,9 +10575,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:f>Geral!$C$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -10489,16 +10646,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>jun/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>jul/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$2:$Y$2</c:f>
+              <c:f>Geral!$C$2:$Z$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>5063</c:v>
                 </c:pt>
@@ -10567,6 +10727,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>8195.06</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6491.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10587,7 +10750,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Despesas</c:v>
+                  <c:v>Despesas Itau</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10606,9 +10769,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:f>Geral!$C$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -10677,16 +10840,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>jun/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>jul/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$3:$Y$3</c:f>
+              <c:f>Geral!$C$3:$Z$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>3702.28</c:v>
                 </c:pt>
@@ -10755,6 +10921,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>8139.41</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5361.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10763,6 +10932,200 @@
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1C7C-4917-8EF9-3882E2CD4012}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geral!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saldo Mês Itau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geral!$C$1:$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>fev/18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mar/18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>abr/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mai/18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jun/18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jan/19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fev/19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mar/19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>abr/19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mai/19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>jun/19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>jul/19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ago/19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>set/19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>out/19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>nov/19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>abr/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mai/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>jun/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>jul/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geral!$C$4:$Z$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1360.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-398.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1016.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>619.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>789.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1654.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-580.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1402.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3044.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3936.49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-517.28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>168.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>179.53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-607.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2247.08</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1203.82</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3601.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1198.43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-693.99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>906.93</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43.62</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55.65</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1129.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1C7C-4917-8EF9-3882E2CD4012}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10783,7 +11146,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="EF5B62"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -10794,9 +11157,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:f>Geral!$C$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -10865,16 +11228,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>jun/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>jul/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$5:$Y$5</c:f>
+              <c:f>Geral!$C$5:$Z$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="17">
                   <c:v>-72.81</c:v>
                 </c:pt>
@@ -10892,6 +11258,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-25.79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10920,7 +11289,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -10931,9 +11300,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:f>Geral!$C$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -11002,16 +11371,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>jun/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>jul/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$6:$Y$6</c:f>
+              <c:f>Geral!$C$6:$Z$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="17">
                   <c:v>200</c:v>
                 </c:pt>
@@ -11029,6 +11401,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-1000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11057,7 +11432,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -11068,9 +11443,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Y$1</c:f>
+              <c:f>Geral!$C$1:$Z$1</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -11139,16 +11514,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>jun/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>jul/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$7:$Y$7</c:f>
+              <c:f>Geral!$C$7:$Z$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="17">
                   <c:v>-3474.45</c:v>
                 </c:pt>
@@ -11166,6 +11544,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-970.14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3828.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11205,21 +11586,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:idx val="6"/>
+                <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$B$4</c15:sqref>
+                          <c15:sqref>Geral!$B$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Saldo Mês Itau</c:v>
+                        <c:v>Saldo Final Itau</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -11241,12 +11622,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -11315,6 +11696,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -11324,295 +11708,90 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$4:$Y$4</c15:sqref>
+                          <c15:sqref>Geral!$C$8:$Z$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="0">
-                        <c:v>1360.77</c:v>
+                        <c:v>1904.82</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-398.42</c:v>
+                        <c:v>186.95</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-1016.24</c:v>
+                        <c:v>-829.29</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>619.04999999999995</c:v>
+                        <c:v>-210.24</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>789.37</c:v>
+                        <c:v>579.13</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>-1654.18</c:v>
+                        <c:v>-36.33</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>-580.24</c:v>
+                        <c:v>-616.57000000000005</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>1402.32</c:v>
+                        <c:v>785.75</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>3044.2</c:v>
+                        <c:v>3829.95</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>-3936.49</c:v>
+                        <c:v>-106.54</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>-517.28</c:v>
+                        <c:v>-623.82000000000005</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>168.35</c:v>
+                        <c:v>-455.47</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>179.53</c:v>
+                        <c:v>-275.94</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>-607.65</c:v>
+                        <c:v>-883.59</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>22.22</c:v>
+                        <c:v>-861.37</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>2247.08</c:v>
+                        <c:v>1385.71</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>1203.82</c:v>
+                        <c:v>2589.5300000000002</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>-3601.64</c:v>
+                        <c:v>-1062.1099999999999</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>1198.43</c:v>
+                        <c:v>186.32</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>-693.99</c:v>
+                        <c:v>-507.67</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>906.93</c:v>
+                        <c:v>399.26</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>43.62</c:v>
+                        <c:v>442.88</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>55.65</c:v>
+                        <c:v>498.53</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1628.27</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
                 <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-1C7C-4917-8EF9-3882E2CD4012}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Geral!$B$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Saldo Final Itau</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:srgbClr val="FF6600"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="23"/>
-                      <c:pt idx="0">
-                        <c:v>fev/18</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>mar/18</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>abr/18</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>mai/18</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>jun/18</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>jan/19</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>fev/19</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>mar/19</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>abr/19</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>mai/19</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>jun/19</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>jul/19</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>ago/19</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>set/19</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>out/19</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>nov/19</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>dez/19</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>jan/20</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>fev/20</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>mar/20</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>abr/21</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>mai/21</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>jun/21</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Geral!$C$8:$Y$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="23"/>
-                      <c:pt idx="0">
-                        <c:v>1904.82</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>186.95</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-829.29</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-210.24</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>579.13</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>-36.33</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>-616.57000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>785.75</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>3829.95</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>-106.54</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>-623.82000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>-455.47</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>-275.94</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>-883.59</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>-861.37</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1385.71</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2589.5300000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>-1062.1099999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>186.32</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>-507.67</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>399.26</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>442.88</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>498.53</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-1C7C-4917-8EF9-3882E2CD4012}"/>
                   </c:ext>
@@ -11657,12 +11836,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -11731,6 +11910,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -11740,13 +11922,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$9:$Y$9</c15:sqref>
+                          <c15:sqref>Geral!$C$9:$Z$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="17">
                         <c:v>62.23</c:v>
                       </c:pt>
@@ -11764,12 +11946,15 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>200.05</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>299.3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-4FFE-425D-95E8-297B34EF8A74}"/>
                   </c:ext>
@@ -11814,12 +11999,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -11888,6 +12073,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -11897,13 +12085,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$10:$Y$10</c15:sqref>
+                          <c15:sqref>Geral!$C$10:$Z$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="17">
                         <c:v>600</c:v>
                       </c:pt>
@@ -11921,12 +12109,15 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>5600</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-4FFE-425D-95E8-297B34EF8A74}"/>
                   </c:ext>
@@ -11971,12 +12162,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Y$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -12045,6 +12236,9 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12054,13 +12248,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$11:$Y$11</c15:sqref>
+                          <c15:sqref>Geral!$C$11:$Z$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="24"/>
                       <c:pt idx="17">
                         <c:v>-399.87999999999988</c:v>
                       </c:pt>
@@ -12078,12 +12272,15 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>3698.58</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>7527.57</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-4FFE-425D-95E8-297B34EF8A74}"/>
                   </c:ext>
@@ -15971,7 +16168,7 @@
       <xdr:rowOff>16025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>143455</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>49364</xdr:rowOff>
@@ -16007,7 +16204,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>134303</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>33339</xdr:rowOff>
@@ -16120,9 +16317,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6316ABC0-BE72-4927-A0CC-92D47D1828C1}" name="Tabela1" displayName="Tabela1" ref="B1:Y11" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B1:Y11" xr:uid="{30E7AF0C-2406-4D8E-8F3C-2F5CF15E1A76}"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6316ABC0-BE72-4927-A0CC-92D47D1828C1}" name="Tabela1" displayName="Tabela1" ref="B1:Z11" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B1:Z11" xr:uid="{30E7AF0C-2406-4D8E-8F3C-2F5CF15E1A76}"/>
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{467A26DC-BF8E-430A-BC69-1ACF5B4E0BF0}" name="Tipo"/>
     <tableColumn id="12" xr3:uid="{8C517F2A-D45F-4C0E-994A-8DDC63AAF31E}" name="fev/18"/>
     <tableColumn id="13" xr3:uid="{4B846A75-FD83-4889-897B-E37DD8772C64}" name="mar/18"/>
@@ -16147,6 +16344,7 @@
     <tableColumn id="22" xr3:uid="{76A9BCE1-5675-4608-8369-E4D583E0410D}" name="abr/21"/>
     <tableColumn id="23" xr3:uid="{3BDE393D-E80A-4E7D-9DA2-DB683BC1D4FA}" name="mai/21"/>
     <tableColumn id="24" xr3:uid="{095AB34A-33A5-4C1B-AF3B-43195F22219B}" name="jun/21"/>
+    <tableColumn id="25" xr3:uid="{969E7C9C-B0BB-454B-B1F3-724C9659F7EB}" name="jul/21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16451,8 +16649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46DB15E-EF82-4401-9F39-DDD2BE1C7027}">
   <dimension ref="B1:BC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AG19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF23" sqref="BF23"/>
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6480" topLeftCell="AL1" activePane="topRight"/>
+      <selection pane="topRight" activeCell="BE15" sqref="BE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16782,12 +16981,14 @@
       <c r="AY2" s="3">
         <v>8704.8700000000008</v>
       </c>
-      <c r="AZ2" s="3"/>
+      <c r="AZ2" s="3">
+        <v>11887.35</v>
+      </c>
       <c r="BA2" s="3"/>
       <c r="BB2" s="3"/>
       <c r="BC2" s="3">
         <f>SUM(AH2:BB2)</f>
-        <v>120239.27999999998</v>
+        <v>132126.62999999998</v>
       </c>
     </row>
     <row r="3" spans="2:55" x14ac:dyDescent="0.3">
@@ -16941,12 +17142,14 @@
       <c r="AY3" s="3">
         <v>162.34</v>
       </c>
-      <c r="AZ3" s="3"/>
+      <c r="AZ3" s="3">
+        <v>208.68</v>
+      </c>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
       <c r="BC3" s="3">
         <f t="shared" ref="BC3:BC15" si="0">SUM(AH3:BB3)</f>
-        <v>4537.3300000000008</v>
+        <v>4746.0100000000011</v>
       </c>
     </row>
     <row r="4" spans="2:55" x14ac:dyDescent="0.3">
@@ -17100,12 +17303,14 @@
       <c r="AY4" s="3">
         <v>788.68</v>
       </c>
-      <c r="AZ4" s="3"/>
+      <c r="AZ4" s="3">
+        <v>856.84</v>
+      </c>
       <c r="BA4" s="3"/>
       <c r="BB4" s="3"/>
       <c r="BC4" s="3">
         <f t="shared" ref="BC4:BC12" si="1">SUM(AH4:BB4)</f>
-        <v>18546.37</v>
+        <v>19403.21</v>
       </c>
     </row>
     <row r="5" spans="2:55" x14ac:dyDescent="0.3">
@@ -17239,12 +17444,14 @@
       <c r="AY5" s="3">
         <v>0</v>
       </c>
-      <c r="AZ5" s="3"/>
+      <c r="AZ5" s="3">
+        <v>35</v>
+      </c>
       <c r="BA5" s="3"/>
       <c r="BB5" s="3"/>
       <c r="BC5" s="3">
         <f t="shared" si="1"/>
-        <v>14306.15</v>
+        <v>14341.15</v>
       </c>
     </row>
     <row r="6" spans="2:55" x14ac:dyDescent="0.3">
@@ -17384,12 +17591,14 @@
       <c r="AY6" s="3">
         <v>1291.25</v>
       </c>
-      <c r="AZ6" s="3"/>
+      <c r="AZ6" s="3">
+        <v>1015.86</v>
+      </c>
       <c r="BA6" s="3"/>
       <c r="BB6" s="3"/>
       <c r="BC6" s="3">
         <f>SUM(AH6:BB6)</f>
-        <v>39600.640000000007</v>
+        <v>40616.500000000007</v>
       </c>
     </row>
     <row r="7" spans="2:55" x14ac:dyDescent="0.3">
@@ -17483,12 +17692,14 @@
       <c r="AY7" s="3">
         <v>2554.1</v>
       </c>
-      <c r="AZ7" s="3"/>
+      <c r="AZ7" s="3">
+        <v>2556.83</v>
+      </c>
       <c r="BA7" s="3"/>
       <c r="BB7" s="3"/>
       <c r="BC7" s="3">
         <f>SUM(AH7:BB7)</f>
-        <v>38060.319999999992</v>
+        <v>40617.149999999994</v>
       </c>
     </row>
     <row r="8" spans="2:55" x14ac:dyDescent="0.3">
@@ -17632,12 +17843,14 @@
       <c r="AY8" s="3">
         <v>1376.54</v>
       </c>
-      <c r="AZ8" s="3"/>
+      <c r="AZ8" s="3">
+        <v>1532.36</v>
+      </c>
       <c r="BA8" s="3"/>
       <c r="BB8" s="3"/>
       <c r="BC8" s="3">
         <f>SUM(AH8:BB8)</f>
-        <v>31918.030000000002</v>
+        <v>33450.39</v>
       </c>
     </row>
     <row r="9" spans="2:55" x14ac:dyDescent="0.3">
@@ -17785,12 +17998,14 @@
       <c r="AY9" s="3">
         <v>113.85</v>
       </c>
-      <c r="AZ9" s="3"/>
+      <c r="AZ9" s="3">
+        <v>50</v>
+      </c>
       <c r="BA9" s="3"/>
       <c r="BB9" s="3"/>
       <c r="BC9" s="3">
         <f>SUM(AH9:BB9)</f>
-        <v>1562.6899999999998</v>
+        <v>1612.6899999999998</v>
       </c>
     </row>
     <row r="10" spans="2:55" x14ac:dyDescent="0.3">
@@ -17926,12 +18141,14 @@
       <c r="AY10" s="3">
         <v>362.19</v>
       </c>
-      <c r="AZ10" s="3"/>
+      <c r="AZ10" s="3">
+        <v>355.78</v>
+      </c>
       <c r="BA10" s="3"/>
       <c r="BB10" s="3"/>
       <c r="BC10" s="3">
         <f t="shared" si="1"/>
-        <v>8807.3900000000012</v>
+        <v>9163.1700000000019</v>
       </c>
     </row>
     <row r="11" spans="2:55" x14ac:dyDescent="0.3">
@@ -18079,12 +18296,14 @@
       <c r="AY11" s="3">
         <v>414.02</v>
       </c>
-      <c r="AZ11" s="3"/>
+      <c r="AZ11" s="3">
+        <v>645.46</v>
+      </c>
       <c r="BA11" s="3"/>
       <c r="BB11" s="3"/>
       <c r="BC11" s="3">
         <f t="shared" si="1"/>
-        <v>9059.7100000000009</v>
+        <v>9705.1700000000019</v>
       </c>
     </row>
     <row r="12" spans="2:55" x14ac:dyDescent="0.3">
@@ -18224,12 +18443,14 @@
       <c r="AY12" s="3">
         <v>1468.64</v>
       </c>
-      <c r="AZ12" s="3"/>
+      <c r="AZ12" s="3">
+        <v>1381</v>
+      </c>
       <c r="BA12" s="3"/>
       <c r="BB12" s="3"/>
       <c r="BC12" s="3">
         <f t="shared" si="1"/>
-        <v>27385.85</v>
+        <v>28766.85</v>
       </c>
     </row>
     <row r="13" spans="2:55" x14ac:dyDescent="0.3">
@@ -18333,12 +18554,14 @@
       <c r="AY13" s="3">
         <v>116</v>
       </c>
-      <c r="AZ13" s="3"/>
+      <c r="AZ13" s="3">
+        <v>369.54</v>
+      </c>
       <c r="BA13" s="3"/>
       <c r="BB13" s="3"/>
       <c r="BC13" s="3">
         <f t="shared" si="0"/>
-        <v>5596.2799999999988</v>
+        <v>5965.8199999999988</v>
       </c>
     </row>
     <row r="14" spans="2:55" x14ac:dyDescent="0.3">
@@ -18533,12 +18756,14 @@
       <c r="AY15" s="3">
         <v>308.64</v>
       </c>
-      <c r="AZ15" s="3"/>
+      <c r="AZ15" s="3">
+        <v>124.9</v>
+      </c>
       <c r="BA15" s="3"/>
       <c r="BB15" s="3"/>
       <c r="BC15" s="3">
         <f t="shared" si="0"/>
-        <v>3094.7799999999997</v>
+        <v>3219.68</v>
       </c>
     </row>
     <row r="16" spans="2:55" x14ac:dyDescent="0.3">
@@ -18612,12 +18837,14 @@
       <c r="AY16" s="3">
         <v>4650</v>
       </c>
-      <c r="AZ16" s="3"/>
+      <c r="AZ16" s="3">
+        <v>3755</v>
+      </c>
       <c r="BA16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BC16" s="3">
         <f>SUM(AH16:BB16)</f>
-        <v>10410</v>
+        <v>14165</v>
       </c>
     </row>
     <row r="17" spans="2:55" x14ac:dyDescent="0.3">
@@ -18741,7 +18968,7 @@
       </c>
       <c r="AZ17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21019.600000000002</v>
       </c>
       <c r="BA17">
         <f t="shared" si="2"/>
@@ -18753,7 +18980,7 @@
       </c>
       <c r="BC17">
         <f t="shared" si="2"/>
-        <v>324764.82000000007</v>
+        <v>345784.41999999993</v>
       </c>
     </row>
   </sheetData>
@@ -19586,10 +19813,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F060317C-C80B-4AD8-8076-0562414FEA70}">
-  <dimension ref="B1:Y11"/>
+  <dimension ref="B1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19601,10 +19828,10 @@
     <col min="10" max="10" width="9.44140625" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="20" max="25" width="10.77734375" customWidth="1"/>
+    <col min="20" max="26" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -19677,10 +19904,13 @@
       <c r="Y1" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>5063</v>
@@ -19751,10 +19981,13 @@
       <c r="Y2">
         <v>8195.06</v>
       </c>
+      <c r="Z2">
+        <v>6491.53</v>
+      </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="C3">
         <v>3702.28</v>
@@ -19825,8 +20058,11 @@
       <c r="Y3">
         <v>8139.41</v>
       </c>
+      <c r="Z3">
+        <v>5361.79</v>
+      </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>99</v>
       </c>
@@ -19899,8 +20135,11 @@
       <c r="Y4">
         <v>55.65</v>
       </c>
+      <c r="Z4">
+        <v>1129.74</v>
+      </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>101</v>
       </c>
@@ -19922,8 +20161,11 @@
       <c r="Y5">
         <v>-25.79</v>
       </c>
+      <c r="Z5">
+        <v>99.25</v>
+      </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>102</v>
       </c>
@@ -19945,37 +20187,44 @@
       <c r="Y6">
         <v>-1000</v>
       </c>
+      <c r="Z6">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>103</v>
       </c>
       <c r="T7">
-        <f>SUM(T4:T6)</f>
+        <f t="shared" ref="T7:Z7" si="0">SUM(T4:T6)</f>
         <v>-3474.45</v>
       </c>
       <c r="U7">
-        <f>SUM(U4:U6)</f>
+        <f t="shared" si="0"/>
         <v>627.15</v>
       </c>
       <c r="V7">
-        <f>SUM(V4:V6)</f>
+        <f t="shared" si="0"/>
         <v>-902.97</v>
       </c>
       <c r="W7">
-        <f>SUM(W4:W6)</f>
+        <f t="shared" si="0"/>
         <v>4132.6900000000005</v>
       </c>
       <c r="X7">
-        <f>SUM(X4:X6)</f>
+        <f t="shared" si="0"/>
         <v>971.15</v>
       </c>
       <c r="Y7">
-        <f>SUM(Y4:Y6)</f>
+        <f t="shared" si="0"/>
         <v>-970.14</v>
       </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>3828.99</v>
+      </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>93</v>
       </c>
@@ -20048,8 +20297,11 @@
       <c r="Y8">
         <v>498.53</v>
       </c>
+      <c r="Z8">
+        <v>1628.27</v>
+      </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>95</v>
       </c>
@@ -20071,8 +20323,11 @@
       <c r="Y9">
         <v>200.05</v>
       </c>
+      <c r="Z9">
+        <v>299.3</v>
+      </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -20094,21 +20349,24 @@
       <c r="Y10">
         <v>3000</v>
       </c>
+      <c r="Z10">
+        <v>5600</v>
+      </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>94</v>
       </c>
       <c r="T11">
-        <f t="shared" ref="T11:V11" si="0">SUM(T8:T10)</f>
+        <f t="shared" ref="T11:V11" si="1">SUM(T8:T10)</f>
         <v>-399.87999999999988</v>
       </c>
       <c r="U11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>279.87</v>
       </c>
       <c r="V11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-435.12</v>
       </c>
       <c r="W11">
@@ -20120,8 +20378,12 @@
         <v>4668.72</v>
       </c>
       <c r="Y11">
-        <f t="shared" ref="Y11" si="1">SUM(Y8:Y10)</f>
+        <f t="shared" ref="Y11" si="2">SUM(Y8:Y10)</f>
         <v>3698.58</v>
+      </c>
+      <c r="Z11">
+        <f>SUM(Z8:Z10)</f>
+        <v>7527.57</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos/Geral_Relatorio.xlsx
+++ b/Arquivos/Geral_Relatorio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Xampp\htdocs\Testes\Controle_Financeiro\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59C13D9-7846-4753-888C-DF3E2A6656B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA901118-441D-4752-AB36-77C0A4CE86A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="1" activeTab="3" xr2:uid="{0BF9C393-210A-48CF-A8E1-590D0E6A75CB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="3" xr2:uid="{0BF9C393-210A-48CF-A8E1-590D0E6A75CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Categoria" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
   <si>
     <t>Salario</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>Despesas Itau</t>
+  </si>
+  <si>
+    <t>out/20</t>
   </si>
 </sst>
 </file>
@@ -1548,9 +1551,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AZ$1</c:f>
+              <c:f>Categoria!$C$1:$BB$1</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -1700,16 +1703,22 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>jul/20</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$2:$AZ$2</c:f>
+              <c:f>Categoria!$C$2:$BB$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1967.72</c:v>
                 </c:pt>
@@ -1859,6 +1868,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>11887.35</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10810.55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5292.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,9 +1915,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AZ$1</c:f>
+              <c:f>Categoria!$C$1:$BB$1</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -2052,16 +2067,22 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>jul/20</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$3:$AZ$3</c:f>
+              <c:f>Categoria!$C$3:$BB$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>35.9</c:v>
                 </c:pt>
@@ -2211,6 +2232,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>208.68</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>166.85</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>167.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,9 +2277,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AZ$1</c:f>
+              <c:f>Categoria!$C$1:$BB$1</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -2402,16 +2429,22 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>jul/20</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$4:$AZ$4</c:f>
+              <c:f>Categoria!$C$4:$BB$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>343.47</c:v>
                 </c:pt>
@@ -2561,6 +2594,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>856.84</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1469.12</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1866.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2600,9 +2639,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AZ$1</c:f>
+              <c:f>Categoria!$C$1:$BB$1</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -2752,16 +2791,22 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>jul/20</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$6:$AZ$6</c:f>
+              <c:f>Categoria!$C$6:$BB$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="7">
                   <c:v>380.06</c:v>
                 </c:pt>
@@ -2890,6 +2935,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1015.86</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2771.28</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1926.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,9 +2980,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AZ$1</c:f>
+              <c:f>Categoria!$C$1:$BB$1</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -3081,16 +3132,22 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>jul/20</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$7:$AZ$7</c:f>
+              <c:f>Categoria!$C$7:$BB$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="30">
                   <c:v>650</c:v>
                 </c:pt>
@@ -3150,6 +3207,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2556.83</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2505.8200000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2521.5300000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3191,9 +3254,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AZ$1</c:f>
+              <c:f>Categoria!$C$1:$BB$1</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -3343,16 +3406,22 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>jul/20</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$8:$AZ$8</c:f>
+              <c:f>Categoria!$C$8:$BB$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="1">
                   <c:v>77.099999999999994</c:v>
                 </c:pt>
@@ -3487,6 +3556,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1532.36</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1096.94</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1044.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3526,9 +3601,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$AZ$1</c:f>
+              <c:f>Categoria!$C$1:$BB$1</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -3678,16 +3753,22 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>jul/20</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$16:$AZ$16</c:f>
+              <c:f>Categoria!$C$16:$BB$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3717,6 +3798,12 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3755</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3740</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3794,12 +3881,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -3949,6 +4036,12 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>jul/20</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3958,13 +4051,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$5:$AZ$5</c15:sqref>
+                          <c15:sqref>Categoria!$C$5:$BB$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>41.4</c:v>
                       </c:pt>
@@ -4084,6 +4177,12 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4102,7 +4201,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$9</c15:sqref>
@@ -4133,15 +4232,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4291,22 +4390,28 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>jul/20</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$9:$AZ$9</c15:sqref>
+                          <c15:sqref>Categoria!$C$9:$BB$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>6</c:v>
                       </c:pt>
@@ -4447,6 +4552,12 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>887.73</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>58.41</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4465,7 +4576,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$10</c15:sqref>
@@ -4496,15 +4607,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4654,22 +4765,28 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>jul/20</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$10:$AZ$10</c15:sqref>
+                          <c15:sqref>Categoria!$C$10:$BB$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>101.25</c:v>
                       </c:pt>
@@ -4791,6 +4908,12 @@
                         <c:v>362.19</c:v>
                       </c:pt>
                       <c:pt idx="49">
+                        <c:v>355.78</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>1220.8399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
                         <c:v>355.78</c:v>
                       </c:pt>
                     </c:numCache>
@@ -4810,7 +4933,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$11</c15:sqref>
@@ -4841,15 +4964,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4999,22 +5122,28 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>jul/20</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$11:$AZ$11</c15:sqref>
+                          <c15:sqref>Categoria!$C$11:$BB$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>90</c:v>
                       </c:pt>
@@ -5155,6 +5284,12 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>645.46</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>336.68</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>598.38</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5173,7 +5308,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$12</c15:sqref>
@@ -5202,15 +5337,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -5360,22 +5495,28 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>jul/20</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$12:$AZ$12</c15:sqref>
+                          <c15:sqref>Categoria!$C$12:$BB$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>286.60000000000002</c:v>
                       </c:pt>
@@ -5504,6 +5645,12 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>1381</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>1380</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>1549</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5522,7 +5669,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$13</c15:sqref>
@@ -5553,15 +5700,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -5711,22 +5858,28 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>jul/20</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$13:$AZ$13</c15:sqref>
+                          <c15:sqref>Categoria!$C$13:$BB$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>500</c:v>
                       </c:pt>
@@ -5801,6 +5954,12 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>369.54</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>561.79</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5819,7 +5978,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$14</c15:sqref>
@@ -5851,15 +6010,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -6009,22 +6168,28 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>jul/20</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$14:$AZ$14</c15:sqref>
+                          <c15:sqref>Categoria!$C$14:$BB$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="1">
                         <c:v>1247.1500000000001</c:v>
                       </c:pt>
@@ -6102,7 +6267,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$15</c15:sqref>
@@ -6134,15 +6299,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$AZ$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -6292,22 +6457,28 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>jul/20</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$15:$AZ$15</c15:sqref>
+                          <c15:sqref>Categoria!$C$15:$BB$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="50"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="7">
                         <c:v>300</c:v>
                       </c:pt>
@@ -6367,6 +6538,12 @@
                       </c:pt>
                       <c:pt idx="49">
                         <c:v>124.9</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>124.89</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>398.76</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8516,9 +8693,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Z$1</c:f>
+              <c:f>Geral!$C$1:$AB$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -8590,16 +8767,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>jul/21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$8:$Z$8</c:f>
+              <c:f>Geral!$C$8:$AB$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1904.82</c:v>
                 </c:pt>
@@ -8671,6 +8854,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1628.27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-246.03</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-74.239999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8710,9 +8899,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Z$1</c:f>
+              <c:f>Geral!$C$1:$AB$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -8784,16 +8973,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>jul/21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$9:$Z$9</c:f>
+              <c:f>Geral!$C$9:$AB$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="17">
                   <c:v>62.23</c:v>
                 </c:pt>
@@ -8814,6 +9009,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>299.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>352.06</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1293.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8853,9 +9054,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Z$1</c:f>
+              <c:f>Geral!$C$1:$AB$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -8927,16 +9128,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>jul/21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$10:$Z$10</c:f>
+              <c:f>Geral!$C$10:$AB$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="17">
                   <c:v>600</c:v>
                 </c:pt>
@@ -8957,6 +9164,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8550</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8624.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8996,9 +9209,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Z$1</c:f>
+              <c:f>Geral!$C$1:$AB$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -9070,16 +9283,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>jul/21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$11:$Z$11</c:f>
+              <c:f>Geral!$C$11:$AB$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="17">
                   <c:v>-399.87999999999988</c:v>
                 </c:pt>
@@ -9100,6 +9319,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7527.57</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8656.0300000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7256.9699999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9175,12 +9400,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -9252,6 +9477,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9261,13 +9492,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$2:$Z$2</c15:sqref>
+                          <c15:sqref>Geral!$C$2:$AB$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="0">
                         <c:v>5063</c:v>
                       </c:pt>
@@ -9339,6 +9570,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>6491.53</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4841.3599999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>5849</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9389,12 +9626,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -9466,6 +9703,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9475,13 +9718,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$3:$Z$3</c15:sqref>
+                          <c15:sqref>Geral!$C$3:$AB$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="0">
                         <c:v>3702.28</c:v>
                       </c:pt>
@@ -9553,6 +9796,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>5361.79</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>6715.66</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>5677.21</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9603,12 +9852,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -9680,6 +9929,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9689,13 +9944,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$4:$Z$4</c15:sqref>
+                          <c15:sqref>Geral!$C$4:$AB$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="0">
                         <c:v>1360.77</c:v>
                       </c:pt>
@@ -9767,6 +10022,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>1129.74</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>-1874.3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>171.79</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9817,12 +10078,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -9894,6 +10155,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9903,13 +10170,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$5:$Z$5</c15:sqref>
+                          <c15:sqref>Geral!$C$5:$AB$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="17">
                         <c:v>-72.81</c:v>
                       </c:pt>
@@ -9930,6 +10197,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>99.25</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>52.76</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>-1645.09</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9980,12 +10253,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -10057,6 +10330,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10066,13 +10345,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$6:$Z$6</c15:sqref>
+                          <c15:sqref>Geral!$C$6:$AB$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="17">
                         <c:v>200</c:v>
                       </c:pt>
@@ -10093,6 +10372,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>2600</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2950</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>74.239999999999995</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10143,12 +10428,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -10220,6 +10505,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10229,13 +10520,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$7:$Z$7</c15:sqref>
+                          <c15:sqref>Geral!$C$7:$AB$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="17">
                         <c:v>-3474.45</c:v>
                       </c:pt>
@@ -10256,6 +10547,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>3828.99</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1128.46</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>-1399.06</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10548,394 +10845,6 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Geral!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Receita Itau</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Geral!$C$1:$Z$1</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>fev/18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mar/18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>abr/18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mai/18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>jun/18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>jan/19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fev/19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>mar/19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>abr/19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>mai/19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>jun/19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>jul/19</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>ago/19</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>set/19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>out/19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>nov/19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>dez/19</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>jan/20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>fev/20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>mar/20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>abr/21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>mai/21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>jun/21</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>jul/21</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Geral!$C$2:$Z$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>5063</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5184.68</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4738.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7965</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9650</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6733</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6232</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9856.7999999999993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12418</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5105</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8530.2000000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10078.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8862.74</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8535</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="#,##0.00">
-                  <c:v>5157.2</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="#,##0.00">
-                  <c:v>8380</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11682</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5409</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9029.7000000000007</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6534</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8050.05</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7450</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8195.06</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6491.53</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1C7C-4917-8EF9-3882E2CD4012}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Geral!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Despesas Itau</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Geral!$C$1:$Z$1</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>fev/18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mar/18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>abr/18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mai/18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>jun/18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>jan/19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fev/19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>mar/19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>abr/19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>mai/19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>jun/19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>jul/19</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>ago/19</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>set/19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>out/19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>nov/19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>dez/19</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>jan/20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>fev/20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>mar/20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>abr/21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>mai/21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>jun/21</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>jul/21</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Geral!$C$3:$Z$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>3702.28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5583.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5754.33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7345.95</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8860.6299999999992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8387.18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6812.24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8454.48</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9373.7999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9041.49</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9047.48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9909.67</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8683.2099999999991</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9142.65</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="#,##0.00">
-                  <c:v>5134.9799999999996</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="#,##0.00">
-                  <c:v>6132.92</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10478.18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9010.64</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7831.27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7227.99</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7143.12</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7406.38</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8139.41</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5361.79</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1C7C-4917-8EF9-3882E2CD4012}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -10963,9 +10872,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Z$1</c:f>
+              <c:f>Geral!$C$1:$AB$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -11037,16 +10946,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>jul/21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$4:$Z$4</c:f>
+              <c:f>Geral!$C$4:$AB$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1360.77</c:v>
                 </c:pt>
@@ -11118,6 +11033,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1129.74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1874.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>171.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11157,9 +11078,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Z$1</c:f>
+              <c:f>Geral!$C$1:$AB$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -11231,16 +11152,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>jul/21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$5:$Z$5</c:f>
+              <c:f>Geral!$C$5:$AB$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="17">
                   <c:v>-72.81</c:v>
                 </c:pt>
@@ -11261,6 +11188,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>99.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1645.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11300,9 +11233,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Z$1</c:f>
+              <c:f>Geral!$C$1:$AB$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -11374,16 +11307,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>jul/21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$6:$Z$6</c:f>
+              <c:f>Geral!$C$6:$AB$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="17">
                   <c:v>200</c:v>
                 </c:pt>
@@ -11404,6 +11343,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>74.239999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11443,9 +11388,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$Z$1</c:f>
+              <c:f>Geral!$C$1:$AB$1</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -11517,16 +11462,22 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>jul/21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$7:$Z$7</c:f>
+              <c:f>Geral!$C$7:$AB$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="17">
                   <c:v>-3474.45</c:v>
                 </c:pt>
@@ -11547,6 +11498,12 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3828.99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1128.46</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1399.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11586,12 +11543,464 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Receita Itau</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:srgbClr val="00B050"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>out/20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$2:$AB$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>5063</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5184.68</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4738.09</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7965</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9650</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6733</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6232</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9856.7999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>12418</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5105</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8530.2000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>10078.02</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8862.74</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>8535</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="#,##0.00">
+                        <c:v>5157.2</c:v>
+                      </c:pt>
+                      <c:pt idx="15" formatCode="#,##0.00">
+                        <c:v>8380</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>11682</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>5409</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>9029.7000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>6534</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>8050.05</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>7450</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>8195.06</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>6491.53</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4841.3599999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>5849</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-1C7C-4917-8EF9-3882E2CD4012}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Despesas Itau</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>out/20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$3:$AB$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="26"/>
+                      <c:pt idx="0">
+                        <c:v>3702.28</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5583.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5754.33</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7345.95</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8860.6299999999992</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8387.18</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6812.24</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8454.48</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9373.7999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9041.49</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>9047.48</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>9909.67</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>8683.2099999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>9142.65</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="#,##0.00">
+                        <c:v>5134.9799999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="15" formatCode="#,##0.00">
+                        <c:v>6132.92</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>10478.18</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>9010.64</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>7831.27</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>7227.99</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>7143.12</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>7406.38</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>8139.41</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>5361.79</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>6715.66</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>5677.21</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-1C7C-4917-8EF9-3882E2CD4012}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
                 <c:idx val="6"/>
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Geral!$B$8</c15:sqref>
                         </c15:formulaRef>
@@ -11620,14 +12029,14 @@
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -11699,6 +12108,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -11706,15 +12121,15 @@
                 <c:val>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$8:$Z$8</c15:sqref>
+                          <c15:sqref>Geral!$C$8:$AB$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="0">
                         <c:v>1904.82</c:v>
                       </c:pt>
@@ -11786,12 +12201,18 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>1628.27</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>-246.03</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>-74.239999999999995</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-1C7C-4917-8EF9-3882E2CD4012}"/>
                   </c:ext>
@@ -11836,12 +12257,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -11913,6 +12334,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -11922,13 +12349,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$9:$Z$9</c15:sqref>
+                          <c15:sqref>Geral!$C$9:$AB$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="17">
                         <c:v>62.23</c:v>
                       </c:pt>
@@ -11949,6 +12376,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>299.3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>352.06</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>-1293.03</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11999,12 +12432,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -12076,6 +12509,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12085,13 +12524,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$10:$Z$10</c15:sqref>
+                          <c15:sqref>Geral!$C$10:$AB$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="17">
                         <c:v>600</c:v>
                       </c:pt>
@@ -12112,6 +12551,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>5600</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>8550</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>8624.24</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12162,12 +12607,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$Z$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -12239,6 +12684,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12248,13 +12699,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$11:$Z$11</c15:sqref>
+                          <c15:sqref>Geral!$C$11:$AB$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="26"/>
                       <c:pt idx="17">
                         <c:v>-399.87999999999988</c:v>
                       </c:pt>
@@ -12275,6 +12726,12 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>7527.57</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>8656.0300000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>7256.9699999999993</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -16317,9 +16774,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6316ABC0-BE72-4927-A0CC-92D47D1828C1}" name="Tabela1" displayName="Tabela1" ref="B1:Z11" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B1:Z11" xr:uid="{30E7AF0C-2406-4D8E-8F3C-2F5CF15E1A76}"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6316ABC0-BE72-4927-A0CC-92D47D1828C1}" name="Tabela1" displayName="Tabela1" ref="B1:AB11" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B1:AB11" xr:uid="{30E7AF0C-2406-4D8E-8F3C-2F5CF15E1A76}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{467A26DC-BF8E-430A-BC69-1ACF5B4E0BF0}" name="Tipo"/>
     <tableColumn id="12" xr3:uid="{8C517F2A-D45F-4C0E-994A-8DDC63AAF31E}" name="fev/18"/>
     <tableColumn id="13" xr3:uid="{4B846A75-FD83-4889-897B-E37DD8772C64}" name="mar/18"/>
@@ -16345,6 +16802,8 @@
     <tableColumn id="23" xr3:uid="{3BDE393D-E80A-4E7D-9DA2-DB683BC1D4FA}" name="mai/21"/>
     <tableColumn id="24" xr3:uid="{095AB34A-33A5-4C1B-AF3B-43195F22219B}" name="jun/21"/>
     <tableColumn id="25" xr3:uid="{969E7C9C-B0BB-454B-B1F3-724C9659F7EB}" name="jul/21"/>
+    <tableColumn id="26" xr3:uid="{F4FB3404-A2A3-44B0-9680-EF3ECBF01F28}" name="ago/20"/>
+    <tableColumn id="27" xr3:uid="{CCF120B6-69F1-46AC-9C35-5D7F6ECE2413}" name="out/20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16649,9 +17108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46DB15E-EF82-4401-9F39-DDD2BE1C7027}">
   <dimension ref="B1:BC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6480" topLeftCell="AL1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="BE15" sqref="BE15"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6495" topLeftCell="AP1" activePane="topRight"/>
+      <selection pane="topRight" activeCell="BD40" sqref="BD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16984,11 +17443,15 @@
       <c r="AZ2" s="3">
         <v>11887.35</v>
       </c>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
+      <c r="BA2" s="3">
+        <v>10810.55</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>5292.4</v>
+      </c>
       <c r="BC2" s="3">
         <f>SUM(AH2:BB2)</f>
-        <v>132126.62999999998</v>
+        <v>148229.57999999996</v>
       </c>
     </row>
     <row r="3" spans="2:55" x14ac:dyDescent="0.3">
@@ -17145,11 +17608,15 @@
       <c r="AZ3" s="3">
         <v>208.68</v>
       </c>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
+      <c r="BA3" s="3">
+        <v>166.85</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>167.05</v>
+      </c>
       <c r="BC3" s="3">
         <f t="shared" ref="BC3:BC15" si="0">SUM(AH3:BB3)</f>
-        <v>4746.0100000000011</v>
+        <v>5079.9100000000017</v>
       </c>
     </row>
     <row r="4" spans="2:55" x14ac:dyDescent="0.3">
@@ -17306,11 +17773,15 @@
       <c r="AZ4" s="3">
         <v>856.84</v>
       </c>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
+      <c r="BA4" s="3">
+        <v>1469.12</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>1866.16</v>
+      </c>
       <c r="BC4" s="3">
         <f t="shared" ref="BC4:BC12" si="1">SUM(AH4:BB4)</f>
-        <v>19403.21</v>
+        <v>22738.489999999998</v>
       </c>
     </row>
     <row r="5" spans="2:55" x14ac:dyDescent="0.3">
@@ -17447,8 +17918,12 @@
       <c r="AZ5" s="3">
         <v>35</v>
       </c>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
+      <c r="BA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>0</v>
+      </c>
       <c r="BC5" s="3">
         <f t="shared" si="1"/>
         <v>14341.15</v>
@@ -17594,11 +18069,15 @@
       <c r="AZ6" s="3">
         <v>1015.86</v>
       </c>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
+      <c r="BA6" s="3">
+        <v>2771.28</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>1926.42</v>
+      </c>
       <c r="BC6" s="3">
         <f>SUM(AH6:BB6)</f>
-        <v>40616.500000000007</v>
+        <v>45314.200000000004</v>
       </c>
     </row>
     <row r="7" spans="2:55" x14ac:dyDescent="0.3">
@@ -17695,11 +18174,15 @@
       <c r="AZ7" s="3">
         <v>2556.83</v>
       </c>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
+      <c r="BA7" s="3">
+        <v>2505.8200000000002</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>2521.5300000000002</v>
+      </c>
       <c r="BC7" s="3">
         <f>SUM(AH7:BB7)</f>
-        <v>40617.149999999994</v>
+        <v>45644.499999999993</v>
       </c>
     </row>
     <row r="8" spans="2:55" x14ac:dyDescent="0.3">
@@ -17846,11 +18329,15 @@
       <c r="AZ8" s="3">
         <v>1532.36</v>
       </c>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
+      <c r="BA8" s="3">
+        <v>1096.94</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>1044.94</v>
+      </c>
       <c r="BC8" s="3">
         <f>SUM(AH8:BB8)</f>
-        <v>33450.39</v>
+        <v>35592.270000000004</v>
       </c>
     </row>
     <row r="9" spans="2:55" x14ac:dyDescent="0.3">
@@ -18001,11 +18488,15 @@
       <c r="AZ9" s="3">
         <v>50</v>
       </c>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3"/>
+      <c r="BA9" s="3">
+        <v>887.73</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>58.41</v>
+      </c>
       <c r="BC9" s="3">
         <f>SUM(AH9:BB9)</f>
-        <v>1612.6899999999998</v>
+        <v>2558.83</v>
       </c>
     </row>
     <row r="10" spans="2:55" x14ac:dyDescent="0.3">
@@ -18144,11 +18635,15 @@
       <c r="AZ10" s="3">
         <v>355.78</v>
       </c>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
+      <c r="BA10" s="3">
+        <v>1220.8399999999999</v>
+      </c>
+      <c r="BB10" s="3">
+        <v>355.78</v>
+      </c>
       <c r="BC10" s="3">
         <f t="shared" si="1"/>
-        <v>9163.1700000000019</v>
+        <v>10739.790000000003</v>
       </c>
     </row>
     <row r="11" spans="2:55" x14ac:dyDescent="0.3">
@@ -18299,11 +18794,15 @@
       <c r="AZ11" s="3">
         <v>645.46</v>
       </c>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
+      <c r="BA11" s="3">
+        <v>336.68</v>
+      </c>
+      <c r="BB11" s="3">
+        <v>598.38</v>
+      </c>
       <c r="BC11" s="3">
         <f t="shared" si="1"/>
-        <v>9705.1700000000019</v>
+        <v>10640.230000000001</v>
       </c>
     </row>
     <row r="12" spans="2:55" x14ac:dyDescent="0.3">
@@ -18446,11 +18945,15 @@
       <c r="AZ12" s="3">
         <v>1381</v>
       </c>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
+      <c r="BA12" s="3">
+        <v>1380</v>
+      </c>
+      <c r="BB12" s="3">
+        <v>1549</v>
+      </c>
       <c r="BC12" s="3">
         <f t="shared" si="1"/>
-        <v>28766.85</v>
+        <v>31695.85</v>
       </c>
     </row>
     <row r="13" spans="2:55" x14ac:dyDescent="0.3">
@@ -18557,11 +19060,15 @@
       <c r="AZ13" s="3">
         <v>369.54</v>
       </c>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
+      <c r="BA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="3">
+        <v>561.79</v>
+      </c>
       <c r="BC13" s="3">
         <f t="shared" si="0"/>
-        <v>5965.8199999999988</v>
+        <v>6527.6099999999988</v>
       </c>
     </row>
     <row r="14" spans="2:55" x14ac:dyDescent="0.3">
@@ -18759,11 +19266,15 @@
       <c r="AZ15" s="3">
         <v>124.9</v>
       </c>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
+      <c r="BA15" s="3">
+        <v>124.89</v>
+      </c>
+      <c r="BB15" s="3">
+        <v>398.76</v>
+      </c>
       <c r="BC15" s="3">
         <f t="shared" si="0"/>
-        <v>3219.68</v>
+        <v>3743.33</v>
       </c>
     </row>
     <row r="16" spans="2:55" x14ac:dyDescent="0.3">
@@ -18840,11 +19351,15 @@
       <c r="AZ16" s="3">
         <v>3755</v>
       </c>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
+      <c r="BA16" s="3">
+        <v>3740</v>
+      </c>
+      <c r="BB16" s="3">
+        <v>0</v>
+      </c>
       <c r="BC16" s="3">
         <f>SUM(AH16:BB16)</f>
-        <v>14165</v>
+        <v>17905</v>
       </c>
     </row>
     <row r="17" spans="2:55" x14ac:dyDescent="0.3">
@@ -18972,15 +19487,15 @@
       </c>
       <c r="BA17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22770.7</v>
       </c>
       <c r="BB17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16340.62</v>
       </c>
       <c r="BC17">
         <f t="shared" si="2"/>
-        <v>345784.41999999993</v>
+        <v>384895.73999999993</v>
       </c>
     </row>
   </sheetData>
@@ -18998,7 +19513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587D5975-859A-4819-9F16-44D4AEFBAAF5}">
   <dimension ref="A2:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -19642,7 +20157,7 @@
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19813,10 +20328,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F060317C-C80B-4AD8-8076-0562414FEA70}">
-  <dimension ref="B1:Z11"/>
+  <dimension ref="B1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="7245" topLeftCell="K1" activePane="topRight"/>
+      <selection pane="topRight" activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19829,9 +20345,10 @@
     <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" customWidth="1"/>
     <col min="20" max="26" width="10.77734375" customWidth="1"/>
+    <col min="27" max="27" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -19907,8 +20424,14 @@
       <c r="Z1" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>105</v>
       </c>
@@ -19984,8 +20507,14 @@
       <c r="Z2">
         <v>6491.53</v>
       </c>
+      <c r="AA2">
+        <v>4841.3599999999997</v>
+      </c>
+      <c r="AB2">
+        <v>5849</v>
+      </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>106</v>
       </c>
@@ -20061,8 +20590,14 @@
       <c r="Z3">
         <v>5361.79</v>
       </c>
+      <c r="AA3">
+        <v>6715.66</v>
+      </c>
+      <c r="AB3">
+        <v>5677.21</v>
+      </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>99</v>
       </c>
@@ -20138,8 +20673,14 @@
       <c r="Z4">
         <v>1129.74</v>
       </c>
+      <c r="AA4">
+        <v>-1874.3</v>
+      </c>
+      <c r="AB4">
+        <v>171.79</v>
+      </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>101</v>
       </c>
@@ -20164,8 +20705,14 @@
       <c r="Z5">
         <v>99.25</v>
       </c>
+      <c r="AA5">
+        <v>52.76</v>
+      </c>
+      <c r="AB5">
+        <v>-1645.09</v>
+      </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>102</v>
       </c>
@@ -20190,13 +20737,19 @@
       <c r="Z6">
         <v>2600</v>
       </c>
+      <c r="AA6">
+        <v>2950</v>
+      </c>
+      <c r="AB6">
+        <v>74.239999999999995</v>
+      </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>103</v>
       </c>
       <c r="T7">
-        <f t="shared" ref="T7:Z7" si="0">SUM(T4:T6)</f>
+        <f t="shared" ref="T7:AB7" si="0">SUM(T4:T6)</f>
         <v>-3474.45</v>
       </c>
       <c r="U7">
@@ -20223,8 +20776,16 @@
         <f t="shared" si="0"/>
         <v>3828.99</v>
       </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>1128.46</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>-1399.06</v>
+      </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>93</v>
       </c>
@@ -20300,8 +20861,14 @@
       <c r="Z8">
         <v>1628.27</v>
       </c>
+      <c r="AA8">
+        <v>-246.03</v>
+      </c>
+      <c r="AB8">
+        <v>-74.239999999999995</v>
+      </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>95</v>
       </c>
@@ -20326,8 +20893,14 @@
       <c r="Z9">
         <v>299.3</v>
       </c>
+      <c r="AA9">
+        <v>352.06</v>
+      </c>
+      <c r="AB9">
+        <v>-1293.03</v>
+      </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -20352,8 +20925,14 @@
       <c r="Z10">
         <v>5600</v>
       </c>
+      <c r="AA10">
+        <v>8550</v>
+      </c>
+      <c r="AB10">
+        <v>8624.24</v>
+      </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>94</v>
       </c>
@@ -20378,12 +20957,20 @@
         <v>4668.72</v>
       </c>
       <c r="Y11">
-        <f t="shared" ref="Y11" si="2">SUM(Y8:Y10)</f>
+        <f t="shared" ref="Y11:AA11" si="2">SUM(Y8:Y10)</f>
         <v>3698.58</v>
       </c>
       <c r="Z11">
         <f>SUM(Z8:Z10)</f>
         <v>7527.57</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="2"/>
+        <v>8656.0300000000007</v>
+      </c>
+      <c r="AB11">
+        <f>SUM(AB8:AB10)</f>
+        <v>7256.9699999999993</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos/Geral_Relatorio.xlsx
+++ b/Arquivos/Geral_Relatorio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Xampp\htdocs\Testes\Controle_Financeiro\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA901118-441D-4752-AB36-77C0A4CE86A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B594E30E-792A-4982-8262-E94E3E0BA83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="3" xr2:uid="{0BF9C393-210A-48CF-A8E1-590D0E6A75CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" activeTab="3" xr2:uid="{0BF9C393-210A-48CF-A8E1-590D0E6A75CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Categoria" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
   <si>
     <t>Salario</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>Despesas Itau</t>
-  </si>
-  <si>
-    <t>out/20</t>
   </si>
 </sst>
 </file>
@@ -8772,7 +8769,7 @@
                   <c:v>ago/20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>out/20</c:v>
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8978,7 +8975,7 @@
                   <c:v>ago/20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>out/20</c:v>
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9133,7 +9130,7 @@
                   <c:v>ago/20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>out/20</c:v>
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9288,7 +9285,7 @@
                   <c:v>ago/20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>out/20</c:v>
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9482,7 +9479,7 @@
                         <c:v>ago/20</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>out/20</c:v>
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9708,7 +9705,7 @@
                         <c:v>ago/20</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>out/20</c:v>
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9934,7 +9931,7 @@
                         <c:v>ago/20</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>out/20</c:v>
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10160,7 +10157,7 @@
                         <c:v>ago/20</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>out/20</c:v>
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10335,7 +10332,7 @@
                         <c:v>ago/20</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>out/20</c:v>
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10510,7 +10507,7 @@
                         <c:v>ago/20</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>out/20</c:v>
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10951,7 +10948,7 @@
                   <c:v>ago/20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>out/20</c:v>
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11157,7 +11154,7 @@
                   <c:v>ago/20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>out/20</c:v>
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11312,7 +11309,7 @@
                   <c:v>ago/20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>out/20</c:v>
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11467,7 +11464,7 @@
                   <c:v>ago/20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>out/20</c:v>
+                  <c:v>set/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11661,7 +11658,7 @@
                         <c:v>ago/20</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>out/20</c:v>
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -11887,7 +11884,7 @@
                         <c:v>ago/20</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>out/20</c:v>
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12113,7 +12110,7 @@
                         <c:v>ago/20</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>out/20</c:v>
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12339,7 +12336,7 @@
                         <c:v>ago/20</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>out/20</c:v>
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12514,7 +12511,7 @@
                         <c:v>ago/20</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>out/20</c:v>
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12689,7 +12686,7 @@
                         <c:v>ago/20</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>out/20</c:v>
+                        <c:v>set/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -16803,7 +16800,7 @@
     <tableColumn id="24" xr3:uid="{095AB34A-33A5-4C1B-AF3B-43195F22219B}" name="jun/21"/>
     <tableColumn id="25" xr3:uid="{969E7C9C-B0BB-454B-B1F3-724C9659F7EB}" name="jul/21"/>
     <tableColumn id="26" xr3:uid="{F4FB3404-A2A3-44B0-9680-EF3ECBF01F28}" name="ago/20"/>
-    <tableColumn id="27" xr3:uid="{CCF120B6-69F1-46AC-9C35-5D7F6ECE2413}" name="out/20"/>
+    <tableColumn id="27" xr3:uid="{CCF120B6-69F1-46AC-9C35-5D7F6ECE2413}" name="set/20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17109,7 +17106,7 @@
   <dimension ref="B1:BC17"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6495" topLeftCell="AP1" activePane="topRight"/>
+      <pane xSplit="6492" topLeftCell="AP1" activePane="topRight"/>
       <selection pane="topRight" activeCell="BD40" sqref="BD40"/>
     </sheetView>
   </sheetViews>
@@ -20331,8 +20328,8 @@
   <dimension ref="B1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7245" topLeftCell="K1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="AG18" sqref="AG18"/>
+      <pane xSplit="7248" topLeftCell="R1" activePane="topRight"/>
+      <selection pane="topRight" activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20428,7 +20425,7 @@
         <v>34</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="2:28" x14ac:dyDescent="0.3">

--- a/Arquivos/Geral_Relatorio.xlsx
+++ b/Arquivos/Geral_Relatorio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Xampp\htdocs\Testes\Controle_Financeiro\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B594E30E-792A-4982-8262-E94E3E0BA83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF6029C-05A1-434F-94C1-37AD73154F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" activeTab="3" xr2:uid="{0BF9C393-210A-48CF-A8E1-590D0E6A75CB}"/>
+    <workbookView xWindow="4248" yWindow="3480" windowWidth="13836" windowHeight="7176" tabRatio="900" xr2:uid="{0BF9C393-210A-48CF-A8E1-590D0E6A75CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Categoria" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
   <si>
     <t>Salario</t>
   </si>
@@ -353,10 +353,22 @@
     <t>jul/21</t>
   </si>
   <si>
-    <t>Receita Itau</t>
+    <t>Movimentação</t>
   </si>
   <si>
-    <t>Despesas Itau</t>
+    <t>out/20</t>
+  </si>
+  <si>
+    <t>nov/20</t>
+  </si>
+  <si>
+    <t>dez/20</t>
+  </si>
+  <si>
+    <t>49,245,90</t>
+  </si>
+  <si>
+    <t>57,951,09</t>
   </si>
 </sst>
 </file>
@@ -553,7 +565,7 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="61">
     <dxf>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
@@ -578,6 +590,60 @@
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1548,9 +1614,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$BB$1</c:f>
+              <c:f>Categoria!$C$1:$BC$1</c:f>
               <c:strCache>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -1706,16 +1772,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$2:$BB$2</c:f>
+              <c:f>Categoria!$C$2:$BC$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1967.72</c:v>
                 </c:pt>
@@ -1871,6 +1940,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>5292.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11269.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1912,9 +1984,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$BB$1</c:f>
+              <c:f>Categoria!$C$1:$BC$1</c:f>
               <c:strCache>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -2070,16 +2142,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$3:$BB$3</c:f>
+              <c:f>Categoria!$C$3:$BC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>35.9</c:v>
                 </c:pt>
@@ -2235,6 +2310,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>167.05</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>195.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2274,9 +2352,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$BB$1</c:f>
+              <c:f>Categoria!$C$1:$BC$1</c:f>
               <c:strCache>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -2432,16 +2510,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$4:$BB$4</c:f>
+              <c:f>Categoria!$C$4:$BC$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>343.47</c:v>
                 </c:pt>
@@ -2597,6 +2678,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1866.16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1733.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2636,9 +2720,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$BB$1</c:f>
+              <c:f>Categoria!$C$1:$BC$1</c:f>
               <c:strCache>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -2794,16 +2878,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$6:$BB$6</c:f>
+              <c:f>Categoria!$C$6:$BC$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="7">
                   <c:v>380.06</c:v>
                 </c:pt>
@@ -2938,6 +3025,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1926.42</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2135.2199999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2977,9 +3067,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$BB$1</c:f>
+              <c:f>Categoria!$C$1:$BC$1</c:f>
               <c:strCache>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -3135,16 +3225,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$7:$BB$7</c:f>
+              <c:f>Categoria!$C$7:$BC$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="30">
                   <c:v>650</c:v>
                 </c:pt>
@@ -3210,6 +3303,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>2521.5300000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2552.8200000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3251,9 +3347,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$BB$1</c:f>
+              <c:f>Categoria!$C$1:$BC$1</c:f>
               <c:strCache>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -3409,16 +3505,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$8:$BB$8</c:f>
+              <c:f>Categoria!$C$8:$BC$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="1">
                   <c:v>77.099999999999994</c:v>
                 </c:pt>
@@ -3559,6 +3658,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1044.94</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1398.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3598,9 +3700,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$BB$1</c:f>
+              <c:f>Categoria!$C$1:$BC$1</c:f>
               <c:strCache>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -3756,16 +3858,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$16:$BB$16</c:f>
+              <c:f>Categoria!$C$16:$BC$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3801,6 +3906,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3878,12 +3986,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4039,6 +4147,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4048,13 +4159,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$5:$BB$5</c15:sqref>
+                          <c15:sqref>Categoria!$C$5:$BC$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="0">
                         <c:v>41.4</c:v>
                       </c:pt>
@@ -4180,6 +4291,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>301.8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4232,12 +4346,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4393,6 +4507,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4402,13 +4519,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$9:$BB$9</c15:sqref>
+                          <c15:sqref>Categoria!$C$9:$BC$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="0">
                         <c:v>6</c:v>
                       </c:pt>
@@ -4555,6 +4672,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>58.41</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>-65.69</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4607,12 +4727,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4768,6 +4888,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4777,13 +4900,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$10:$BB$10</c15:sqref>
+                          <c15:sqref>Categoria!$C$10:$BC$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="0">
                         <c:v>101.25</c:v>
                       </c:pt>
@@ -4912,6 +5035,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>355.78</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>356.78</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4964,12 +5090,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -5125,6 +5251,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5134,13 +5263,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$11:$BB$11</c15:sqref>
+                          <c15:sqref>Categoria!$C$11:$BC$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="0">
                         <c:v>90</c:v>
                       </c:pt>
@@ -5287,6 +5416,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>598.38</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5337,12 +5469,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -5498,6 +5630,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5507,13 +5642,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$12:$BB$12</c15:sqref>
+                          <c15:sqref>Categoria!$C$12:$BC$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="0">
                         <c:v>286.60000000000002</c:v>
                       </c:pt>
@@ -5648,6 +5783,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>1549</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>3997.6</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5700,12 +5838,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -5861,6 +5999,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5870,13 +6011,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$13:$BB$13</c15:sqref>
+                          <c15:sqref>Categoria!$C$13:$BC$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="0">
                         <c:v>500</c:v>
                       </c:pt>
@@ -5957,6 +6098,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>561.79</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>112</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6010,12 +6154,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -6171,6 +6315,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6180,13 +6327,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$14:$BB$14</c15:sqref>
+                          <c15:sqref>Categoria!$C$14:$BC$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="1">
                         <c:v>1247.1500000000001</c:v>
                       </c:pt>
@@ -6246,6 +6393,9 @@
                       </c:pt>
                       <c:pt idx="41">
                         <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>7000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6299,12 +6449,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BB$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -6460,6 +6610,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6469,13 +6622,13 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$15:$BB$15</c15:sqref>
+                          <c15:sqref>Categoria!$C$15:$BC$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="52"/>
+                      <c:ptCount val="53"/>
                       <c:pt idx="7">
                         <c:v>300</c:v>
                       </c:pt>
@@ -6541,6 +6694,9 @@
                       </c:pt>
                       <c:pt idx="51">
                         <c:v>398.76</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>987.95</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8663,11 +8819,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Geral!$B$8</c:f>
+              <c:f>Geral!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8690,9 +8846,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$AB$1</c:f>
+              <c:f>Geral!$C$1:$AC$1</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -8770,16 +8926,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$8:$AB$8</c:f>
+              <c:f>Geral!$C$9:$AC$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1904.82</c:v>
                 </c:pt>
@@ -8858,160 +9017,8 @@
                 <c:pt idx="25">
                   <c:v>-74.239999999999995</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8ECF-44EF-A491-A544D355682D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Geral!$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Saldo Final Santander C/C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="FF7C80"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Geral!$C$1:$AB$1</c:f>
-              <c:strCache>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>fev/18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mar/18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>abr/18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mai/18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>jun/18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>jan/19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fev/19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>mar/19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>abr/19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>mai/19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>jun/19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>jul/19</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>ago/19</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>set/19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>out/19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>nov/19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>dez/19</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>jan/20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>fev/20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>mar/20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>abr/21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>mai/21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>jun/21</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>jul/21</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ago/20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>set/20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Geral!$C$9:$AB$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="17">
-                  <c:v>62.23</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>93.55</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>72.55</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>298.31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>225.84</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>200.05</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>299.3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>352.06</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1293.03</c:v>
+                <c:pt idx="26">
+                  <c:v>-272.72000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9032,7 +9039,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Saldo Final Saldo C/P</c:v>
+                  <c:v>Saldo Final Santander C/C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9040,7 +9047,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:srgbClr val="FF7C80"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9051,9 +9058,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$AB$1</c:f>
+              <c:f>Geral!$C$1:$AC$1</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -9131,42 +9138,48 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$10:$AB$10</c:f>
+              <c:f>Geral!$C$10:$AC$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="17">
-                  <c:v>600</c:v>
+                  <c:v>62.23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>93.55</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>72.55</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>298.31</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4000</c:v>
+                  <c:v>225.84</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3000</c:v>
+                  <c:v>200.05</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5600</c:v>
+                  <c:v>299.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8550</c:v>
+                  <c:v>352.06</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8624.24</c:v>
+                  <c:v>-1293.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>164.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9187,6 +9200,167 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
+                  <c:v>Saldo Final Saldo C/P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geral!$C$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>fev/18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mar/18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>abr/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mai/18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jun/18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jan/19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fev/19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mar/19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>abr/19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mai/19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>jun/19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>jul/19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ago/19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>set/19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>out/19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>nov/19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>abr/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mai/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>jun/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>jul/21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>out/20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geral!$C$11:$AC$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="17">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8550</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8624.24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>203.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8338-4984-BC20-B32CD7413263}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geral!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Saldo Final Geral</c:v>
                 </c:pt>
               </c:strCache>
@@ -9206,9 +9380,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$AB$1</c:f>
+              <c:f>Geral!$C$1:$AC$1</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -9286,16 +9460,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$11:$AB$11</c:f>
+              <c:f>Geral!$C$12:$AC$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="17">
                   <c:v>-399.87999999999988</c:v>
                 </c:pt>
@@ -9322,6 +9499,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7256.9699999999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9329,7 +9509,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8338-4984-BC20-B32CD7413263}"/>
+              <c16:uniqueId val="{00000001-8949-4826-AB3C-7F037F6FE375}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9375,7 +9555,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Receita Itau</c:v>
+                        <c:v>Receita</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9397,12 +9577,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -9480,6 +9660,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9489,13 +9672,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$2:$AB$2</c15:sqref>
+                          <c15:sqref>Geral!$C$2:$AC$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>5063</c:v>
                       </c:pt>
@@ -9566,13 +9749,16 @@
                         <c:v>8195.06</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>6491.53</c:v>
+                        <c:v>14508.89</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>4841.3599999999997</c:v>
+                        <c:v>13236.93</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>5849</c:v>
+                        <c:v>7215.64</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>50788.87</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9601,7 +9787,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Despesas Itau</c:v>
+                        <c:v>Despesas</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9623,12 +9809,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -9706,6 +9892,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9715,13 +9904,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$3:$AB$3</c15:sqref>
+                          <c15:sqref>Geral!$C$3:$AC$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>3702.28</c:v>
                       </c:pt>
@@ -9792,13 +9981,16 @@
                         <c:v>8139.41</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>5361.79</c:v>
+                        <c:v>10679.9</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>6715.66</c:v>
+                        <c:v>12108.47</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>5677.21</c:v>
+                        <c:v>8614.7000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9827,15 +10019,15 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Saldo Mês Itau</c:v>
+                        <c:v>Movimentação</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
                     <a:solidFill>
-                      <a:srgbClr val="FF6600"/>
+                      <a:schemeClr val="accent3"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -9849,12 +10041,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -9932,6 +10124,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9941,90 +10136,24 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$4:$AB$4</c15:sqref>
+                          <c15:sqref>Geral!$C$4:$AC$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
-                      <c:pt idx="0">
-                        <c:v>1360.77</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>-398.42</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-1016.24</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>619.04999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>789.37</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>-1654.18</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>-580.24</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1402.32</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>3044.2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>-3936.49</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>-517.28</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>168.35</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>179.53</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>-607.65</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>22.22</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2247.08</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1203.82</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>-3601.64</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1198.43</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>-693.99</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>906.93</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>43.62</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>55.65</c:v>
-                      </c:pt>
+                      <c:ptCount val="27"/>
                       <c:pt idx="23">
-                        <c:v>1129.74</c:v>
+                        <c:v>25188.79</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>-1874.3</c:v>
+                        <c:v>25345.4</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>171.79</c:v>
+                        <c:v>15830.34</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>108738.96</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10053,15 +10182,15 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Saldo Mês Santander C/C</c:v>
+                        <c:v>Saldo Mês Itau</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                  <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
                     <a:solidFill>
-                      <a:schemeClr val="accent4"/>
+                      <a:srgbClr val="FF6600"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -10075,12 +10204,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -10158,6 +10287,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10167,39 +10299,93 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$5:$AB$5</c15:sqref>
+                          <c15:sqref>Geral!$C$5:$AC$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>1360.77</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-398.42</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-1016.24</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>619.04999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>789.37</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-1654.18</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-580.24</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1402.32</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3044.2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-3936.49</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-517.28</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>168.35</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>179.53</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-607.65</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>22.22</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2247.08</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1203.82</c:v>
+                      </c:pt>
                       <c:pt idx="17">
-                        <c:v>-72.81</c:v>
+                        <c:v>-3601.64</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>31.32</c:v>
+                        <c:v>1198.43</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>-21</c:v>
+                        <c:v>-693.99</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>225.76</c:v>
+                        <c:v>906.93</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>-72.47</c:v>
+                        <c:v>43.62</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>-25.79</c:v>
+                        <c:v>55.65</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>99.25</c:v>
+                        <c:v>1129.74</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>52.76</c:v>
+                        <c:v>-1874.3</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>-1645.09</c:v>
+                        <c:v>171.79</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>-198.48</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10228,7 +10414,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Saldo Mês Santander C/P</c:v>
+                        <c:v>Saldo Mês Santander C/C</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10250,12 +10436,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -10333,6 +10519,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10342,39 +10531,42 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$6:$AB$6</c15:sqref>
+                          <c15:sqref>Geral!$C$6:$AC$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="17">
-                        <c:v>200</c:v>
+                        <c:v>-72.81</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>-602.6</c:v>
+                        <c:v>31.32</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>-187.98</c:v>
+                        <c:v>-21</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>3000</c:v>
+                        <c:v>225.76</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>1000</c:v>
+                        <c:v>-72.47</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>-1000</c:v>
+                        <c:v>-25.79</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>2600</c:v>
+                        <c:v>99.25</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>2950</c:v>
+                        <c:v>52.76</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>74.239999999999995</c:v>
+                        <c:v>-1645.09</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1457.27</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10403,7 +10595,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Saldo Mês Geral</c:v>
+                        <c:v>Saldo Mês Santander C/P</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10425,12 +10617,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -10508,6 +10700,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10517,39 +10712,42 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$7:$AB$7</c15:sqref>
+                          <c15:sqref>Geral!$C$7:$AC$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="17">
-                        <c:v>-3474.45</c:v>
+                        <c:v>200</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>627.15</c:v>
+                        <c:v>-602.6</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>-902.97</c:v>
+                        <c:v>-187.98</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>4132.6900000000005</c:v>
+                        <c:v>3000</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>971.15</c:v>
+                        <c:v>1000</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>-970.14</c:v>
+                        <c:v>-1000</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>3828.99</c:v>
+                        <c:v>2600</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>1128.46</c:v>
+                        <c:v>2950</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>-1399.06</c:v>
+                        <c:v>74.239999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>-8421.01</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10558,6 +10756,189 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-8ECF-44EF-A491-A544D355682D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Saldo Mês Geral</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>out/20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$8:$AC$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="17">
+                        <c:v>-3474.45</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>627.15</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-902.97</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>4132.6900000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>971.15</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>-970.14</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3828.99</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1128.46</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>-1399.06</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>7162.22</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-8ECF-44EF-A491-A544D355682D}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -10842,11 +11223,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Geral!$B$4</c:f>
+              <c:f>Geral!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10869,9 +11250,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$AB$1</c:f>
+              <c:f>Geral!$C$1:$AC$1</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -10949,16 +11330,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$4:$AB$4</c:f>
+              <c:f>Geral!$C$5:$AC$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1360.77</c:v>
                 </c:pt>
@@ -11037,160 +11421,8 @@
                 <c:pt idx="25">
                   <c:v>171.79</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1C7C-4917-8EF9-3882E2CD4012}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Geral!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Saldo Mês Santander C/C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="EF5B62"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Geral!$C$1:$AB$1</c:f>
-              <c:strCache>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>fev/18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mar/18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>abr/18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mai/18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>jun/18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>jan/19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fev/19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>mar/19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>abr/19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>mai/19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>jun/19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>jul/19</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>ago/19</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>set/19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>out/19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>nov/19</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>dez/19</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>jan/20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>fev/20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>mar/20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>abr/21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>mai/21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>jun/21</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>jul/21</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>ago/20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>set/20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Geral!$C$5:$AB$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="17">
-                  <c:v>-72.81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>31.32</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>225.76</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-72.47</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-25.79</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>99.25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>52.76</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1645.09</c:v>
+                <c:pt idx="26">
+                  <c:v>-198.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11211,7 +11443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Saldo Mês Santander C/P</c:v>
+                  <c:v>Saldo Mês Santander C/C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11219,7 +11451,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:srgbClr val="EF5B62"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -11230,9 +11462,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$AB$1</c:f>
+              <c:f>Geral!$C$1:$AC$1</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -11310,42 +11542,48 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$6:$AB$6</c:f>
+              <c:f>Geral!$C$6:$AC$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="17">
-                  <c:v>200</c:v>
+                  <c:v>-72.81</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-602.6</c:v>
+                  <c:v>31.32</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-187.98</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>225.76</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1000</c:v>
+                  <c:v>-72.47</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1000</c:v>
+                  <c:v>-25.79</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2600</c:v>
+                  <c:v>99.25</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2950</c:v>
+                  <c:v>52.76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>74.239999999999995</c:v>
+                  <c:v>-1645.09</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1457.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11366,6 +11604,167 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
+                  <c:v>Saldo Mês Santander C/P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geral!$C$1:$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>fev/18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mar/18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>abr/18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mai/18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jun/18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>jan/19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fev/19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mar/19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>abr/19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>mai/19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>jun/19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>jul/19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ago/19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>set/19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>out/19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>nov/19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>dez/19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>jan/20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>fev/20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>mar/20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>abr/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>mai/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>jun/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>jul/21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>ago/20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>out/20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geral!$C$7:$AC$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-602.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-187.98</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2950</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>74.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8421.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C7C-4917-8EF9-3882E2CD4012}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geral!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Saldo Mês Geral</c:v>
                 </c:pt>
               </c:strCache>
@@ -11385,9 +11784,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$AB$1</c:f>
+              <c:f>Geral!$C$1:$AC$1</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -11465,16 +11864,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>set/20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>out/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$7:$AB$7</c:f>
+              <c:f>Geral!$C$8:$AC$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="17">
                   <c:v>-3474.45</c:v>
                 </c:pt>
@@ -11501,6 +11903,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-1399.06</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7162.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11508,7 +11913,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1C7C-4917-8EF9-3882E2CD4012}"/>
+              <c16:uniqueId val="{00000003-1C7C-4917-8EF9-3882E2CD4012}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11554,7 +11959,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Receita Itau</c:v>
+                        <c:v>Receita</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -11576,12 +11981,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -11659,6 +12064,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -11668,13 +12076,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$2:$AB$2</c15:sqref>
+                          <c15:sqref>Geral!$C$2:$AC$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>5063</c:v>
                       </c:pt>
@@ -11745,13 +12153,16 @@
                         <c:v>8195.06</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>6491.53</c:v>
+                        <c:v>14508.89</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>4841.3599999999997</c:v>
+                        <c:v>13236.93</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>5849</c:v>
+                        <c:v>7215.64</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>50788.87</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11780,7 +12191,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Despesas Itau</c:v>
+                        <c:v>Despesas</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -11802,12 +12213,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -11885,6 +12296,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -11894,13 +12308,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$3:$AB$3</c15:sqref>
+                          <c15:sqref>Geral!$C$3:$AC$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>3702.28</c:v>
                       </c:pt>
@@ -11971,13 +12385,16 @@
                         <c:v>8139.41</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>5361.79</c:v>
+                        <c:v>10679.9</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>6715.66</c:v>
+                        <c:v>12108.47</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>5677.21</c:v>
+                        <c:v>8614.7000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11992,14 +12409,177 @@
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
+                <c:idx val="2"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$B$8</c15:sqref>
+                          <c15:sqref>Geral!$B$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Movimentação</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>out/20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$4:$AC$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="23">
+                        <c:v>25188.79</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25345.4</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>15830.34</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>108738.96</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-1C7C-4917-8EF9-3882E2CD4012}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12028,12 +12608,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -12111,6 +12691,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12120,13 +12703,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$8:$AB$8</c15:sqref>
+                          <c15:sqref>Geral!$C$9:$AC$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>1904.82</c:v>
                       </c:pt>
@@ -12205,180 +12788,8 @@
                       <c:pt idx="25">
                         <c:v>-74.239999999999995</c:v>
                       </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-1C7C-4917-8EF9-3882E2CD4012}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Geral!$B$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Saldo Final Santander C/C</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
-                    <a:solidFill>
-                      <a:srgbClr val="FF7C80"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="26"/>
-                      <c:pt idx="0">
-                        <c:v>fev/18</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>mar/18</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>abr/18</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>mai/18</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>jun/18</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>jan/19</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>fev/19</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>mar/19</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>abr/19</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>mai/19</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>jun/19</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>jul/19</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>ago/19</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>set/19</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>out/19</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>nov/19</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>dez/19</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>jan/20</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>fev/20</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>mar/20</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>abr/21</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>mai/21</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>jun/21</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>jul/21</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>ago/20</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>set/20</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Geral!$C$9:$AB$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
-                      <c:pt idx="17">
-                        <c:v>62.23</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>93.55</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>72.55</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>298.31</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>225.84</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>200.05</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>299.3</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>352.06</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>-1293.03</c:v>
+                      <c:pt idx="26">
+                        <c:v>-272.72000000000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12407,7 +12818,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Saldo Final Saldo C/P</c:v>
+                        <c:v>Saldo Final Santander C/C</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12415,7 +12826,7 @@
                 <c:spPr>
                   <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
                     <a:solidFill>
-                      <a:srgbClr val="C00000"/>
+                      <a:srgbClr val="FF7C80"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -12429,12 +12840,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -12512,6 +12923,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12521,39 +12935,42 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$10:$AB$10</c15:sqref>
+                          <c15:sqref>Geral!$C$10:$AC$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="17">
-                        <c:v>600</c:v>
+                        <c:v>62.23</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0</c:v>
+                        <c:v>93.55</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0</c:v>
+                        <c:v>72.55</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>3000</c:v>
+                        <c:v>298.31</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>4000</c:v>
+                        <c:v>225.84</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>3000</c:v>
+                        <c:v>200.05</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>5600</c:v>
+                        <c:v>299.3</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>8550</c:v>
+                        <c:v>352.06</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>8624.24</c:v>
+                        <c:v>-1293.03</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>164.24</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12582,6 +12999,187 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
+                        <c:v>Saldo Final Saldo C/P</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:srgbClr val="C00000"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="0">
+                        <c:v>fev/18</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>mar/18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>abr/18</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>mai/18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>jun/18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>jan/19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>fev/19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>mar/19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>abr/19</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>mai/19</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>jun/19</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>jul/19</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>ago/19</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>set/19</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>out/19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>nov/19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>dez/19</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>jan/20</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>fev/20</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>mar/20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>abr/21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>mai/21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>jun/21</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>jul/21</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>ago/20</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>out/20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$C$11:$AC$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                      <c:pt idx="17">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>5600</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>8550</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>8624.24</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>203.23</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-4FFE-425D-95E8-297B34EF8A74}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Geral!$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
                         <c:v>Saldo Final Geral</c:v>
                       </c:pt>
                     </c:strCache>
@@ -12604,12 +13202,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AB$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -12687,6 +13285,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>set/20</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>out/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12696,13 +13297,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$11:$AB$11</c15:sqref>
+                          <c15:sqref>Geral!$C$12:$AC$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="26"/>
+                      <c:ptCount val="27"/>
                       <c:pt idx="17">
                         <c:v>-399.87999999999988</c:v>
                       </c:pt>
@@ -12729,6 +13330,9 @@
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>7256.9699999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>94.75</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12736,7 +13340,7 @@
                 <c:smooth val="0"/>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-4FFE-425D-95E8-297B34EF8A74}"/>
+                    <c16:uniqueId val="{00000001-C835-4F7E-A96D-C7BCD04FA511}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -16463,7 +17067,7 @@
       <xdr:rowOff>46671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -16618,13 +17222,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9152</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>16025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>143455</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>49364</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16654,13 +17258,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>134303</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>33339</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16692,62 +17296,65 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C67A1C5-70D6-4184-BBF9-6AC776A5C264}" name="Tabela2" displayName="Tabela2" ref="B1:BC16" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="B1:BC16" xr:uid="{4892D81B-3103-4E1D-8234-612FB6156837}"/>
-  <tableColumns count="54">
-    <tableColumn id="1" xr3:uid="{5D0AF3A4-6E6B-4D02-B55A-A968DF4C2572}" name="Categorias" dataDxfId="55"/>
-    <tableColumn id="25" xr3:uid="{6AA4D8AB-E9C6-435A-852C-B89D9BAF5125}" name="jan/16" dataDxfId="54"/>
-    <tableColumn id="26" xr3:uid="{FD428DBE-045E-485D-8979-40D5D79DDEBE}" name="fev/16" dataDxfId="53"/>
-    <tableColumn id="29" xr3:uid="{876DDBB4-646C-4FC5-B6AC-F331EFED3B5E}" name="mar/16" dataDxfId="52"/>
-    <tableColumn id="30" xr3:uid="{1DFA8142-1D90-4D99-9185-4B49331A553C}" name="abr/16" dataDxfId="51"/>
-    <tableColumn id="31" xr3:uid="{0001CAB1-F41E-4EBC-99C5-BD5658C50F7D}" name="mai/16" dataDxfId="50"/>
-    <tableColumn id="32" xr3:uid="{19AA0B84-ABE9-42EE-AA0F-900CD0C08921}" name="jun/16" dataDxfId="49"/>
-    <tableColumn id="33" xr3:uid="{E1A0D487-22A4-4D8F-A8EC-B8783D91CACB}" name="jul/16" dataDxfId="48"/>
-    <tableColumn id="40" xr3:uid="{AC27CADB-6867-4385-9380-4A4517596413}" name="ago/16" dataDxfId="47"/>
-    <tableColumn id="39" xr3:uid="{6AA6B46D-A647-472F-8559-49551A803F6C}" name="set/16" dataDxfId="46"/>
-    <tableColumn id="41" xr3:uid="{D16DEDB6-D953-4086-818F-46750C375A80}" name="out/16" dataDxfId="45"/>
-    <tableColumn id="42" xr3:uid="{3D0BA16B-E758-44D0-A591-69EB34E06A44}" name="nov/16" dataDxfId="44"/>
-    <tableColumn id="43" xr3:uid="{DD7C48AE-8661-494F-910C-7EFD5F079E67}" name="dez/16" dataDxfId="43"/>
-    <tableColumn id="27" xr3:uid="{CC88617F-0F3B-41A2-B76E-225DFBAE76D4}" name="jan/17" dataDxfId="42"/>
-    <tableColumn id="28" xr3:uid="{8526B9D9-176F-4C74-A061-411CD63AE40C}" name="fev/17" dataDxfId="41"/>
-    <tableColumn id="34" xr3:uid="{B7EB215A-A816-434B-8A4A-C69934E7D478}" name="mar/17" dataDxfId="40"/>
-    <tableColumn id="35" xr3:uid="{AB023239-ADA5-45FB-BC8D-9997A26DE841}" name="abr/17" dataDxfId="39"/>
-    <tableColumn id="36" xr3:uid="{B8A780F2-173E-4E87-B96F-05A31F451373}" name="mai/17" dataDxfId="38"/>
-    <tableColumn id="37" xr3:uid="{E326DF01-F146-4017-A7B4-615192AFD833}" name="jun/17" dataDxfId="37"/>
-    <tableColumn id="38" xr3:uid="{3B30707B-EA31-44F7-BD54-F55F91489B8D}" name="jul/17" dataDxfId="36"/>
-    <tableColumn id="44" xr3:uid="{16D1E248-0183-43D5-A47E-746323F4D8E5}" name="ago/17" dataDxfId="35"/>
-    <tableColumn id="45" xr3:uid="{49E431B1-7AA2-4F97-A42F-4CAE9C5AFCBB}" name="set/17" dataDxfId="34"/>
-    <tableColumn id="46" xr3:uid="{C87440A1-61F6-401B-BC0B-5B27C7AD4DDD}" name="out/17" dataDxfId="33"/>
-    <tableColumn id="47" xr3:uid="{A05081D0-3683-43C0-B125-9D2866E73B9F}" name="nov/17" dataDxfId="32"/>
-    <tableColumn id="48" xr3:uid="{AD01059B-ECA6-4CF9-BAFF-6FC7BE79BE07}" name="dez/17" dataDxfId="31"/>
-    <tableColumn id="49" xr3:uid="{28CC479A-C432-4809-B681-B61AB21A6CF0}" name="jan/18" dataDxfId="30"/>
-    <tableColumn id="50" xr3:uid="{825F9B51-898E-4E1B-9642-57872F2376FE}" name="fev/18" dataDxfId="29"/>
-    <tableColumn id="51" xr3:uid="{375FD0A1-4891-4718-96FA-8C4311156A1F}" name="mar/18" dataDxfId="28"/>
-    <tableColumn id="52" xr3:uid="{3423FD2D-FD8A-4ADA-8375-CC846256947E}" name="abr/18" dataDxfId="27"/>
-    <tableColumn id="53" xr3:uid="{61A3FB2F-7370-4B2E-8992-FD5914CCA439}" name="mai/18" dataDxfId="26"/>
-    <tableColumn id="54" xr3:uid="{0F312C47-9143-4B66-8BE8-A563D2E5F10E}" name="jun/18" dataDxfId="25"/>
-    <tableColumn id="24" xr3:uid="{DB901FBD-0CB2-4272-863B-1C94C335798A}" name="dez/18" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{D74F9E92-F447-48F0-9B4F-F54230CD703F}" name="jan/19" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{11DF066C-11FF-46AD-8273-DF5C1184E009}" name="fev/19" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{F1EEB0D4-B790-4806-B401-21F27653F513}" name="mar/19" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{2E710830-A122-4D91-8061-AA8E9F132D81}" name="abr/19" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{0D83F7E8-0932-4FB8-BE45-70C751E3F238}" name="mai/19" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{EFE02DBF-9402-4CAC-8CAE-7340881D8656}" name="jun/19" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{1FB48D66-EA59-46FD-9DD1-3913B71A7FD1}" name="jul/19" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{D6314FC0-C1E7-4CC5-996C-7E8208F405D2}" name="ago/19" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{91D3AC8B-7C3F-4DA5-B125-8317DBA4A3B8}" name="set/19" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{6DE6BD8C-BFFB-4E4F-9AF1-2731A8D59C83}" name="out/19" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{D7B0217D-3EF8-4AB3-B4BF-296501AE1EBE}" name="nov/19" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{07C9CB04-BF01-44DB-AD67-250B33AA4859}" name="dez/19" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{1537DFD4-60DA-474C-B63F-293CD28CB3B1}" name="jan/20" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{4DBE5627-4A71-47D0-AAF2-D1B12BAF712A}" name="fev/20" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{2BFEB904-CF72-4BD0-BCE2-4346B4A5F3FF}" name="mar/20" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{49981403-2311-4EDC-A627-030DA87F0E73}" name="abr/20" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{2112629F-90C6-430B-BCE3-1930526B23E3}" name="mai/20" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{384A64E4-291C-4333-9875-E4EB3F50639D}" name="jun/20" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{6466630A-2774-48B3-AE1C-E23185A2C63F}" name="jul/20" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{04EB2766-C373-4F11-A66C-737931FF9A74}" name="ago/20" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{CD061BAF-2CEF-4E3B-BA72-9A15A47DB6D9}" name="set/20" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C67A1C5-70D6-4184-BBF9-6AC776A5C264}" name="Tabela2" displayName="Tabela2" ref="B1:BF16" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="B1:BF16" xr:uid="{4892D81B-3103-4E1D-8234-612FB6156837}"/>
+  <tableColumns count="57">
+    <tableColumn id="1" xr3:uid="{5D0AF3A4-6E6B-4D02-B55A-A968DF4C2572}" name="Categorias" dataDxfId="58"/>
+    <tableColumn id="25" xr3:uid="{6AA4D8AB-E9C6-435A-852C-B89D9BAF5125}" name="jan/16" dataDxfId="57"/>
+    <tableColumn id="26" xr3:uid="{FD428DBE-045E-485D-8979-40D5D79DDEBE}" name="fev/16" dataDxfId="56"/>
+    <tableColumn id="29" xr3:uid="{876DDBB4-646C-4FC5-B6AC-F331EFED3B5E}" name="mar/16" dataDxfId="55"/>
+    <tableColumn id="30" xr3:uid="{1DFA8142-1D90-4D99-9185-4B49331A553C}" name="abr/16" dataDxfId="54"/>
+    <tableColumn id="31" xr3:uid="{0001CAB1-F41E-4EBC-99C5-BD5658C50F7D}" name="mai/16" dataDxfId="53"/>
+    <tableColumn id="32" xr3:uid="{19AA0B84-ABE9-42EE-AA0F-900CD0C08921}" name="jun/16" dataDxfId="52"/>
+    <tableColumn id="33" xr3:uid="{E1A0D487-22A4-4D8F-A8EC-B8783D91CACB}" name="jul/16" dataDxfId="51"/>
+    <tableColumn id="40" xr3:uid="{AC27CADB-6867-4385-9380-4A4517596413}" name="ago/16" dataDxfId="50"/>
+    <tableColumn id="39" xr3:uid="{6AA6B46D-A647-472F-8559-49551A803F6C}" name="set/16" dataDxfId="49"/>
+    <tableColumn id="41" xr3:uid="{D16DEDB6-D953-4086-818F-46750C375A80}" name="out/16" dataDxfId="48"/>
+    <tableColumn id="42" xr3:uid="{3D0BA16B-E758-44D0-A591-69EB34E06A44}" name="nov/16" dataDxfId="47"/>
+    <tableColumn id="43" xr3:uid="{DD7C48AE-8661-494F-910C-7EFD5F079E67}" name="dez/16" dataDxfId="46"/>
+    <tableColumn id="27" xr3:uid="{CC88617F-0F3B-41A2-B76E-225DFBAE76D4}" name="jan/17" dataDxfId="45"/>
+    <tableColumn id="28" xr3:uid="{8526B9D9-176F-4C74-A061-411CD63AE40C}" name="fev/17" dataDxfId="44"/>
+    <tableColumn id="34" xr3:uid="{B7EB215A-A816-434B-8A4A-C69934E7D478}" name="mar/17" dataDxfId="43"/>
+    <tableColumn id="35" xr3:uid="{AB023239-ADA5-45FB-BC8D-9997A26DE841}" name="abr/17" dataDxfId="42"/>
+    <tableColumn id="36" xr3:uid="{B8A780F2-173E-4E87-B96F-05A31F451373}" name="mai/17" dataDxfId="41"/>
+    <tableColumn id="37" xr3:uid="{E326DF01-F146-4017-A7B4-615192AFD833}" name="jun/17" dataDxfId="40"/>
+    <tableColumn id="38" xr3:uid="{3B30707B-EA31-44F7-BD54-F55F91489B8D}" name="jul/17" dataDxfId="39"/>
+    <tableColumn id="44" xr3:uid="{16D1E248-0183-43D5-A47E-746323F4D8E5}" name="ago/17" dataDxfId="38"/>
+    <tableColumn id="45" xr3:uid="{49E431B1-7AA2-4F97-A42F-4CAE9C5AFCBB}" name="set/17" dataDxfId="37"/>
+    <tableColumn id="46" xr3:uid="{C87440A1-61F6-401B-BC0B-5B27C7AD4DDD}" name="out/17" dataDxfId="36"/>
+    <tableColumn id="47" xr3:uid="{A05081D0-3683-43C0-B125-9D2866E73B9F}" name="nov/17" dataDxfId="35"/>
+    <tableColumn id="48" xr3:uid="{AD01059B-ECA6-4CF9-BAFF-6FC7BE79BE07}" name="dez/17" dataDxfId="34"/>
+    <tableColumn id="49" xr3:uid="{28CC479A-C432-4809-B681-B61AB21A6CF0}" name="jan/18" dataDxfId="33"/>
+    <tableColumn id="50" xr3:uid="{825F9B51-898E-4E1B-9642-57872F2376FE}" name="fev/18" dataDxfId="32"/>
+    <tableColumn id="51" xr3:uid="{375FD0A1-4891-4718-96FA-8C4311156A1F}" name="mar/18" dataDxfId="31"/>
+    <tableColumn id="52" xr3:uid="{3423FD2D-FD8A-4ADA-8375-CC846256947E}" name="abr/18" dataDxfId="30"/>
+    <tableColumn id="53" xr3:uid="{61A3FB2F-7370-4B2E-8992-FD5914CCA439}" name="mai/18" dataDxfId="29"/>
+    <tableColumn id="54" xr3:uid="{0F312C47-9143-4B66-8BE8-A563D2E5F10E}" name="jun/18" dataDxfId="28"/>
+    <tableColumn id="24" xr3:uid="{DB901FBD-0CB2-4272-863B-1C94C335798A}" name="dez/18" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{D74F9E92-F447-48F0-9B4F-F54230CD703F}" name="jan/19" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{11DF066C-11FF-46AD-8273-DF5C1184E009}" name="fev/19" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{F1EEB0D4-B790-4806-B401-21F27653F513}" name="mar/19" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{2E710830-A122-4D91-8061-AA8E9F132D81}" name="abr/19" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{0D83F7E8-0932-4FB8-BE45-70C751E3F238}" name="mai/19" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{EFE02DBF-9402-4CAC-8CAE-7340881D8656}" name="jun/19" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{1FB48D66-EA59-46FD-9DD1-3913B71A7FD1}" name="jul/19" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{D6314FC0-C1E7-4CC5-996C-7E8208F405D2}" name="ago/19" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{91D3AC8B-7C3F-4DA5-B125-8317DBA4A3B8}" name="set/19" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{6DE6BD8C-BFFB-4E4F-9AF1-2731A8D59C83}" name="out/19" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{D7B0217D-3EF8-4AB3-B4BF-296501AE1EBE}" name="nov/19" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{07C9CB04-BF01-44DB-AD67-250B33AA4859}" name="dez/19" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{1537DFD4-60DA-474C-B63F-293CD28CB3B1}" name="jan/20" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{4DBE5627-4A71-47D0-AAF2-D1B12BAF712A}" name="fev/20" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{2BFEB904-CF72-4BD0-BCE2-4346B4A5F3FF}" name="mar/20" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{49981403-2311-4EDC-A627-030DA87F0E73}" name="abr/20" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{2112629F-90C6-430B-BCE3-1930526B23E3}" name="mai/20" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{384A64E4-291C-4333-9875-E4EB3F50639D}" name="jun/20" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{6466630A-2774-48B3-AE1C-E23185A2C63F}" name="jul/20" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{04EB2766-C373-4F11-A66C-737931FF9A74}" name="ago/20" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{CD061BAF-2CEF-4E3B-BA72-9A15A47DB6D9}" name="set/20" dataDxfId="6"/>
+    <tableColumn id="55" xr3:uid="{E4DA3FF3-9DC4-40C3-AD57-FAD555366BA6}" name="out/20" dataDxfId="5"/>
+    <tableColumn id="56" xr3:uid="{6C59D3B7-6CB4-456C-B850-BA1A267E2FF4}" name="nov/20" dataDxfId="4"/>
+    <tableColumn id="57" xr3:uid="{FBD14E99-2987-40D3-BB48-506DD4860BD5}" name="dez/20" dataDxfId="3"/>
     <tableColumn id="23" xr3:uid="{BBA7275E-0B28-43B7-B87E-5D8B25663D00}" name="Total Por Categoria" dataDxfId="2">
       <calculatedColumnFormula>SUM(AH2:BB2)</calculatedColumnFormula>
     </tableColumn>
@@ -16771,9 +17378,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6316ABC0-BE72-4927-A0CC-92D47D1828C1}" name="Tabela1" displayName="Tabela1" ref="B1:AB11" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B1:AB11" xr:uid="{30E7AF0C-2406-4D8E-8F3C-2F5CF15E1A76}"/>
-  <tableColumns count="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6316ABC0-BE72-4927-A0CC-92D47D1828C1}" name="Tabela1" displayName="Tabela1" ref="B1:AC12" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B1:AC12" xr:uid="{30E7AF0C-2406-4D8E-8F3C-2F5CF15E1A76}"/>
+  <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{467A26DC-BF8E-430A-BC69-1ACF5B4E0BF0}" name="Tipo"/>
     <tableColumn id="12" xr3:uid="{8C517F2A-D45F-4C0E-994A-8DDC63AAF31E}" name="fev/18"/>
     <tableColumn id="13" xr3:uid="{4B846A75-FD83-4889-897B-E37DD8772C64}" name="mar/18"/>
@@ -16801,6 +17408,7 @@
     <tableColumn id="25" xr3:uid="{969E7C9C-B0BB-454B-B1F3-724C9659F7EB}" name="jul/21"/>
     <tableColumn id="26" xr3:uid="{F4FB3404-A2A3-44B0-9680-EF3ECBF01F28}" name="ago/20"/>
     <tableColumn id="27" xr3:uid="{CCF120B6-69F1-46AC-9C35-5D7F6ECE2413}" name="set/20"/>
+    <tableColumn id="28" xr3:uid="{0EF714F9-1025-47DC-9E0E-F21D1A3B302F}" name="out/20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17103,11 +17711,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46DB15E-EF82-4401-9F39-DDD2BE1C7027}">
-  <dimension ref="B1:BC17"/>
+  <dimension ref="B1:BF17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6492" topLeftCell="AP1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="BD40" sqref="BD40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="8700" topLeftCell="AR1"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="topRight" activeCell="BC2" sqref="AT2:BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17119,10 +17728,10 @@
     <col min="44" max="44" width="9.33203125" customWidth="1"/>
     <col min="48" max="48" width="9.44140625" customWidth="1"/>
     <col min="50" max="50" width="9.33203125" customWidth="1"/>
-    <col min="55" max="55" width="19.88671875" customWidth="1"/>
+    <col min="58" max="58" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -17282,11 +17891,20 @@
       <c r="BB1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -17447,11 +18065,16 @@
         <v>5292.4</v>
       </c>
       <c r="BC2" s="3">
+        <v>11269.21</v>
+      </c>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3">
         <f>SUM(AH2:BB2)</f>
         <v>148229.57999999996</v>
       </c>
     </row>
-    <row r="3" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -17612,11 +18235,16 @@
         <v>167.05</v>
       </c>
       <c r="BC3" s="3">
-        <f t="shared" ref="BC3:BC15" si="0">SUM(AH3:BB3)</f>
+        <v>195.15</v>
+      </c>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3">
+        <f t="shared" ref="BF3:BF15" si="0">SUM(AH3:BB3)</f>
         <v>5079.9100000000017</v>
       </c>
     </row>
-    <row r="4" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -17777,11 +18405,16 @@
         <v>1866.16</v>
       </c>
       <c r="BC4" s="3">
-        <f t="shared" ref="BC4:BC12" si="1">SUM(AH4:BB4)</f>
+        <v>1733.97</v>
+      </c>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3">
+        <f t="shared" ref="BF4:BF12" si="1">SUM(AH4:BB4)</f>
         <v>22738.489999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -17922,11 +18555,16 @@
         <v>0</v>
       </c>
       <c r="BC5" s="3">
+        <v>301.8</v>
+      </c>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3">
         <f t="shared" si="1"/>
         <v>14341.15</v>
       </c>
     </row>
-    <row r="6" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
@@ -18073,11 +18711,16 @@
         <v>1926.42</v>
       </c>
       <c r="BC6" s="3">
+        <v>2135.2199999999998</v>
+      </c>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3">
         <f>SUM(AH6:BB6)</f>
         <v>45314.200000000004</v>
       </c>
     </row>
-    <row r="7" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -18178,11 +18821,16 @@
         <v>2521.5300000000002</v>
       </c>
       <c r="BC7" s="3">
+        <v>2552.8200000000002</v>
+      </c>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3">
         <f>SUM(AH7:BB7)</f>
         <v>45644.499999999993</v>
       </c>
     </row>
-    <row r="8" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -18333,11 +18981,16 @@
         <v>1044.94</v>
       </c>
       <c r="BC8" s="3">
+        <v>1398.2</v>
+      </c>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3">
         <f>SUM(AH8:BB8)</f>
         <v>35592.270000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
@@ -18492,11 +19145,16 @@
         <v>58.41</v>
       </c>
       <c r="BC9" s="3">
+        <v>-65.69</v>
+      </c>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3">
         <f>SUM(AH9:BB9)</f>
         <v>2558.83</v>
       </c>
     </row>
-    <row r="10" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -18639,11 +19297,16 @@
         <v>355.78</v>
       </c>
       <c r="BC10" s="3">
+        <v>356.78</v>
+      </c>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3">
         <f t="shared" si="1"/>
         <v>10739.790000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -18797,12 +19460,17 @@
       <c r="BB11" s="3">
         <v>598.38</v>
       </c>
-      <c r="BC11" s="3">
+      <c r="BC11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3">
         <f t="shared" si="1"/>
         <v>10640.230000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -18949,11 +19617,16 @@
         <v>1549</v>
       </c>
       <c r="BC12" s="3">
+        <v>3997.6</v>
+      </c>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3">
         <f t="shared" si="1"/>
         <v>31695.85</v>
       </c>
     </row>
-    <row r="13" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
@@ -19064,11 +19737,16 @@
         <v>561.79</v>
       </c>
       <c r="BC13" s="3">
+        <v>112</v>
+      </c>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3">
         <f t="shared" si="0"/>
         <v>6527.6099999999988</v>
       </c>
     </row>
-    <row r="14" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -19165,11 +19843,16 @@
       <c r="BA14" s="3"/>
       <c r="BB14" s="3"/>
       <c r="BC14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3">
         <f t="shared" si="0"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
@@ -19270,11 +19953,16 @@
         <v>398.76</v>
       </c>
       <c r="BC15" s="3">
+        <v>987.95</v>
+      </c>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3">
         <f t="shared" si="0"/>
         <v>3743.33</v>
       </c>
     </row>
-    <row r="16" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>92</v>
       </c>
@@ -19355,11 +20043,16 @@
         <v>0</v>
       </c>
       <c r="BC16" s="3">
+        <v>252</v>
+      </c>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3">
         <f>SUM(AH16:BB16)</f>
         <v>17905</v>
       </c>
     </row>
-    <row r="17" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
@@ -19407,7 +20100,7 @@
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
       <c r="AH17">
-        <f t="shared" ref="AH17:BC17" si="2">SUM(AH2:AH15)</f>
+        <f t="shared" ref="AH17:BF17" si="2">SUM(AH2:AH15)</f>
         <v>15686.099999999997</v>
       </c>
       <c r="AI17">
@@ -19490,7 +20183,7 @@
         <f t="shared" si="2"/>
         <v>16340.62</v>
       </c>
-      <c r="BC17">
+      <c r="BF17">
         <f t="shared" si="2"/>
         <v>384895.73999999993</v>
       </c>
@@ -19510,8 +20203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587D5975-859A-4819-9F16-44D4AEFBAAF5}">
   <dimension ref="A2:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20154,7 +20847,7 @@
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20325,11 +21018,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F060317C-C80B-4AD8-8076-0562414FEA70}">
-  <dimension ref="B1:AB11"/>
+  <dimension ref="B1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7248" topLeftCell="R1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="AF8" sqref="AF8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="8508" topLeftCell="Q1" activePane="topRight"/>
+      <selection activeCell="A13" sqref="A13"/>
+      <selection pane="topRight" activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20345,7 +21039,7 @@
     <col min="27" max="27" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -20427,10 +21121,13 @@
       <c r="AB1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>5063</v>
@@ -20502,18 +21199,21 @@
         <v>8195.06</v>
       </c>
       <c r="Z2">
-        <v>6491.53</v>
+        <v>14508.89</v>
       </c>
       <c r="AA2">
-        <v>4841.3599999999997</v>
+        <v>13236.93</v>
       </c>
       <c r="AB2">
-        <v>5849</v>
+        <v>7215.64</v>
+      </c>
+      <c r="AC2">
+        <v>50788.87</v>
       </c>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>3702.28</v>
@@ -20585,389 +21285,435 @@
         <v>8139.41</v>
       </c>
       <c r="Z3">
-        <v>5361.79</v>
+        <v>10679.9</v>
       </c>
       <c r="AA3">
-        <v>6715.66</v>
+        <v>12108.47</v>
       </c>
       <c r="AB3">
-        <v>5677.21</v>
+        <v>8614.7000000000007</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="Z4">
+        <v>25188.79</v>
+      </c>
+      <c r="AA4">
+        <v>25345.4</v>
+      </c>
+      <c r="AB4">
+        <v>15830.34</v>
+      </c>
+      <c r="AC4">
+        <v>108738.96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1360.77</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>-398.42</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>-1016.24</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>619.04999999999995</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>789.37</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>-1654.18</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>-580.24</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>1402.32</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>3044.2</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>-3936.49</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>-517.28</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>168.35</v>
       </c>
-      <c r="O4">
+      <c r="O5">
         <v>179.53</v>
       </c>
-      <c r="P4">
+      <c r="P5">
         <v>-607.65</v>
       </c>
-      <c r="Q4">
+      <c r="Q5">
         <v>22.22</v>
       </c>
-      <c r="R4">
+      <c r="R5">
         <v>2247.08</v>
       </c>
-      <c r="S4">
+      <c r="S5">
         <v>1203.82</v>
       </c>
-      <c r="T4">
+      <c r="T5">
         <v>-3601.64</v>
       </c>
-      <c r="U4">
+      <c r="U5">
         <v>1198.43</v>
       </c>
-      <c r="V4">
+      <c r="V5">
         <v>-693.99</v>
       </c>
-      <c r="W4">
+      <c r="W5">
         <v>906.93</v>
       </c>
-      <c r="X4">
+      <c r="X5">
         <v>43.62</v>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <v>55.65</v>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <v>1129.74</v>
       </c>
-      <c r="AA4">
+      <c r="AA5">
         <v>-1874.3</v>
       </c>
-      <c r="AB4">
+      <c r="AB5">
         <v>171.79</v>
       </c>
+      <c r="AC5">
+        <v>-198.48</v>
+      </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>101</v>
       </c>
-      <c r="T5">
+      <c r="T6">
         <v>-72.81</v>
       </c>
-      <c r="U5">
+      <c r="U6">
         <v>31.32</v>
       </c>
-      <c r="V5">
+      <c r="V6">
         <v>-21</v>
       </c>
-      <c r="W5">
+      <c r="W6">
         <v>225.76</v>
       </c>
-      <c r="X5">
+      <c r="X6">
         <v>-72.47</v>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <v>-25.79</v>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <v>99.25</v>
       </c>
-      <c r="AA5">
+      <c r="AA6">
         <v>52.76</v>
       </c>
-      <c r="AB5">
+      <c r="AB6">
         <v>-1645.09</v>
       </c>
+      <c r="AC6">
+        <v>1457.27</v>
+      </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>102</v>
       </c>
-      <c r="T6">
+      <c r="T7">
         <v>200</v>
       </c>
-      <c r="U6">
+      <c r="U7">
         <v>-602.6</v>
       </c>
-      <c r="V6">
+      <c r="V7">
         <v>-187.98</v>
       </c>
-      <c r="W6">
+      <c r="W7">
         <v>3000</v>
       </c>
-      <c r="X6">
+      <c r="X7">
         <v>1000</v>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <v>-1000</v>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <v>2600</v>
       </c>
-      <c r="AA6">
+      <c r="AA7">
         <v>2950</v>
       </c>
-      <c r="AB6">
+      <c r="AB7">
         <v>74.239999999999995</v>
       </c>
+      <c r="AC7">
+        <v>-8421.01</v>
+      </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>103</v>
       </c>
-      <c r="T7">
-        <f t="shared" ref="T7:AB7" si="0">SUM(T4:T6)</f>
+      <c r="T8">
+        <f t="shared" ref="T8:AB8" si="0">SUM(T5:T7)</f>
         <v>-3474.45</v>
       </c>
-      <c r="U7">
+      <c r="U8">
         <f t="shared" si="0"/>
         <v>627.15</v>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f t="shared" si="0"/>
         <v>-902.97</v>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f t="shared" si="0"/>
         <v>4132.6900000000005</v>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f t="shared" si="0"/>
         <v>971.15</v>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f t="shared" si="0"/>
         <v>-970.14</v>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f t="shared" si="0"/>
         <v>3828.99</v>
       </c>
-      <c r="AA7">
+      <c r="AA8">
         <f t="shared" si="0"/>
         <v>1128.46</v>
       </c>
-      <c r="AB7">
+      <c r="AB8">
         <f t="shared" si="0"/>
         <v>-1399.06</v>
       </c>
+      <c r="AC8">
+        <v>7162.22</v>
+      </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>93</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1904.82</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>186.95</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>-829.29</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>-210.24</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>579.13</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>-36.33</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>-616.57000000000005</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>785.75</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>3829.95</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>-106.54</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>-623.82000000000005</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>-455.47</v>
       </c>
-      <c r="O8">
+      <c r="O9">
         <v>-275.94</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <v>-883.59</v>
       </c>
-      <c r="Q8">
+      <c r="Q9">
         <v>-861.37</v>
       </c>
-      <c r="R8">
+      <c r="R9">
         <v>1385.71</v>
       </c>
-      <c r="S8">
+      <c r="S9">
         <v>2589.5300000000002</v>
       </c>
-      <c r="T8">
+      <c r="T9">
         <v>-1062.1099999999999</v>
       </c>
-      <c r="U8">
+      <c r="U9">
         <v>186.32</v>
       </c>
-      <c r="V8">
+      <c r="V9">
         <v>-507.67</v>
       </c>
-      <c r="W8">
+      <c r="W9">
         <v>399.26</v>
       </c>
-      <c r="X8">
+      <c r="X9">
         <v>442.88</v>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <v>498.53</v>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <v>1628.27</v>
       </c>
-      <c r="AA8">
+      <c r="AA9">
         <v>-246.03</v>
       </c>
-      <c r="AB8">
+      <c r="AB9">
         <v>-74.239999999999995</v>
       </c>
+      <c r="AC9">
+        <v>-272.72000000000003</v>
+      </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>95</v>
       </c>
-      <c r="T9">
+      <c r="T10">
         <v>62.23</v>
       </c>
-      <c r="U9">
+      <c r="U10">
         <v>93.55</v>
       </c>
-      <c r="V9">
+      <c r="V10">
         <v>72.55</v>
       </c>
-      <c r="W9">
+      <c r="W10">
         <v>298.31</v>
       </c>
-      <c r="X9">
+      <c r="X10">
         <v>225.84</v>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <v>200.05</v>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <v>299.3</v>
       </c>
-      <c r="AA9">
+      <c r="AA10">
         <v>352.06</v>
       </c>
-      <c r="AB9">
+      <c r="AB10">
         <v>-1293.03</v>
       </c>
+      <c r="AC10">
+        <v>164.24</v>
+      </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>96</v>
       </c>
-      <c r="T10">
+      <c r="T11">
         <v>600</v>
       </c>
-      <c r="U10">
+      <c r="U11">
         <v>0</v>
       </c>
-      <c r="V10">
+      <c r="V11">
         <v>0</v>
       </c>
-      <c r="W10">
+      <c r="W11">
         <v>3000</v>
       </c>
-      <c r="X10">
+      <c r="X11">
         <v>4000</v>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <v>3000</v>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <v>5600</v>
       </c>
-      <c r="AA10">
+      <c r="AA11">
         <v>8550</v>
       </c>
-      <c r="AB10">
+      <c r="AB11">
         <v>8624.24</v>
       </c>
+      <c r="AC11">
+        <v>203.23</v>
+      </c>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>94</v>
       </c>
-      <c r="T11">
-        <f t="shared" ref="T11:V11" si="1">SUM(T8:T10)</f>
+      <c r="T12">
+        <f t="shared" ref="T12:V12" si="1">SUM(T9:T11)</f>
         <v>-399.87999999999988</v>
       </c>
-      <c r="U11">
+      <c r="U12">
         <f t="shared" si="1"/>
         <v>279.87</v>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f t="shared" si="1"/>
         <v>-435.12</v>
       </c>
-      <c r="W11">
-        <f>SUM(W8:W10)</f>
+      <c r="W12">
+        <f>SUM(W9:W11)</f>
         <v>3697.5699999999997</v>
       </c>
-      <c r="X11">
-        <f>SUM(X8:X10)</f>
+      <c r="X12">
+        <f>SUM(X9:X11)</f>
         <v>4668.72</v>
       </c>
-      <c r="Y11">
-        <f t="shared" ref="Y11:AA11" si="2">SUM(Y8:Y10)</f>
+      <c r="Y12">
+        <f t="shared" ref="Y12:AA12" si="2">SUM(Y9:Y11)</f>
         <v>3698.58</v>
       </c>
-      <c r="Z11">
-        <f>SUM(Z8:Z10)</f>
+      <c r="Z12">
+        <f>SUM(Z9:Z11)</f>
         <v>7527.57</v>
       </c>
-      <c r="AA11">
+      <c r="AA12">
         <f t="shared" si="2"/>
         <v>8656.0300000000007</v>
       </c>
-      <c r="AB11">
-        <f>SUM(AB8:AB10)</f>
+      <c r="AB12">
+        <f>SUM(AB9:AB11)</f>
         <v>7256.9699999999993</v>
+      </c>
+      <c r="AC12">
+        <v>94.75</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos/Geral_Relatorio.xlsx
+++ b/Arquivos/Geral_Relatorio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Xampp\htdocs\Testes\Controle_Financeiro\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF6029C-05A1-434F-94C1-37AD73154F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001CFD43-C255-4D3E-BE6B-76F5C403ACF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4248" yWindow="3480" windowWidth="13836" windowHeight="7176" tabRatio="900" xr2:uid="{0BF9C393-210A-48CF-A8E1-590D0E6A75CB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" activeTab="3" xr2:uid="{0BF9C393-210A-48CF-A8E1-590D0E6A75CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Categoria" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="112">
   <si>
     <t>Salario</t>
   </si>
@@ -370,6 +370,9 @@
   <si>
     <t>57,951,09</t>
   </si>
+  <si>
+    <t>24,931,92</t>
+  </si>
 </sst>
 </file>
 
@@ -565,7 +568,1033 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="118">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="22" formatCode="mmm/yy"/>
     </dxf>
@@ -1614,9 +2643,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$BC$1</c:f>
+              <c:f>Categoria!$C$1:$BD$1</c:f>
               <c:strCache>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -1775,16 +2804,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$2:$BC$2</c:f>
+              <c:f>Categoria!$C$2:$BD$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1967.72</c:v>
                 </c:pt>
@@ -1943,6 +2975,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>11269.21</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5063.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,9 +3019,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$BC$1</c:f>
+              <c:f>Categoria!$C$1:$BD$1</c:f>
               <c:strCache>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -2145,16 +3180,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$3:$BC$3</c:f>
+              <c:f>Categoria!$C$3:$BD$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>35.9</c:v>
                 </c:pt>
@@ -2313,6 +3351,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>195.15</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>206.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2352,9 +3393,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$BC$1</c:f>
+              <c:f>Categoria!$C$1:$BD$1</c:f>
               <c:strCache>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -2513,16 +3554,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$4:$BC$4</c:f>
+              <c:f>Categoria!$C$4:$BD$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>343.47</c:v>
                 </c:pt>
@@ -2681,6 +3725,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1733.97</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1158.0999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2720,9 +3767,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$BC$1</c:f>
+              <c:f>Categoria!$C$1:$BD$1</c:f>
               <c:strCache>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -2881,16 +3928,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$6:$BC$6</c:f>
+              <c:f>Categoria!$C$6:$BD$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="7">
                   <c:v>380.06</c:v>
                 </c:pt>
@@ -3028,6 +4078,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>2135.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2766.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3067,9 +4120,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$BC$1</c:f>
+              <c:f>Categoria!$C$1:$BD$1</c:f>
               <c:strCache>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -3228,16 +4281,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$7:$BC$7</c:f>
+              <c:f>Categoria!$C$7:$BD$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="30">
                   <c:v>650</c:v>
                 </c:pt>
@@ -3306,6 +4362,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>2552.8200000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2595.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3347,9 +4406,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$BC$1</c:f>
+              <c:f>Categoria!$C$1:$BD$1</c:f>
               <c:strCache>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -3508,16 +4567,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$8:$BC$8</c:f>
+              <c:f>Categoria!$C$8:$BD$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="1">
                   <c:v>77.099999999999994</c:v>
                 </c:pt>
@@ -3661,6 +4723,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1398.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1593.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3700,9 +4765,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Categoria!$C$1:$BC$1</c:f>
+              <c:f>Categoria!$C$1:$BD$1</c:f>
               <c:strCache>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>jan/16</c:v>
                 </c:pt>
@@ -3861,16 +4926,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Categoria!$C$16:$BC$16</c:f>
+              <c:f>Categoria!$C$16:$BD$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3909,6 +4977,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>595.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3986,12 +5057,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4150,6 +5221,9 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4159,13 +5233,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$5:$BC$5</c15:sqref>
+                          <c15:sqref>Categoria!$C$5:$BD$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>41.4</c:v>
                       </c:pt>
@@ -4294,6 +5368,9 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>301.8</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>7000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4312,7 +5389,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$9</c15:sqref>
@@ -4343,15 +5420,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4510,22 +5587,25 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$9:$BC$9</c15:sqref>
+                          <c15:sqref>Categoria!$C$9:$BD$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>6</c:v>
                       </c:pt>
@@ -4675,6 +5755,9 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>-65.69</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>67.739999999999995</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4693,7 +5776,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$10</c15:sqref>
@@ -4724,15 +5807,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -4891,22 +5974,25 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$10:$BC$10</c15:sqref>
+                          <c15:sqref>Categoria!$C$10:$BD$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>101.25</c:v>
                       </c:pt>
@@ -5038,6 +6124,9 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>356.78</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>356.87</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5056,7 +6145,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$11</c15:sqref>
@@ -5087,15 +6176,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -5254,22 +6343,25 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$11:$BC$11</c15:sqref>
+                          <c15:sqref>Categoria!$C$11:$BD$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>90</c:v>
                       </c:pt>
@@ -5419,6 +6511,9 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>1287.8399999999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5437,7 +6532,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$12</c15:sqref>
@@ -5466,15 +6561,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -5633,22 +6728,25 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$12:$BC$12</c15:sqref>
+                          <c15:sqref>Categoria!$C$12:$BD$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>286.60000000000002</c:v>
                       </c:pt>
@@ -5786,6 +6884,9 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>3997.6</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>1072</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5804,7 +6905,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$13</c15:sqref>
@@ -5835,15 +6936,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -6002,22 +7103,25 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$13:$BC$13</c15:sqref>
+                          <c15:sqref>Categoria!$C$13:$BD$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>500</c:v>
                       </c:pt>
@@ -6101,6 +7205,9 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>233</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6119,7 +7226,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$14</c15:sqref>
@@ -6151,15 +7258,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -6318,22 +7425,25 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$14:$BC$14</c15:sqref>
+                          <c15:sqref>Categoria!$C$14:$BD$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="1">
                         <c:v>1247.1500000000001</c:v>
                       </c:pt>
@@ -6396,6 +7506,9 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>7000</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>30000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6414,7 +7527,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Categoria!$B$15</c15:sqref>
@@ -6446,15 +7559,15 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$1:$BC$1</c15:sqref>
+                          <c15:sqref>Categoria!$C$1:$BD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>jan/16</c:v>
                       </c:pt>
@@ -6613,22 +7726,25 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Categoria!$C$15:$BC$15</c15:sqref>
+                          <c15:sqref>Categoria!$C$15:$BD$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="7">
                         <c:v>300</c:v>
                       </c:pt>
@@ -6697,6 +7813,9 @@
                       </c:pt>
                       <c:pt idx="52">
                         <c:v>987.95</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>8974.7199999999993</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -8846,9 +9965,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$AC$1</c:f>
+              <c:f>Geral!$C$1:$AD$1</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -8929,16 +10048,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$9:$AC$9</c:f>
+              <c:f>Geral!$C$9:$AD$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1904.82</c:v>
                 </c:pt>
@@ -9019,6 +10141,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-272.72000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1124.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9058,9 +10183,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$AC$1</c:f>
+              <c:f>Geral!$C$1:$AD$1</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -9141,16 +10266,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$10:$AC$10</c:f>
+              <c:f>Geral!$C$10:$AD$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="17">
                   <c:v>62.23</c:v>
                 </c:pt>
@@ -9180,6 +10308,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>164.24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>469.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9219,9 +10350,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$AC$1</c:f>
+              <c:f>Geral!$C$1:$AD$1</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -9302,16 +10433,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$11:$AC$11</c:f>
+              <c:f>Geral!$C$11:$AD$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="17">
                   <c:v>600</c:v>
                 </c:pt>
@@ -9341,6 +10475,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>203.23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11203.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9380,9 +10517,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$AC$1</c:f>
+              <c:f>Geral!$C$1:$AD$1</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -9463,16 +10600,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$12:$AC$12</c:f>
+              <c:f>Geral!$C$12:$AD$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="17">
                   <c:v>-399.87999999999988</c:v>
                 </c:pt>
@@ -9502,6 +10642,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>94.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12798.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9577,12 +10720,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -9663,6 +10806,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9672,13 +10818,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$2:$AC$2</c15:sqref>
+                          <c15:sqref>Geral!$C$2:$AD$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>5063</c:v>
                       </c:pt>
@@ -9759,6 +10905,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>50788.87</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>37635.39</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9809,12 +10958,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -9895,6 +11044,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9904,13 +11056,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$3:$AC$3</c15:sqref>
+                          <c15:sqref>Geral!$C$3:$AD$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>3702.28</c:v>
                       </c:pt>
@@ -9990,6 +11142,9 @@
                         <c:v>8614.7000000000007</c:v>
                       </c:pt>
                       <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -10041,12 +11196,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -10127,6 +11282,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10136,13 +11294,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$4:$AC$4</c15:sqref>
+                          <c15:sqref>Geral!$C$4:$AD$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="23">
                         <c:v>25188.79</c:v>
                       </c:pt>
@@ -10154,6 +11312,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>108738.96</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>62567.31</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10204,12 +11365,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -10290,6 +11451,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10299,13 +11463,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$5:$AC$5</c15:sqref>
+                          <c15:sqref>Geral!$C$5:$AD$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>1360.77</c:v>
                       </c:pt>
@@ -10386,6 +11550,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>-198.48</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1398.69</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10436,12 +11603,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -10522,6 +11689,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10531,13 +11701,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$6:$AC$6</c15:sqref>
+                          <c15:sqref>Geral!$C$6:$AD$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="17">
                         <c:v>-72.81</c:v>
                       </c:pt>
@@ -10567,6 +11737,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>1457.27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>304.77999999999997</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10617,12 +11790,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -10703,6 +11876,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10712,13 +11888,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$7:$AC$7</c15:sqref>
+                          <c15:sqref>Geral!$C$7:$AD$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="17">
                         <c:v>200</c:v>
                       </c:pt>
@@ -10748,6 +11924,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>-8421.01</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>11000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -10800,12 +11979,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -10886,6 +12065,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -10895,13 +12077,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$8:$AC$8</c15:sqref>
+                          <c15:sqref>Geral!$C$8:$AD$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="17">
                         <c:v>-3474.45</c:v>
                       </c:pt>
@@ -10931,6 +12113,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>7162.22</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>12703.47</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11250,9 +12435,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$AC$1</c:f>
+              <c:f>Geral!$C$1:$AD$1</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -11333,16 +12518,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$5:$AC$5</c:f>
+              <c:f>Geral!$C$5:$AD$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1360.77</c:v>
                 </c:pt>
@@ -11423,6 +12611,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-198.48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1398.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11462,9 +12653,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$AC$1</c:f>
+              <c:f>Geral!$C$1:$AD$1</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -11545,16 +12736,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$6:$AC$6</c:f>
+              <c:f>Geral!$C$6:$AD$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="17">
                   <c:v>-72.81</c:v>
                 </c:pt>
@@ -11584,6 +12778,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1457.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>304.77999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11623,9 +12820,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$AC$1</c:f>
+              <c:f>Geral!$C$1:$AD$1</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -11706,16 +12903,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$7:$AC$7</c:f>
+              <c:f>Geral!$C$7:$AD$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="17">
                   <c:v>200</c:v>
                 </c:pt>
@@ -11745,6 +12945,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-8421.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11784,9 +12987,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Geral!$C$1:$AC$1</c:f>
+              <c:f>Geral!$C$1:$AD$1</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>fev/18</c:v>
                 </c:pt>
@@ -11867,16 +13070,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>out/20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>nov/20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geral!$C$8:$AC$8</c:f>
+              <c:f>Geral!$C$8:$AD$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="17">
                   <c:v>-3474.45</c:v>
                 </c:pt>
@@ -11906,6 +13112,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>7162.22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12703.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11981,12 +13190,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -12067,6 +13276,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12076,13 +13288,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$2:$AC$2</c15:sqref>
+                          <c15:sqref>Geral!$C$2:$AD$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>5063</c:v>
                       </c:pt>
@@ -12163,6 +13375,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>50788.87</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>37635.39</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12213,12 +13428,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -12299,6 +13514,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12308,13 +13526,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$3:$AC$3</c15:sqref>
+                          <c15:sqref>Geral!$C$3:$AD$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>3702.28</c:v>
                       </c:pt>
@@ -12394,6 +13612,9 @@
                         <c:v>8614.7000000000007</c:v>
                       </c:pt>
                       <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -12445,12 +13666,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -12531,6 +13752,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12540,13 +13764,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$4:$AC$4</c15:sqref>
+                          <c15:sqref>Geral!$C$4:$AD$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="23">
                         <c:v>25188.79</c:v>
                       </c:pt>
@@ -12558,6 +13782,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>108738.96</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>62567.31</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12608,12 +13835,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -12694,6 +13921,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12703,13 +13933,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$9:$AC$9</c15:sqref>
+                          <c15:sqref>Geral!$C$9:$AD$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>1904.82</c:v>
                       </c:pt>
@@ -12790,6 +14020,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>-272.72000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1124.97</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12840,12 +14073,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -12926,6 +14159,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -12935,13 +14171,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$10:$AC$10</c15:sqref>
+                          <c15:sqref>Geral!$C$10:$AD$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="17">
                         <c:v>62.23</c:v>
                       </c:pt>
@@ -12971,6 +14207,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>164.24</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>469.02</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13021,12 +14260,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -13107,6 +14346,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -13116,13 +14358,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$11:$AC$11</c15:sqref>
+                          <c15:sqref>Geral!$C$11:$AD$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="17">
                         <c:v>600</c:v>
                       </c:pt>
@@ -13152,6 +14394,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>203.23</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>11203.23</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13202,12 +14447,12 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$1:$AC$1</c15:sqref>
+                          <c15:sqref>Geral!$C$1:$AD$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="0">
                         <c:v>fev/18</c:v>
                       </c:pt>
@@ -13288,6 +14533,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>out/20</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>nov/20</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -13297,13 +14545,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Geral!$C$12:$AC$12</c15:sqref>
+                          <c15:sqref>Geral!$C$12:$AD$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="27"/>
+                      <c:ptCount val="28"/>
                       <c:pt idx="17">
                         <c:v>-399.87999999999988</c:v>
                       </c:pt>
@@ -13333,6 +14581,9 @@
                       </c:pt>
                       <c:pt idx="26">
                         <c:v>94.75</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>12798.22</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -17063,13 +18314,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>46671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17296,66 +18547,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C67A1C5-70D6-4184-BBF9-6AC776A5C264}" name="Tabela2" displayName="Tabela2" ref="B1:BF16" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5C67A1C5-70D6-4184-BBF9-6AC776A5C264}" name="Tabela2" displayName="Tabela2" ref="B1:BF17" totalsRowCount="1" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="B1:BF16" xr:uid="{4892D81B-3103-4E1D-8234-612FB6156837}"/>
   <tableColumns count="57">
-    <tableColumn id="1" xr3:uid="{5D0AF3A4-6E6B-4D02-B55A-A968DF4C2572}" name="Categorias" dataDxfId="58"/>
-    <tableColumn id="25" xr3:uid="{6AA4D8AB-E9C6-435A-852C-B89D9BAF5125}" name="jan/16" dataDxfId="57"/>
-    <tableColumn id="26" xr3:uid="{FD428DBE-045E-485D-8979-40D5D79DDEBE}" name="fev/16" dataDxfId="56"/>
-    <tableColumn id="29" xr3:uid="{876DDBB4-646C-4FC5-B6AC-F331EFED3B5E}" name="mar/16" dataDxfId="55"/>
-    <tableColumn id="30" xr3:uid="{1DFA8142-1D90-4D99-9185-4B49331A553C}" name="abr/16" dataDxfId="54"/>
-    <tableColumn id="31" xr3:uid="{0001CAB1-F41E-4EBC-99C5-BD5658C50F7D}" name="mai/16" dataDxfId="53"/>
-    <tableColumn id="32" xr3:uid="{19AA0B84-ABE9-42EE-AA0F-900CD0C08921}" name="jun/16" dataDxfId="52"/>
-    <tableColumn id="33" xr3:uid="{E1A0D487-22A4-4D8F-A8EC-B8783D91CACB}" name="jul/16" dataDxfId="51"/>
-    <tableColumn id="40" xr3:uid="{AC27CADB-6867-4385-9380-4A4517596413}" name="ago/16" dataDxfId="50"/>
-    <tableColumn id="39" xr3:uid="{6AA6B46D-A647-472F-8559-49551A803F6C}" name="set/16" dataDxfId="49"/>
-    <tableColumn id="41" xr3:uid="{D16DEDB6-D953-4086-818F-46750C375A80}" name="out/16" dataDxfId="48"/>
-    <tableColumn id="42" xr3:uid="{3D0BA16B-E758-44D0-A591-69EB34E06A44}" name="nov/16" dataDxfId="47"/>
-    <tableColumn id="43" xr3:uid="{DD7C48AE-8661-494F-910C-7EFD5F079E67}" name="dez/16" dataDxfId="46"/>
-    <tableColumn id="27" xr3:uid="{CC88617F-0F3B-41A2-B76E-225DFBAE76D4}" name="jan/17" dataDxfId="45"/>
-    <tableColumn id="28" xr3:uid="{8526B9D9-176F-4C74-A061-411CD63AE40C}" name="fev/17" dataDxfId="44"/>
-    <tableColumn id="34" xr3:uid="{B7EB215A-A816-434B-8A4A-C69934E7D478}" name="mar/17" dataDxfId="43"/>
-    <tableColumn id="35" xr3:uid="{AB023239-ADA5-45FB-BC8D-9997A26DE841}" name="abr/17" dataDxfId="42"/>
-    <tableColumn id="36" xr3:uid="{B8A780F2-173E-4E87-B96F-05A31F451373}" name="mai/17" dataDxfId="41"/>
-    <tableColumn id="37" xr3:uid="{E326DF01-F146-4017-A7B4-615192AFD833}" name="jun/17" dataDxfId="40"/>
-    <tableColumn id="38" xr3:uid="{3B30707B-EA31-44F7-BD54-F55F91489B8D}" name="jul/17" dataDxfId="39"/>
-    <tableColumn id="44" xr3:uid="{16D1E248-0183-43D5-A47E-746323F4D8E5}" name="ago/17" dataDxfId="38"/>
-    <tableColumn id="45" xr3:uid="{49E431B1-7AA2-4F97-A42F-4CAE9C5AFCBB}" name="set/17" dataDxfId="37"/>
-    <tableColumn id="46" xr3:uid="{C87440A1-61F6-401B-BC0B-5B27C7AD4DDD}" name="out/17" dataDxfId="36"/>
-    <tableColumn id="47" xr3:uid="{A05081D0-3683-43C0-B125-9D2866E73B9F}" name="nov/17" dataDxfId="35"/>
-    <tableColumn id="48" xr3:uid="{AD01059B-ECA6-4CF9-BAFF-6FC7BE79BE07}" name="dez/17" dataDxfId="34"/>
-    <tableColumn id="49" xr3:uid="{28CC479A-C432-4809-B681-B61AB21A6CF0}" name="jan/18" dataDxfId="33"/>
-    <tableColumn id="50" xr3:uid="{825F9B51-898E-4E1B-9642-57872F2376FE}" name="fev/18" dataDxfId="32"/>
-    <tableColumn id="51" xr3:uid="{375FD0A1-4891-4718-96FA-8C4311156A1F}" name="mar/18" dataDxfId="31"/>
-    <tableColumn id="52" xr3:uid="{3423FD2D-FD8A-4ADA-8375-CC846256947E}" name="abr/18" dataDxfId="30"/>
-    <tableColumn id="53" xr3:uid="{61A3FB2F-7370-4B2E-8992-FD5914CCA439}" name="mai/18" dataDxfId="29"/>
-    <tableColumn id="54" xr3:uid="{0F312C47-9143-4B66-8BE8-A563D2E5F10E}" name="jun/18" dataDxfId="28"/>
-    <tableColumn id="24" xr3:uid="{DB901FBD-0CB2-4272-863B-1C94C335798A}" name="dez/18" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{D74F9E92-F447-48F0-9B4F-F54230CD703F}" name="jan/19" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{11DF066C-11FF-46AD-8273-DF5C1184E009}" name="fev/19" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{F1EEB0D4-B790-4806-B401-21F27653F513}" name="mar/19" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{2E710830-A122-4D91-8061-AA8E9F132D81}" name="abr/19" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{0D83F7E8-0932-4FB8-BE45-70C751E3F238}" name="mai/19" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{EFE02DBF-9402-4CAC-8CAE-7340881D8656}" name="jun/19" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{1FB48D66-EA59-46FD-9DD1-3913B71A7FD1}" name="jul/19" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{D6314FC0-C1E7-4CC5-996C-7E8208F405D2}" name="ago/19" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{91D3AC8B-7C3F-4DA5-B125-8317DBA4A3B8}" name="set/19" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{6DE6BD8C-BFFB-4E4F-9AF1-2731A8D59C83}" name="out/19" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{D7B0217D-3EF8-4AB3-B4BF-296501AE1EBE}" name="nov/19" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{07C9CB04-BF01-44DB-AD67-250B33AA4859}" name="dez/19" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{1537DFD4-60DA-474C-B63F-293CD28CB3B1}" name="jan/20" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{4DBE5627-4A71-47D0-AAF2-D1B12BAF712A}" name="fev/20" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{2BFEB904-CF72-4BD0-BCE2-4346B4A5F3FF}" name="mar/20" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{49981403-2311-4EDC-A627-030DA87F0E73}" name="abr/20" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{2112629F-90C6-430B-BCE3-1930526B23E3}" name="mai/20" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{384A64E4-291C-4333-9875-E4EB3F50639D}" name="jun/20" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{6466630A-2774-48B3-AE1C-E23185A2C63F}" name="jul/20" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{04EB2766-C373-4F11-A66C-737931FF9A74}" name="ago/20" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{CD061BAF-2CEF-4E3B-BA72-9A15A47DB6D9}" name="set/20" dataDxfId="6"/>
-    <tableColumn id="55" xr3:uid="{E4DA3FF3-9DC4-40C3-AD57-FAD555366BA6}" name="out/20" dataDxfId="5"/>
-    <tableColumn id="56" xr3:uid="{6C59D3B7-6CB4-456C-B850-BA1A267E2FF4}" name="nov/20" dataDxfId="4"/>
-    <tableColumn id="57" xr3:uid="{FBD14E99-2987-40D3-BB48-506DD4860BD5}" name="dez/20" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{BBA7275E-0B28-43B7-B87E-5D8B25663D00}" name="Total Por Categoria" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{5D0AF3A4-6E6B-4D02-B55A-A968DF4C2572}" name="Categorias" totalsRowLabel="Total" dataDxfId="115" totalsRowDxfId="56"/>
+    <tableColumn id="25" xr3:uid="{6AA4D8AB-E9C6-435A-852C-B89D9BAF5125}" name="jan/16" dataDxfId="114" totalsRowDxfId="55"/>
+    <tableColumn id="26" xr3:uid="{FD428DBE-045E-485D-8979-40D5D79DDEBE}" name="fev/16" dataDxfId="113" totalsRowDxfId="54"/>
+    <tableColumn id="29" xr3:uid="{876DDBB4-646C-4FC5-B6AC-F331EFED3B5E}" name="mar/16" dataDxfId="112" totalsRowDxfId="53"/>
+    <tableColumn id="30" xr3:uid="{1DFA8142-1D90-4D99-9185-4B49331A553C}" name="abr/16" dataDxfId="111" totalsRowDxfId="52"/>
+    <tableColumn id="31" xr3:uid="{0001CAB1-F41E-4EBC-99C5-BD5658C50F7D}" name="mai/16" dataDxfId="110" totalsRowDxfId="51"/>
+    <tableColumn id="32" xr3:uid="{19AA0B84-ABE9-42EE-AA0F-900CD0C08921}" name="jun/16" dataDxfId="109" totalsRowDxfId="50"/>
+    <tableColumn id="33" xr3:uid="{E1A0D487-22A4-4D8F-A8EC-B8783D91CACB}" name="jul/16" dataDxfId="108" totalsRowDxfId="49"/>
+    <tableColumn id="40" xr3:uid="{AC27CADB-6867-4385-9380-4A4517596413}" name="ago/16" dataDxfId="107" totalsRowDxfId="48"/>
+    <tableColumn id="39" xr3:uid="{6AA6B46D-A647-472F-8559-49551A803F6C}" name="set/16" dataDxfId="106" totalsRowDxfId="47"/>
+    <tableColumn id="41" xr3:uid="{D16DEDB6-D953-4086-818F-46750C375A80}" name="out/16" dataDxfId="105" totalsRowDxfId="46"/>
+    <tableColumn id="42" xr3:uid="{3D0BA16B-E758-44D0-A591-69EB34E06A44}" name="nov/16" dataDxfId="104" totalsRowDxfId="45"/>
+    <tableColumn id="43" xr3:uid="{DD7C48AE-8661-494F-910C-7EFD5F079E67}" name="dez/16" dataDxfId="103" totalsRowDxfId="44"/>
+    <tableColumn id="27" xr3:uid="{CC88617F-0F3B-41A2-B76E-225DFBAE76D4}" name="jan/17" dataDxfId="102" totalsRowDxfId="43"/>
+    <tableColumn id="28" xr3:uid="{8526B9D9-176F-4C74-A061-411CD63AE40C}" name="fev/17" dataDxfId="101" totalsRowDxfId="42"/>
+    <tableColumn id="34" xr3:uid="{B7EB215A-A816-434B-8A4A-C69934E7D478}" name="mar/17" dataDxfId="100" totalsRowDxfId="41"/>
+    <tableColumn id="35" xr3:uid="{AB023239-ADA5-45FB-BC8D-9997A26DE841}" name="abr/17" dataDxfId="99" totalsRowDxfId="40"/>
+    <tableColumn id="36" xr3:uid="{B8A780F2-173E-4E87-B96F-05A31F451373}" name="mai/17" dataDxfId="98" totalsRowDxfId="39"/>
+    <tableColumn id="37" xr3:uid="{E326DF01-F146-4017-A7B4-615192AFD833}" name="jun/17" dataDxfId="97" totalsRowDxfId="38"/>
+    <tableColumn id="38" xr3:uid="{3B30707B-EA31-44F7-BD54-F55F91489B8D}" name="jul/17" dataDxfId="96" totalsRowDxfId="37"/>
+    <tableColumn id="44" xr3:uid="{16D1E248-0183-43D5-A47E-746323F4D8E5}" name="ago/17" dataDxfId="95" totalsRowDxfId="36"/>
+    <tableColumn id="45" xr3:uid="{49E431B1-7AA2-4F97-A42F-4CAE9C5AFCBB}" name="set/17" dataDxfId="94" totalsRowDxfId="35"/>
+    <tableColumn id="46" xr3:uid="{C87440A1-61F6-401B-BC0B-5B27C7AD4DDD}" name="out/17" dataDxfId="93" totalsRowDxfId="34"/>
+    <tableColumn id="47" xr3:uid="{A05081D0-3683-43C0-B125-9D2866E73B9F}" name="nov/17" dataDxfId="92" totalsRowDxfId="33"/>
+    <tableColumn id="48" xr3:uid="{AD01059B-ECA6-4CF9-BAFF-6FC7BE79BE07}" name="dez/17" dataDxfId="91" totalsRowDxfId="32"/>
+    <tableColumn id="49" xr3:uid="{28CC479A-C432-4809-B681-B61AB21A6CF0}" name="jan/18" dataDxfId="90" totalsRowDxfId="31"/>
+    <tableColumn id="50" xr3:uid="{825F9B51-898E-4E1B-9642-57872F2376FE}" name="fev/18" dataDxfId="89" totalsRowDxfId="30"/>
+    <tableColumn id="51" xr3:uid="{375FD0A1-4891-4718-96FA-8C4311156A1F}" name="mar/18" dataDxfId="88" totalsRowDxfId="29"/>
+    <tableColumn id="52" xr3:uid="{3423FD2D-FD8A-4ADA-8375-CC846256947E}" name="abr/18" dataDxfId="87" totalsRowDxfId="28"/>
+    <tableColumn id="53" xr3:uid="{61A3FB2F-7370-4B2E-8992-FD5914CCA439}" name="mai/18" dataDxfId="86" totalsRowDxfId="27"/>
+    <tableColumn id="54" xr3:uid="{0F312C47-9143-4B66-8BE8-A563D2E5F10E}" name="jun/18" dataDxfId="85" totalsRowDxfId="26"/>
+    <tableColumn id="24" xr3:uid="{DB901FBD-0CB2-4272-863B-1C94C335798A}" name="dez/18" dataDxfId="84" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{D74F9E92-F447-48F0-9B4F-F54230CD703F}" name="jan/19" dataDxfId="83" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{11DF066C-11FF-46AD-8273-DF5C1184E009}" name="fev/19" dataDxfId="82" totalsRowDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{F1EEB0D4-B790-4806-B401-21F27653F513}" name="mar/19" dataDxfId="81" totalsRowDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{2E710830-A122-4D91-8061-AA8E9F132D81}" name="abr/19" dataDxfId="80" totalsRowDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{0D83F7E8-0932-4FB8-BE45-70C751E3F238}" name="mai/19" dataDxfId="79" totalsRowDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{EFE02DBF-9402-4CAC-8CAE-7340881D8656}" name="jun/19" dataDxfId="78" totalsRowDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{1FB48D66-EA59-46FD-9DD1-3913B71A7FD1}" name="jul/19" dataDxfId="77" totalsRowDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{D6314FC0-C1E7-4CC5-996C-7E8208F405D2}" name="ago/19" dataDxfId="76" totalsRowDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{91D3AC8B-7C3F-4DA5-B125-8317DBA4A3B8}" name="set/19" dataDxfId="75" totalsRowDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{6DE6BD8C-BFFB-4E4F-9AF1-2731A8D59C83}" name="out/19" dataDxfId="74" totalsRowDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{D7B0217D-3EF8-4AB3-B4BF-296501AE1EBE}" name="nov/19" dataDxfId="73" totalsRowDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{07C9CB04-BF01-44DB-AD67-250B33AA4859}" name="dez/19" dataDxfId="72" totalsRowDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{1537DFD4-60DA-474C-B63F-293CD28CB3B1}" name="jan/20" dataDxfId="71" totalsRowDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{4DBE5627-4A71-47D0-AAF2-D1B12BAF712A}" name="fev/20" dataDxfId="70" totalsRowDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{2BFEB904-CF72-4BD0-BCE2-4346B4A5F3FF}" name="mar/20" dataDxfId="69" totalsRowDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{49981403-2311-4EDC-A627-030DA87F0E73}" name="abr/20" dataDxfId="68" totalsRowDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{2112629F-90C6-430B-BCE3-1930526B23E3}" name="mai/20" dataDxfId="67" totalsRowDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{384A64E4-291C-4333-9875-E4EB3F50639D}" name="jun/20" dataDxfId="66" totalsRowDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{6466630A-2774-48B3-AE1C-E23185A2C63F}" name="jul/20" dataDxfId="65" totalsRowDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{04EB2766-C373-4F11-A66C-737931FF9A74}" name="ago/20" dataDxfId="64" totalsRowDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{CD061BAF-2CEF-4E3B-BA72-9A15A47DB6D9}" name="set/20" dataDxfId="63" totalsRowDxfId="4"/>
+    <tableColumn id="55" xr3:uid="{E4DA3FF3-9DC4-40C3-AD57-FAD555366BA6}" name="out/20" dataDxfId="62" totalsRowDxfId="3"/>
+    <tableColumn id="56" xr3:uid="{6C59D3B7-6CB4-456C-B850-BA1A267E2FF4}" name="nov/20" dataDxfId="61" totalsRowDxfId="2"/>
+    <tableColumn id="57" xr3:uid="{FBD14E99-2987-40D3-BB48-506DD4860BD5}" name="dez/20" dataDxfId="60" totalsRowDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{BBA7275E-0B28-43B7-B87E-5D8B25663D00}" name="Total Por Categoria" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(AH2:BB2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17371,16 +18622,16 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{18D078CB-4B4E-44DC-BD21-465D1E152891}" name="SubCategoria"/>
-    <tableColumn id="2" xr3:uid="{9B776D43-F3AF-4C37-8B42-AF036B09EA66}" name="Valor" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{9B776D43-F3AF-4C37-8B42-AF036B09EA66}" name="Valor" dataDxfId="58" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6316ABC0-BE72-4927-A0CC-92D47D1828C1}" name="Tabela1" displayName="Tabela1" ref="B1:AC12" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B1:AC12" xr:uid="{30E7AF0C-2406-4D8E-8F3C-2F5CF15E1A76}"/>
-  <tableColumns count="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6316ABC0-BE72-4927-A0CC-92D47D1828C1}" name="Tabela1" displayName="Tabela1" ref="B1:AD12" totalsRowShown="0" headerRowDxfId="57">
+  <autoFilter ref="B1:AD12" xr:uid="{30E7AF0C-2406-4D8E-8F3C-2F5CF15E1A76}"/>
+  <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{467A26DC-BF8E-430A-BC69-1ACF5B4E0BF0}" name="Tipo"/>
     <tableColumn id="12" xr3:uid="{8C517F2A-D45F-4C0E-994A-8DDC63AAF31E}" name="fev/18"/>
     <tableColumn id="13" xr3:uid="{4B846A75-FD83-4889-897B-E37DD8772C64}" name="mar/18"/>
@@ -17409,6 +18660,7 @@
     <tableColumn id="26" xr3:uid="{F4FB3404-A2A3-44B0-9680-EF3ECBF01F28}" name="ago/20"/>
     <tableColumn id="27" xr3:uid="{CCF120B6-69F1-46AC-9C35-5D7F6ECE2413}" name="set/20"/>
     <tableColumn id="28" xr3:uid="{0EF714F9-1025-47DC-9E0E-F21D1A3B302F}" name="out/20"/>
+    <tableColumn id="29" xr3:uid="{39053262-BB63-4381-9B5A-133873DE0805}" name="nov/20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17711,12 +18963,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46DB15E-EF82-4401-9F39-DDD2BE1C7027}">
-  <dimension ref="B1:BF17"/>
+  <dimension ref="B1:BF18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8700" topLeftCell="AR1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="8685" topLeftCell="AQ1" activePane="topRight"/>
       <selection activeCell="A8" sqref="A8:XFD8"/>
-      <selection pane="topRight" activeCell="BC2" sqref="AT2:BC2"/>
+      <selection pane="topRight" activeCell="AY8" sqref="AY8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18067,7 +19319,9 @@
       <c r="BC2" s="3">
         <v>11269.21</v>
       </c>
-      <c r="BD2" s="3"/>
+      <c r="BD2" s="3">
+        <v>5063.38</v>
+      </c>
       <c r="BE2" s="3"/>
       <c r="BF2" s="3">
         <f>SUM(AH2:BB2)</f>
@@ -18237,7 +19491,9 @@
       <c r="BC3" s="3">
         <v>195.15</v>
       </c>
-      <c r="BD3" s="3"/>
+      <c r="BD3" s="3">
+        <v>206.18</v>
+      </c>
       <c r="BE3" s="3"/>
       <c r="BF3" s="3">
         <f t="shared" ref="BF3:BF15" si="0">SUM(AH3:BB3)</f>
@@ -18407,7 +19663,9 @@
       <c r="BC4" s="3">
         <v>1733.97</v>
       </c>
-      <c r="BD4" s="3"/>
+      <c r="BD4" s="3">
+        <v>1158.0999999999999</v>
+      </c>
       <c r="BE4" s="3"/>
       <c r="BF4" s="3">
         <f t="shared" ref="BF4:BF12" si="1">SUM(AH4:BB4)</f>
@@ -18557,7 +19815,9 @@
       <c r="BC5" s="3">
         <v>301.8</v>
       </c>
-      <c r="BD5" s="3"/>
+      <c r="BD5" s="3">
+        <v>7000</v>
+      </c>
       <c r="BE5" s="3"/>
       <c r="BF5" s="3">
         <f t="shared" si="1"/>
@@ -18713,7 +19973,9 @@
       <c r="BC6" s="3">
         <v>2135.2199999999998</v>
       </c>
-      <c r="BD6" s="3"/>
+      <c r="BD6" s="3">
+        <v>2766.33</v>
+      </c>
       <c r="BE6" s="3"/>
       <c r="BF6" s="3">
         <f>SUM(AH6:BB6)</f>
@@ -18823,7 +20085,9 @@
       <c r="BC7" s="3">
         <v>2552.8200000000002</v>
       </c>
-      <c r="BD7" s="3"/>
+      <c r="BD7" s="3">
+        <v>2595.59</v>
+      </c>
       <c r="BE7" s="3"/>
       <c r="BF7" s="3">
         <f>SUM(AH7:BB7)</f>
@@ -18983,7 +20247,9 @@
       <c r="BC8" s="3">
         <v>1398.2</v>
       </c>
-      <c r="BD8" s="3"/>
+      <c r="BD8" s="3">
+        <v>1593.58</v>
+      </c>
       <c r="BE8" s="3"/>
       <c r="BF8" s="3">
         <f>SUM(AH8:BB8)</f>
@@ -19147,7 +20413,9 @@
       <c r="BC9" s="3">
         <v>-65.69</v>
       </c>
-      <c r="BD9" s="3"/>
+      <c r="BD9" s="3">
+        <v>67.739999999999995</v>
+      </c>
       <c r="BE9" s="3"/>
       <c r="BF9" s="3">
         <f>SUM(AH9:BB9)</f>
@@ -19299,7 +20567,9 @@
       <c r="BC10" s="3">
         <v>356.78</v>
       </c>
-      <c r="BD10" s="3"/>
+      <c r="BD10" s="3">
+        <v>356.87</v>
+      </c>
       <c r="BE10" s="3"/>
       <c r="BF10" s="3">
         <f t="shared" si="1"/>
@@ -19463,7 +20733,9 @@
       <c r="BC11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="BD11" s="3"/>
+      <c r="BD11" s="3">
+        <v>1287.8399999999999</v>
+      </c>
       <c r="BE11" s="3"/>
       <c r="BF11" s="3">
         <f t="shared" si="1"/>
@@ -19619,7 +20891,9 @@
       <c r="BC12" s="3">
         <v>3997.6</v>
       </c>
-      <c r="BD12" s="3"/>
+      <c r="BD12" s="3">
+        <v>1072</v>
+      </c>
       <c r="BE12" s="3"/>
       <c r="BF12" s="3">
         <f t="shared" si="1"/>
@@ -19739,7 +21013,9 @@
       <c r="BC13" s="3">
         <v>112</v>
       </c>
-      <c r="BD13" s="3"/>
+      <c r="BD13" s="3">
+        <v>233</v>
+      </c>
       <c r="BE13" s="3"/>
       <c r="BF13" s="3">
         <f t="shared" si="0"/>
@@ -19845,7 +21121,9 @@
       <c r="BC14" s="3">
         <v>7000</v>
       </c>
-      <c r="BD14" s="3"/>
+      <c r="BD14" s="3">
+        <v>30000</v>
+      </c>
       <c r="BE14" s="3"/>
       <c r="BF14" s="3">
         <f t="shared" si="0"/>
@@ -19955,7 +21233,9 @@
       <c r="BC15" s="3">
         <v>987.95</v>
       </c>
-      <c r="BD15" s="3"/>
+      <c r="BD15" s="3">
+        <v>8974.7199999999993</v>
+      </c>
       <c r="BE15" s="3"/>
       <c r="BF15" s="3">
         <f t="shared" si="0"/>
@@ -20045,7 +21325,9 @@
       <c r="BC16" s="3">
         <v>252</v>
       </c>
-      <c r="BD16" s="3"/>
+      <c r="BD16" s="3">
+        <v>595.22</v>
+      </c>
       <c r="BE16" s="3"/>
       <c r="BF16" s="3">
         <f>SUM(AH16:BB16)</f>
@@ -20053,137 +21335,201 @@
       </c>
     </row>
     <row r="17" spans="2:58" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3">
+        <f>SUBTOTAL(109,Tabela2[Total Por Categoria])</f>
+        <v>402800.73999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="4">
         <f>SUM(C2:C16)</f>
         <v>3372.34</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="4">
         <f>SUM(D2:D16)</f>
         <v>3908.37</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4">
         <f>SUM(O2:O16)</f>
         <v>812.24</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P18" s="4">
         <f>SUM(P2:P16)</f>
         <v>6542.27</v>
       </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17">
-        <f t="shared" ref="AH17:BF17" si="2">SUM(AH2:AH15)</f>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18">
+        <f t="shared" ref="AH18:BF18" si="2">SUM(AH2:AH15)</f>
         <v>15686.099999999997</v>
       </c>
-      <c r="AI17">
+      <c r="AI18">
         <f t="shared" si="2"/>
         <v>14529.559999999998</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ18">
         <f t="shared" si="2"/>
         <v>18606.830000000002</v>
       </c>
-      <c r="AK17">
+      <c r="AK18">
         <f t="shared" si="2"/>
         <v>25284.789999999997</v>
       </c>
-      <c r="AL17">
+      <c r="AL18">
         <f t="shared" si="2"/>
         <v>16187.619999999999</v>
       </c>
-      <c r="AM17">
+      <c r="AM18">
         <f t="shared" si="2"/>
         <v>18110.84</v>
       </c>
-      <c r="AN17">
+      <c r="AN18">
         <f t="shared" si="2"/>
         <v>22445.32</v>
       </c>
-      <c r="AO17">
+      <c r="AO18">
         <f t="shared" si="2"/>
         <v>18391.420000000002</v>
       </c>
-      <c r="AP17">
+      <c r="AP18">
         <f t="shared" si="2"/>
         <v>17774.36</v>
       </c>
-      <c r="AQ17">
+      <c r="AQ18">
         <f t="shared" si="2"/>
         <v>12620.8</v>
       </c>
-      <c r="AR17">
+      <c r="AR18">
         <f t="shared" si="2"/>
         <v>15103.84</v>
       </c>
-      <c r="AS17">
+      <c r="AS18">
         <f t="shared" si="2"/>
         <v>25764.250000000004</v>
       </c>
-      <c r="AT17">
+      <c r="AT18">
         <f t="shared" si="2"/>
         <v>18223.729999999996</v>
       </c>
-      <c r="AU17">
+      <c r="AU18">
         <f>SUM(AU2:AU16)</f>
         <v>20308.329999999998</v>
       </c>
-      <c r="AV17">
+      <c r="AV18">
         <f t="shared" si="2"/>
         <v>15343.529999999999</v>
       </c>
-      <c r="AW17">
+      <c r="AW18">
         <f t="shared" si="2"/>
         <v>18472.870000000003</v>
       </c>
-      <c r="AX17">
+      <c r="AX18">
         <f t="shared" si="2"/>
         <v>16249.51</v>
       </c>
-      <c r="AY17">
+      <c r="AY18">
         <f t="shared" si="2"/>
         <v>17661.120000000003</v>
       </c>
-      <c r="AZ17">
+      <c r="AZ18">
         <f t="shared" si="2"/>
         <v>21019.600000000002</v>
       </c>
-      <c r="BA17">
+      <c r="BA18">
         <f t="shared" si="2"/>
         <v>22770.7</v>
       </c>
-      <c r="BB17">
+      <c r="BB18">
         <f t="shared" si="2"/>
         <v>16340.62</v>
       </c>
-      <c r="BF17">
+      <c r="BF18">
         <f t="shared" si="2"/>
         <v>384895.73999999993</v>
       </c>
@@ -20204,7 +21550,7 @@
   <dimension ref="A2:N38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21018,12 +22364,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F060317C-C80B-4AD8-8076-0562414FEA70}">
-  <dimension ref="B1:AC12"/>
+  <dimension ref="B1:AD12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8508" topLeftCell="Q1" activePane="topRight"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="8535" topLeftCell="Q1" activePane="topRight"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="AC13" sqref="AC13"/>
+      <selection pane="topRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21039,7 +22385,7 @@
     <col min="27" max="27" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -21124,8 +22470,11 @@
       <c r="AC1" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -21210,8 +22559,11 @@
       <c r="AC2">
         <v>50788.87</v>
       </c>
+      <c r="AD2">
+        <v>37635.39</v>
+      </c>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>40</v>
       </c>
@@ -21296,8 +22648,11 @@
       <c r="AC3" t="s">
         <v>110</v>
       </c>
+      <c r="AD3" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>105</v>
       </c>
@@ -21315,8 +22670,11 @@
       <c r="AC4">
         <v>108738.96</v>
       </c>
+      <c r="AD4">
+        <v>62567.31</v>
+      </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>99</v>
       </c>
@@ -21401,8 +22759,11 @@
       <c r="AC5">
         <v>-198.48</v>
       </c>
+      <c r="AD5">
+        <v>1398.69</v>
+      </c>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>101</v>
       </c>
@@ -21436,8 +22797,11 @@
       <c r="AC6">
         <v>1457.27</v>
       </c>
+      <c r="AD6">
+        <v>304.77999999999997</v>
+      </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>102</v>
       </c>
@@ -21471,8 +22835,11 @@
       <c r="AC7">
         <v>-8421.01</v>
       </c>
+      <c r="AD7">
+        <v>11000</v>
+      </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>103</v>
       </c>
@@ -21515,8 +22882,11 @@
       <c r="AC8">
         <v>7162.22</v>
       </c>
+      <c r="AD8">
+        <v>12703.47</v>
+      </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>93</v>
       </c>
@@ -21601,8 +22971,11 @@
       <c r="AC9">
         <v>-272.72000000000003</v>
       </c>
+      <c r="AD9">
+        <v>1124.97</v>
+      </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>95</v>
       </c>
@@ -21636,8 +23009,11 @@
       <c r="AC10">
         <v>164.24</v>
       </c>
+      <c r="AD10">
+        <v>469.02</v>
+      </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>96</v>
       </c>
@@ -21671,8 +23047,11 @@
       <c r="AC11">
         <v>203.23</v>
       </c>
+      <c r="AD11">
+        <v>11203.23</v>
+      </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>94</v>
       </c>
@@ -21714,14 +23093,18 @@
       </c>
       <c r="AC12">
         <v>94.75</v>
+      </c>
+      <c r="AD12">
+        <v>12798.22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>